--- a/docs/data-cleaning-requests/low-level-data-cleaning/police_responses_monitor.xlsx
+++ b/docs/data-cleaning-requests/low-level-data-cleaning/police_responses_monitor.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="police_responses" sheetId="1" r:id="rId1"/>
+    <sheet name="other_monitor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1265,4 +1266,8302 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D374"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>canonical_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>police_activities</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20151112_Berkeley_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Hundreds of protesters filled UC Berkeley's Sproul Plaza to participate in the Million Student March, a nationwide student movement for tuition-free public colleges, the cancellation of student debt and a $15-per-hour campuswide minimum wage. The Million Student March took place at more than 115 colleges around the country. At UC campuses, the march was jointly organized by members of the UC Student Association. The campus closed the Campanile and increased UCPD staffing in anticipation of the protest. "Essentially our whole department is here," said Sgt. Rick Florendo during the protest. The Berkeley demonstrators also stressed the interrelation of tuition with Black Lives Matter movement and expressed solidarity with students at the University of Missouri. After several speeches and chants outside Sproul Hall, participants marched to California Hall, where they covered the doorway and front of the building with posters, on which they wrote their amounts of student debt.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20151112_Hanover_March_Anti-racism</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Dartmouth's chapter of the National Association for the Advancement of Colored People organized a "Blackout Demonstration" to protest racism on campus and by students through social media outlets and to stand in solidarity with the students at the University of Missouri._x000D_
+Chants of "We shall overcome" and "Black Lives Matter" echoed through the Green as more than 150 students, faculty, staff and community members dressed in black, marched from Novack Café to Dartmouth Hall in a demonstration of solidarity with the black communities at University of Missouri and Yale University and the larger Black Lives Matter movement. Organizers called this a Blackout, at first as a response to the vandalism of the #BlackLivesMatter display in the Collis Atrium after its reveal last Thursday. The display shows 74 shirts representing the 74 unarmed individuals who lost their lives to police brutality this year. Twenty-eight of these shirts were black, representing the 28 unarmed black individuals killed by police brutality in 2015. One female student, the editorial alleges, was pinned against a wall by demonstrators while shouting "filthy white b****!" in her face.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20151112_Hanover_disruption_Anti-racism</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>This was a "Blackout" demonstration at Dartmouth College, in library, organized by Dartmouth NAACP, to demonstrate solidarity with the black students at the University of Missouri and Yale, and to protest vandalism of a BLM exhibit. Demonstrators marched from Novack Café to the lawn in front of Dartmouth Hall. At that point the official demonstration concluded, but many demonstrators continued, marching back into First Floor Berry up through Fourth Floor Berry, then back to Novack and Collis. On First Floor Berry, many demonstrators spoke about their struggles at Dartmouth as a students of color and challenged and yelled at students who were sitting on the other side of the library to stand up and support the movement. One female student, the editorial alleges, was pinned against a wall by demonstrators while shouting "filthy white b****!" in her face.  _x000D_
+Protesters marched through the library in Dartmouth, shouting, "Black Lives Matter," interrupting many students who were studying.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20151112_Madison_March_Anti-racism</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The event was a "Black Out March" at the University of Wisconsin - Madison, 600 African-American students and their supporters rallied in solidarity with students at the University of Missouri, who ousted two top administrators for their mishandling of racial incidents on that campus. The Madison protesters showed their support of the University of Missouri's movement to end systematic racism at the university and throughout the country. The march lasted roughly an hour and began on top of UW's Bascom Hill and traveled down State Street to the Capitol. Protesters were guided by police, and chanted "Black Lives Matter," "Racism is at Mizzou; it's on our campus too" and "No justice, no peace." The protesters made several stops along the way in the middle of intersections in attempt to garner attention and so student leaders could speak to the group about issues that they observed with racism throughout the country and at the University of Wisconsin. The students were dissatisfied with the way the UW administration had treated instances of racism in the past. The UW Police Department directed traffic and walked with activists to support the movement.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Participate, Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20151201_Middletown_March_Anti-Racism</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A Black Lives Matter protest was organized on campus last December by various student leaders of colour. The protest included a march that started in the Exley Science Center and moved around campus, culminating in four and a half minutes of silence on Main Street. It consisted of hundreds of students and faculty members, including President Michael Roth. Middletown police were present to make sure the protest was peaceful.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20160412_ Philadelphia_Walkout_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Before marching to City Hall, students, faculty and community members participated in a Walk Out at 2 p.m., where a rally was held at the Bell Tower. At Bell Tower, a rally of about 500 people by Stadium Stompers to protest Temple's proposed stadium, $15 an hour for fast food workers and an end to stop-and-frisk policing. Students from Temple's Asian Student Association, Feminist Majority Leadership Alliance, Students for Justice in Palestine and 15 Now spoke during the hour-long rally before the march and students recited poems. Around 3 p.m., rally participants walked down Polett and Liacouras walks to meet Fight for 15 protesters at Broad Street and Cecil B. Moore Avenue. Another short rally about the need for $15 an hour was held before protesters began their march down North Broad Street to City Hall. Throughout the Day of Action, protesters from Temple expressed need for a sexual assault crisis center.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20160219_Durham_March_AntiRacism</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Approximately 25 protestors marched from the West Campus bus stop to the bench in front of Delta Sigma Phi section and held a "teach in," in which they discussed the party, mass incarceration in the U.S. and other topics. Fifty to 75 onlookers gathered on the main West Campus Quadrangle in front of the protest.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20160308_Durham_March_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Approximately 25 students were joined by several former PTS employees (35 in total) to rally at the James B. Duke statue in front of the Chapel then marched to the West Campus bus stop and Allen Building at Duke University to call for the resignation of of Executive Vice President Tallman Trask and protest the mistreatment (racism, retaliation, bullying) of employees within Duke's Parking and Transportation Services department. The protest came one week after The Chronicle reported that Trask hit a female contract employee with his car in 2014 and allegedly used a racial slur against her. Other issues were systemic racism and campus police conduct (in the investigation of Trask's hit and run). Both Trask and the university were targets.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20160414_SanDiego_March_Anti-Racism</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UCSD students gathered together to protest student debt and institutional racism during the second Million Student March. At some point during the Million Student March, Trump supporter counter-protesters congregated on the path. Also, campus police were present during the march. Note: Trump was not the headline issue of this protest</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20151113_Boston_March_Anti-Racism</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>More than 400 people participated in Boston University's "Blackout: Mizzou We Stand With You" solidarity rally following racial tensions at Missouri. Students from Tufts, MIT, and Morehouse College marched in from the east and west sides of the BU campus to congregate alongside BU students at the Marsh Plaza, chanting phrases such as, "What do we want? Justice! When do we want it? Now!" and "M-I-Z-Z-O-U." Many attendees wore black to demonstrate their solidarity. Following the rally at the plaza, rally attendees gathered at BU's Howard Thurman Center for Common Ground to discuss systemic racism in relation to the events at Mizzou. Boston Police Department and Boston University Police Department officers were present throughout the duration of the rally. One of the rally organizers said she had called on police to be on duty after she and others received threats.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>20160309_Vancouver_Rally_Pro-life</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>About half a dozen pro-life activists from the student group - UBC Lifeline held a protest in front of the University of British Columbia's Frederic Lasserre building on March 9, 2016. Signage at the protest displayed the Nazi Swastika and the yellow star with JUDE inscribed on it - the insignia that the Nazi's forced people of Jewish descent to wear so that they could be separated and distinguished from others. One sign calls the “insanity of choice” and equating abortion to the Holocaust or Cambodian genocide.  After the demonstration, a sign belonging to UBC Lifeline was destroyed by an individual wielding a pocket knife.  The president's office responded by having these images removed.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>20151111_Richmond_Rally_AntiRacism</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Virginia Commonwealth University students assembled in the Compass to show support and solidarity for students at the University of Missouri and voice perspectives on issues of race in university settings, including VCU. The event was organized by a collective group of black students on campus. The students who chose to speak out noted similarities they perceived between racial issues at Missouri and at VCU. About half an hour into the demonstration, representatives from the Office of the President and the VCU Police joined the students and began fielding questions.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>20160212_Asheville_March_Environmental</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The Divestment Coalition at University of North Carolina- Asheville set up a booth in Ramsey Library encouraging students to write "break-up" valentines to UNCA Chancellor Mary Grant. The authors of the valentines asked the chancellor to break up with fossil fuels, in honor of the upcoming Valentine's Day weekend. The following day, students marched to Phillips Hall to protest against the University of North Carolina's continued investment in fossil fuels. The march began with chants and song, as members of the protest sang, "Whose side are you on," demanding to know which side the chancellor will choose. Once arrived, the group present the valentines to UNCA Chancellor Mary Grant. Students gathered in a circle and read their letters to her.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20160329_ChapelHill_March_Trangender(For)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Almost 1,000 people marched Tuesday evening on Franklin Street on University of North Carolina at Chapel Hill. Chapel Hill Police were called in to block traffic due to the influx of people, and the intersection of Franklin and Columbia Streets had to be marked off. A group of 50 faculty members issued a statement opposing Gov. Pat McCrory and the passage of House Bill 2 in North Carolina.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>20160330_Greenville_March_Transgender(For)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GLBT members and supporters gathered near the Gateway Hall on College Hill to march in protest against "HB2." They held up signs and chanted as they walked down College Hill Drive toward East Carolina University's main campus. As protesters marched in between buildings on main campus, students passing by clapped and took pictures of the protest. The protest was in response to "HB2", officially know as the Public Facilities Privacy &amp; Security Act that restricts which restrooms members of the transgender community can use.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>20160223_Halifax_Rally_Tuition</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The event in this protest was a rally involving about 40 Dalhousie students in front of the Henry Hicks building, where the Dal Board of Governors were meeting to vote on whether to pass proposed tuition hikes, which recommended an increase of 18.9 per cent for agriculture, and 15 per cent for engineering and pharmacy. Dalhousie security allowed eight students to attend the meeting after the protests started, and then six more were allowed entry. Students that were left in the cold to have their message heard were not shaken by the exclusion to attend, as they continued to chant, shake signs and pass around candy to support their fellow students in the cause for reducing tuition fees.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>20160206_AnnArbor_Rally_Feminism</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Rally for women's rights awareness attended by nearly 100 protestors in the Diag of the University of Michigan-Ann Arbor campus in response to an anticipated event by self-proclaimed men's rights group Return of Kings (ROK) in downtown Ann Arbor. _x000D_
+_x000D_
+The protest consisted of a diverse arrange of community members such as local residents, students, and activist as well as protesters from other areas such as Lansing and Detroit. The primary issues at hand was to raise awareness for women's issues, discrimination against sexuality, sexism, and reproductive rights. Secondary issues of race and violence against women were expressed by some protesters. Police monitored the event and expressed their interest in investigating the ROK meeting. _x000D_
+_x000D_
+The Sexual Assault Prevention and Awareness Center staffed a debriefing room in the Michigan League for the duration of the event, and organizers repeatedly referred to the rally as a "safe space." _x000D_
+_x000D_
+Finally the protest ended with a celebration for the women who attended the event and attendees chanted "we won" in reference to the failure of ROK to actualize.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>20160225_Houston_Rally_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Students marched through the University of Houston campus and held a rally as part of a 'Dump Trump' protest, which included bashing a Trump piñata, to protest against racism, bigotry towards members of certain religions, and anti-immigrant rhetoric in the Republican party, and specifically, against Donald Trump. Students for a Democratic Society organized the protest. Many protesters held signs depicting Republican presidential candidate Donald Trump as Hitler. The protest grew to hundreds of supporters within minutes, and police worked to keep the protesters under control as the night went on.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>20151110_Ithaca_Walkout_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Students at Ithaca College in New York held a Solidarity Walkout in support of MU and Concerned Student 1950 and to call for the resignation of Ithaca College's president. Over 1,000 students protested in an effort to recognize the struggles that students of color face and to organize efforts to force Ithaca College president Tom Rochon to give up his position as head of the university because of Rochon's lackluster responses to student issues. Protesters gathered at Ithaca's Freedom Rock then proceeded to lay on the ground for a die-in as an act of defiance for 20 minutes. Protesters asked students and faculty to vote “no confidence” in the president. “With University of Missouri's president stepping down, we demand Rochon to do the same as it is vital to fight against both covert and overt racism in all places of education and empowerment,” the event page said. The Ithaca College protest was in support minority students across the country following racist incidents at the University of Missouri and other campuses across the US.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20151014_Indianapolis_Rally_LGB+(For)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Gathering at the Bulldog Statue, Butler University students held a counter-protests against the Campus Ministry USA group who came to preach the Gospel and spread hateful messages. Butler students gathered in front of Atherton Union and waved rainbow colored flags in support of the LGBT community and held signs supporting equality, love and freedom. Across the street, the Phi Delta Theta fraternity house played music which drowned out the protestors. Members even gave out condoms to passersby.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20151014_Indianapolis_Rally_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Several members of Campus Ministry USA gathered in front of Atherton Union at Butler University holding signs accusing students of sinning and calling on students to conform to the group's religious beliefs.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20160219_Austin_Rally_Faith-BasedDiscrimination</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Seven student organizations including the Society for Islamic Awareness, Syrian People Solidarity Group and Hack the System, the International Socialist Organization among others held a rally in UT Austin's West mall to speak out against Islamophobia and anti-refugee sentiment. Approximately 50 people were in attendance, raising fists and nodding in approval as speakers took the microphone.The rally included several chants shouting for acceptance of refugees and a rebuke of Islamophobia. Participants Members of the International Socialist Organization handed out promotional flyers to students that walked by. One of the rally's organizers, explained the significance of the date, Feb. 19, referencing the signing of Executive Order 9066 by President Franklin Roosevelt, which authorized the internment of Japanese Americans amid the tensions of World War II. UTPD officers watched over the area from the front porch of the Flawn Academic Center, looking out for counterprotesters and ensuring the safety of the students, officers said.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20151014_LosAngeles_Rally_LGB+(For)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CalStateLA! Coalition - a conglomerate made up of the Feminist Majority Leadership Alliance (FMLA), Students United to Reach Educational Goals (SURGE), Students for Quality Education (SQE), The Queer Connection (TQC), and California Student Union (CaSU) - hosted a general assembly rally in the Free Speech Zone at Cal State LA to support Trans* and Queer Equity, to advocate for undocumented rights, to call for boycotting and divesting as a campus, and to draw attention to climate change. The group also declared their support for the CFA in their call for a 5% raise and called for student worker salaries to raise to $15 dollars an hour. Students displayed colorful signs and a lone toilet that was brightly painted with the trans* flag on top and the gay pride flag on the bottom. After a noise complaint, police made an appearance and ralliers chanted "No racist police; no justice, no peace." At the end of the rally, the CalStateLA! Coalition announced that they would continue to speak on campus throughout the quarter, stating, "we're not going anywhere. We are with you."</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>20151104_SanMarcos_Rally_Abortion(Against)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The Center for Bioethical Reform staged an anti-abortion protest in the free speech zone of the quad at Texas State University's San Marcos campus. The group surrounded the statue of the stallions in the free speech area, displaing graphic images of aborted fetuses towered alongside historical images of genocide in Rwanda and of Holocaust victims. They also set up barricades around their demonstration to prevent "mischief" and vandalism, said Bill Calvin, regional director for the Center for Bioethical Reform. Student Involvement officials confirmed that the barricade did not breach university policy. Their demonstration incited a counter-protest. University police officers were present to ensure the safety of people in the area.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>20151104_SanMarcos_Rally_Abortion(For)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Pro-choice students at Texas State University's San Marcos campus staged a counter-protest in response to an anti-abortion demonstration in the free speech zone of the quad. The anti-abortion group had set up barricades around their demonstration and pro-choice protesters gathered in front of the barricade, holding posters with slogans like, "end the stigma of abortion" and "my body my choice." They also used sheets to cover the graphic images on display. Feminists United, Texas Freedom Network and the College Democrats were present at the counter-protest. The organizations distributed informational flyers and free condoms to students passing by. University police officers were present to ensure the safety of people in the area.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>562</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>20151105_SanMarcos_Rally_Abortion(Against)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Members of the Center for Bio-Ethical Reform protested abortion on campus by hanging up large signs and creating a barricade. A student in a 'Spiderman' costume was handcuffed and escorted off campus property after spraying silly string on the signs of the protest group.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20160331_Macomb_Rally_Economy</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Western Illinois University's chapter of University Professionals of Illinois' hosted a march and rally to advocate for the end of the budget standoff threatening Macomb's economy. Included community members. Speeches were also given at the protest.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>20160225_LosAngeles_Disruption_FarRight(Against)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Hundreds of students and faculty filled the University-Student Union (U-SU) at Cal State University - Los Angeles to its capacity to block the doors to the U-SU theatre, where conservative speaker Ben Shapiro was scheduled to give his presentation "When Diversity Becomes a Problem." The protesters accused Shapiro of racism and hate speech. Filling up the lobby and the outside of the U-SU, protesters formed themselves into human barriers, blocking the entrances to the theatre with chants of "No hate speech!" and "Racists go home!" Supporters of Ben Shapiro came in and began pushing, shoving, and even hitting student protesters. A fire alarm was pulled and some protesters blocked exits. At one point, six Cal State LA students reported seeing a man walking across the University with a gun. In the end, Shapiro had to be escorted out of the building by police. The protesters are further demanding that CSULA President Covino resign from his position over the university's handing of the event. A large crowd of students marched from the U-SU to the eighth floor of the administration office while chanting "Covino, resign." Protesters staged a sit-in in the hall outside the President's office for multiple hours. Cal State LA student Sesley Lewis held a phone conversation with President Covino to speak on behalf of the students, which was posted on the "California Student Union" Facebook page, along with a demand for President Covino's resignation by Monday.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>20151013_Starkville_Rally_LGB+(Against)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>The visit from Consuming Fire lasted three days, and the strict religious doctrine that was preached caused tensions to rise, prompting the university to set up barricades on the Drill Field to separate Consuming Fire members and others on the third day. The Fellowship members conducted their preaching near the centre of the Drill Field, close to the flag pole. Some members also confronted the student counter protesters about their salvation, but were asked to remain peaceful. Reportedly provoking them with homophobic slurs and other harassing language. Consuming Fire Fellowship preached their religious doctrine to students and protest against a homosexual lifestyle. A metal fence was erected into a circle for the church members to stay inside of. The group preached on the MSU campus for 3 days.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>617</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>20151013_Starksville_Information_LGB+(For)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>LGTBQ+ Union, a student activist group, participated in a three day silent counter protest against Consuming Fire Fellowship who came to Mississippi State University to preach their religious doctrine to students. LGBTQ+ Union's tent was set up close to the Lee Hall side of the field. A gay pride flag waved from the LGBTQ+'s tent and several students in the organization carried them while handing out pamphlets about LGBTQ welcoming churches in the area. Some members felt harassed by the church group and intended to file harassment charges with the MSU Police Department. The environment on the field got hostile by Wednesday that several security measures were implemented Thursday. Barriers were placed around the LGBTQ+ Union tent.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>625</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>20151113_Chicago-ColumbiaCollege_Rally_Anti-racism</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The Student Government Association and Black Student Union at Columbia College organized a "Stand in Solidarity" gathering in support of students at the University of Missouri and to discuss Columbia students' experiences with racism on their own campus. Students gathered in front of the 624 S. Michigan Ave. Building with Senior Vice President and Provost Stan Wearden and Vice President of Student Success Mark Kelly. Students arrived to the protest carrying protest signs, and chanting slogans. Together, they shared stories of racial inequalities they have experienced, expressed solidarity with Mizzou students, and brought the national discussion of racial issues in higher education to Columbia's campus.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20160315_SanFrancisco_Rally_Trump</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Students held an "Ethnic Studies rally." During the rally, several people confronted the the Republican Student Union with crude remarks. Around 50-60 people surrounded the Republican Student Union, blocking their "Donald Trump for President" sign. The protest resulted in a police presence. According to the article, this event was part of a series of protest events against presidential candidate Donald Trump.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>20151113_LongBeach_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Over 100 students marched through the CSULB campus today taking part in the Million Student March, a wave of student protests on college campuses across the nation to demonstrate against tuition-free education, student debt forgiveness, and $15 minimum wage for all campus-based workers. The march started at 1:30 p.m. near the quad on upper campus, paused for speakers and performers at the free speech lawn, and ended in front of Brotman Hall. A coalition of organizations made up the crowd, including Students for Quality Education, Black Student Union, La Raza, California Faculty Association, Students for Palestine and Sociology Student Association.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>20160304_NewPaltz_Walkout_Tuition</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>About 200 students at SUNY New Paltz protested the proposed SUNY 2020 tuition increase. After walking out of class and rushing the halls of the Humanities Building, participants gathered directly outside and recited chants in demonstration of their frustration. Students stood with black balloons with paper chains attached to them tied to their ankles to represent the "ball and chain" that is living with student debt. One student dressed up in a black and white stripped prisoners uniform to emphasize the burden of owing thousands of dollars to banks as a young adult. Students also targeted Gov. Cuomo for not signing the Maintenance of Effort bill, which would guarantee government funding for future costs at CUNY and SUNY for necessities such as utilities on campuses. Protesters then began walking into town while still chanting various statements of solidarity, attracting the attention of the people of New Paltz, including the police. The protest group then continued up to South Oakwood St. before turning back and returning to campus. _x000D_
+_x000D_
+The protest was coordinated with other protests on the same day around the state through New York Students Rising. NYSR's platform called for greater contributions from the state to SUNY's funding, and acknowledged that that inaccessibility disproportionately affects people of color, preventing them from obtaining higher education.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>20151028_Boulder_Rally_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Roughly 300 people gathered to protest, outside the Coors Events Center, various causes as the republican presidential debate kicks off. Signs held up by the protesters range from "Black Lives Matter," to "End Fracking Now." A large portion of the group hold yellow signs, which read "Youth Choose."</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Monitor/Present, Cooperate/Coordinate</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>20151116_Stanford_Occupation_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Standford University students with the group Fossil Free Stanford (FFS) camped out in tents, staging a 5 day sit-in outside the president and provost's office to demand fossil fuel divestment. The event was part of an ongoing FFS campaign. In a typical day, the participants met twice - once in the morning and once in the evening. Sitting in a circle on the quad, they shared announcements, had a discussion and concluded in song. Throughout the week, they also participated in teach-ins, film screenings, music, and art, while still doing homework and readings to minimize the academic "sacrifice" of the sit-in. Some of the participants hardly left the site, while others continue to attend classes and other functions. On Wednesday November 18, the sit-in was visited by Occupella, a Bay Area pacifist music group; the Stanford Collaborative Orchestra; and the University Singers. Alumni also joined the sit-in on Thursday, November 19. Throughout the week, police stood watch nearby at the door to Building 10._x000D_
+_x000D_
+Approximately 80-100 students camped out around the clock, while 30 faculty led teach-ins and 30 alumni joined the protest. On the fifth day of the sit-in, protesters held a rally that consisted of 375 students from the opening.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>20160204_Toronto_Demonstration_Pro-Israel</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>The Jewish Defense League (JDL) and Never Again Canada held a counter-protest at York University in response to YU Divest's demonstration against York's investments in weapons manufacturers. Pro-Israel groups say the YU Divest campaign Boycott, Divestment and Sanctions is in disguise, a motion which targets Israel. The JDL sees the campaign as inherently anti-Israel. When yelling matches ensued between JDL and YU Divest, police arrived on the scene.  Security was monitoring the JDL activities occurring at the main entrance to the campus at Keele Street and York Boulevard, Vari Hall, and in the Student Centre. External to the campus at the Keele Street and York Boulevard entrance gate, there were about 15 Jewish Defence League supporters waving JDL flags. Officer Ewan McDermott said everything went smoothly, urging people to move along and stop crowding around the escapades to see how the events would unfold._x000D_
+_x000D_
+The JDL is not supported by pro-Israel and Jewish groups on campus.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>20160204_Toronto_Rally_AntiWar</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>YU Divest held a demonstration in York University's Student Centre and Vari Hall, calling on the Board of Governors to divest from weapons manufacturers by implementing a policy that would prohibit these kinds of investments. This event occurred as part of a broader divestment campaign headed by the YU Divest coalition. The York Federation of Students has joined the coalition and Student Action, the student union election slate, has endorsed the YU Divest campaign. Political science professor David McNally spoke at the protest, along with a number of other speakers. The protest prompted a counter-protest. York met and worked with a number campus partners, including the management of the Student Centre, to establish a proper security plan for ensuring the safety of the community. Senior security officials supervised the event and confirmed the presence of both uniformed and non-uniformed security officers.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>20151016_Oxford_Rally_AntiRacism</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Students at the University of Mississippi  held a remove-the-flag rally to protest the Confederate Flag as a symbol of white supremacy. Several hundred people stood to view the rally. Participants chanted and held signs, and speakers addressed the crowd. Participants lifted signs displaying messages such as, "This is our University too," "#whataboutus?," "I am more than a flag" and "Straight outta Patience" and heard speeches. The article makes it appear that the rally was the catalyst for the university's decision to remove the flag roughly a week later.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>20170127_Albuquerque_FarRight(Against)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Students protested a talk by right-wing Breitbart writer Milo Yiannopoulos at the University of New Mexico. Yiannopoulos was met with resistance inside the SUB Ballroom, where he touched on immigration, Muslims in America and his distaste for the progressive movement during his speaking event. Protesters were in the audience, and yelled out in opposition at various points, particularly when Yiannopoulos said women in Islam were suppressed more than any other group. APD and state police were present during the event.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>20160709_AnnArbor_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Close to 200 protesters marched in a protest against police brutality at the University of Michigan - Ann Arbor. The protest, independently organized by recent graduates of Skyline High School in Ann Arbor, comes after two fatal police shootings of Black men - Alton Sterling in Baton Rouge and Philando Castile in St. Paul. Demonstrators carried signs and chanted "Black Lives Matter," "No justice, no peace," and "United we fight." A banner at the front of the march memorialized Aura Rosser, an Ann Arbor resident fatally shot by an Ann Arbor police officer in 2014. Both the Ann Arbor Police Department and the University's Division of Public Security and Safety (DPSS) were present throughout the rally and created a rolling barricade between traffic and the march, which began on the Diag and looped around Central Campus and city streets, eventually stopping on Main Street before turning back around. The march eventually swelled from 50 attendees at its beginning to a peak of about 200 protesters.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>20160713_AnnArbor_March_Policeviolence</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>More than 500 people gathered at the Michigan Union on the University of Michigan campus to march through downtown Ann Arbor in protest of police brutality following the fatal police shootings of two black men, Alton Sterling of Baton Rouge, Louisiana, and Philando Castile of St. Paul, Minnesota. After congregating at the Union, the protesters walked down State Street and Main Street, stopping several times along the way. Marchers chanted, "Hands up, don't shoot," as well as, "No justice, no peace" and "hey, hey, ho, ho, these racist cops have got to go!" Along the way, they encouraged many bystanders to join the protest. The Ann Arbor Police Department escorted the protest, directing traffic away. After marching, they gathered at the Diag where several people addressed the crowd. There was one report that the crowd possibly reached 1000.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>20151021_Huntington_Rally_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Around 45 protesters gathered outside Twin Towers East dorm at Marshall University for a rally in support of allowing students the right to use the space in front of the dorm.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>20160224_Chicago_OtherForm_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A "teach-in" was held on DePaul University's Loop campus in the Lewis Center regarding the acquittal of a Chicago detective charged with manslaughter in the 2012 death of Rekia Boyd, a 22-year-old African American woman.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>947</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>20151023_Poughkeepsie_Rally_Environmental</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DivestVC held a protest rally on the Vassar College campus to demand that the administration divest the University's stocks from the fossil fuel industry. The group gathered outside the Alumnae House where the Board of Trustees was holding the first of its three annual meetings at the Col­lege. While the Trustees took a break, dem­onstrators took the opportunity to confront them. Students sang, chanted and delivered a speech to petition the Board to divest. Safety and Security was called when the protesters arrived, but did not interfere with the demonstration. The students demanded that the Board move forward with last year's submitted pro­posal, which would have Vassar remove the top 200 fossil fuel companies from its list of investments.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>975</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>20151013_Philadelphia_Disruption_Labor</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Several 15 Now members interrupted President Theobald during his speech at the Board of Trustees public meeting at the university's Health Sciences Campus. The protest, which lasted about 10 minutes, started moments after Theobald began speaking. The activists said several times President Theobald hasn't responded to their emails, and refuses to meet with them about the issue of minimum wage. 15 Now members also brought up the issue of deep poverty in Philadelphia and Bill Cosby, who used to be on the Board of Trustees. Soon after, members of the organization were being led out of the meeting by Temple Police and security. University officials responded by saying 15 Now's protest "missed the point," because the university already helps the poor in many ways.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>20170120_Edwardsville_Rally_Economy</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Southern Illinois University students voiced their opinions on the nation's political climate with a small rally outside Rendleman Hall. Surrounded by news media, police and a few spectators, a senior political science major student led the rally, urging students to be more politically active. Portions of his speech had to do with the new president. A petition calling for Illinois legislators to end the budget stalemate was also presented at the rally. While there were no protests countering the rally, a couple Trump supporters strayed on the outskirts to listen in. A few faculty members and administrative staff stood by for the rally as well and showed support toward the student-led rally.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>990</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>20161109_Eugene_March_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>This is a one-day on-campus march/rally led by students from the University of Oregon and South Eugene High School against President Trump. The protest took place in the EMU Amphitheatre.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>991</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>20161110_Eugene_March_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>This was a one-day rally-turned-vigil in protest of Donald Trump in downtown Eugene. The event began on-campus at the University of Oregon and then shifted off-campus to downtown Eugene. Attendees at the rally held signs and shouted at the EMU amphitheater at the University of Oregon before marching west down 13th avenue and then down Oak street towards Kesey Square. At Kesey Square, they held a vigil for solitary.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>20170120_Eugene_March_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>University of Oregon students, staff, and Eugene residents gathered at the amphitheatre of the Erb Memorial Union to protest the inauguration of the new president of the United States, Donald Trump. At 5 p.m., what was a small group assembled into a crowd of roughly 200 people, wielding signs and chants to the organizers of the event. Participants took turns stepping up to the podium and speaking about a variety of issues including LGBTQ rights, feminism, social rights, fascism, climate change, wages and police. At 6pm, protesters began to march to Kesey Square in Eugene, while police rode behind and in front as people held signs and chanted against the new president. The protest remained peaceful throughout.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>20161110_Farmville_Rally_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Within 48 hours of the country voting Donald Trump in as the 45th president of the United States, Longwood University students mobilized and organized a peaceful rally called RemainStrong. Several campus organizations, including the Black Student Association , Longwood College Democrats, Hispanic Latino Association , Longwood College Libertarians, P.R.I.D.E. and the Student Diversity and Inclusion Council participated in the peace rally. Nearly all participants carried signs reading statements like "Love Trumps Hate" and "Be the Change." Different members stepped forward to emotionally address the group, some thanking the crowd for showing them there are other students on campus who share their feelings and learning they have support.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>20170420_Fayetteville_March_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>About 100 University of Arkansas students and citizens of Fayetteville marched down Dickson Street on Thursday evening to raise awareness against sexual assault in the 15th annual Take Back the Night march. Participants marched holding signs and chanting, while police escorted them toward the UofA. Although it is not mentioned in the article, it is known from previous articles that the march also took place on campus. There was a speak out time where the marchers were encouraged to speak about sexual violence or share their stories of sexual assault. Some women spoke about their experiences of being sexual assaulted, and a male student said that sexual violence is not a women's issue, it is everyone's. Three women from the Northwest Arkansas Center for Sexual Assault told their stories of being sexually assaulted. The ceremony closed with a candlelight vigil to show that every 15 seconds someone is sexually assaulted while Kristen Smith, president of Inspire choir, sang.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>20160817_FortCollins_NoForm_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Signs containing phrases such as "Thank you for sending us your daughters," were displayed at several houses along Laurel Street. The Women and Gender Advocacy Center combated these signs with a counter-protest. The issues were related to women's rights and sexual assault. The form is not clear.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>20161029_Greeley_Demonstration_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>In response to a campus visit by Trump, shortly before the 2016 presidential election, protestors gathered to protest his visit. By the time Trump took the stage at the University of Northern Colorado for a presidential rally, there were at least 75 people protesting. Protesters carried signs that said, "Love trumps hate," and shouted phrases such as "dump Trump" and "nasty women get stuff done". I selected no student involvement because it is not explicitly mentioned that any students participated and presidential rallies, even when held on campuses, are for the general community rather than just students.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>20161029_Greeley_Demonstration_TrumpFor</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Those waiting in line for Donald Trump's presidential rally at the University of Northern Colorado stepped away to begin counter-protesting against the people who came to protest against Trump. UNC police officers were on scene, but no physical incidents occurred, although the two groups shouted at each other.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>20161109_AnnArbor_Vigil_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>On election night, an impromptu vigil consisting of roughly 30 University of Michigan students coalesced on the Diag at about 3 a.m., an hour after Donald Trump was declared victorious. The candlelit vigil and rally were held at the University of Michigan in the Diag to protest President-elect Donald Trump's unexpected win eventually drew a crowd of nearly 1,000 University of Michigan students, faculty and staff, as well as community members. Several delivered speeches, including University of Michigan President Mark Schlissel. Speakers addressed racism, sexism, and xenophobia, as well as concerns about Trump's position on immigration. Speakers also called for perseverance during the next four years of Trump's term, discussing both the fear felt by minority students on campus and the importance of action. The crowd chanted: "The people united will never be divided," which progressively grew into a unified roar. Some students then marched through the Undergraduate Library yelling profanities and disturbing the students studying there..</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>20160925_Gainesville_March_AnimalRights</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Led by a lifesize, wood and paper maché elephant sculpture attached to a cycle, Jeanty and about 25 students and residents marched downtown from the University of Florida's campus to call attention to the declining population of elephants. The second-annual march, held two days after Elephant Appreciation Day, was hosted by the Conservation Initiative for the Asian Elephant, a local nonprofit. The event began on the Plaza of the Americas at 10:30 a.m. and finished at the Hippodrome State Theatre at noon. Gainesville Police officers blocked off West University Avenue for the duration of the march.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1061</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>20150916_Montreal_March_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Approximately 200 protesters against tribunals for students facing repercussions from student strikes marched from Place Pasteur to the Concordia campus. Nine students at UQAM faced repercussions with one being expelled, and over 25 students at Concordia are facing tribunals starting at the end of the month at the original strikes. The march began moving west down De Maisonneuve Boulevard until the group suddenly turned south on McGill College Avenue and continuing west on Ste. Catherine Street through the heart of downtown. Police tried to clear the road as the group walked and chanted “avec nous, dans la rue!” and “le rectorat nous fait la guerre, guerre au rectorat!” The protesters continued on Ste. Catherine Street until they turned north onto Mackay Street, entering Concordia’s EV Building through the Mackay entrance. The group stopped briefly in the building’s lobby to announce to students in the lobby the reason for the demonstration. A man using a megaphone addressed everyone in the lobby. The group then descended the escalators of the EV building into Guy Metro station before exiting on Guy Street. From there they entered the GM building lobby. There, a man with his face covered, listed several demands for Concordia University and its president Alan Shepard.The protest entered the GM building specifically to address Concordia president Alan Shepard and the university’s administration.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1078</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>20170116_AnnArbor_March_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>In conjunction with Martin Luther King Jr. Day festivities and lectures, approximately 25 students and community members marched through Ann Arbor to protest the upcoming inauguration of President-elect Donald Trump. The protest, organized by the University of Michigan chapter of BAMN - the Coalition to Defend Affirmative Action, Integration and Immigrant Rights and Fight for Equality By Any Means Necessary - predominantly opposed Trump's plans to change immigration reform. A BAMN organizer stated the group organizes events in the Ann Arbor area each year surrounding Martin Luther King Jr. Day. This year, the events are in an effort to oppose the policies of Trump that they believe are destructive. Protesters began at the corner of South University Avenue and South Forest Street before marching down various city streets with three police cars following the march. The march ended at the corner of North University Avenue and State Street, where protesters continued to hold up signs and individuals voiced their opinions to the group.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1083</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>20150930_Montreal_March_Labor</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Around 15 McGill and Concordia students congregated at the Roddick Gates on September 30 to stand in solidarity with Quebec’s French-language teachers who were striking to protest the state of negotiations with the provincial government. The McGill contingent was organized by students from different on-campus groups, including the Students’ Society of McGill University (SSMU) and Anti-Austerity McGill. SSMU Vice-President (VP) External Affairs Emily Boytnick explained that increasing awareness about austerity on campus is important given the effect it has had on the McGill community, including the increasing precariousness of on-campus jobs, the loss of TA hours, and the loss of classes in the Arts faculty. _x000D_
+_x000D_
+Demonstrators carried flags from their respective unions and banners with phrases such as “Your decision affects my future,” and “The government is abandoning public schools.” FAE President Sylvain Mallette also made a speech at the demonstration. The crowd marched from 12 p.m. to 3 p.m., beating drums, and blowing on whistles and horns, and singing chants such as “We will not lower our eyes. We will not bend our backs. We will protect public schools.” The Service de police de la Ville de Montréal (SPVM) was also present at the strike and escorted the marchers.  The around 34,000 protesters aimed to pressure the government to renew the teachers’ collective bargaining agreement, but many demonstrators also attended to take a stand against austerity more broadly.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1119</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>20170422_AnnArbor_March_Otherissue</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Thousands gathered in the Diag at the University of Michigan to participated in the March for Science, an event organized in response to the Trump administration's recent budget cuts to science and research and their anti-climate change statements. This event occurred alongside over 610 cities around the world that marched in solidarity with the main event in Washington D.C. In Ann Arbor, the march began with an hour-long rally in the Diag, where marchers stood in front of Hatcher Graduate Library and listened to speakers. The group then marched from the Diag to the Federal Building downtown. Ann Arbor police kept traffic off the roads including South University, State and Liberty Street. Chants included "This is what democracy looks like" and "What do we want? Evidence based science! When do we want it? After peer review!" Signs also displayed messages such as, "Unless someone like you cares a whole awful lot, nothing is going to get better, it's not" and "Science not Silence." The protest group consisted of scientists, teachers, professors, researchers, graduate and undergraduate scientists, and allies.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>20151105_Montreal_March_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>On the evening of November 5, roughly 200 people gathered at Norman Bethune Square for the annual “Take Back the Night!” march against gendered and sexual violence. The event was organized by A Safer Concordia a campaign by Concordia’s Centre for Gender Advocacy (CGA). A McGill contingent organized by the Sexual Assault Centre of the McGill Students’ Society (SACOMSS) was also present. The night began with a few words and a traditional prayer from Algonquin songwriter and activist for Missing and Murdered Aboriginal Women MJ Tremblay and other speeches. As the march began shortly after 7 p.m participants chanted things like “Whose streets? Our streets!” and “Investigate crimes of hate,” an onlooker yelled for marchers to “go home.” Protesters took to the street at the intersection of Guy and Ste. Catherine, then proceeded east, through Downtown, before turning north on McGill College and marching through the Roddick Gates to gather in front of the Redpath Museum. Several police vans maintained a constant presence, surrounding demonstrators and clearing the streets ahead of them, but at no point did they attempt to interfere with the protest. The event was not declared illegal under municipal bylaw P-6, even though organizers had not disclosed their itinerary to the police. Once participants gathered at the steps of the Redpath Museum, more speeches were made by organizers and community activists. One speaker, affiliated with the CGA campaign Missing Justice, described her experiences of seeking redress in the wake of repeated sexual violence.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1133</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>20160224_Montreal_Rally_Labor</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>About a dozen Teaching and Research Assistants of Concordia union members, including union executives, visited the Concordia president’s offices wearing red t-shirts that read “TRAC Union Concordia TA/RA Mobilization.”in an attempt to get president Alan Shepard or management to “support TAs and RAs" by signing their ongoing petition. The petition reiterates TRAC’s negotiation demands for the “same pay-rate for the same job” across faculties, and no cuts to current hourly wages. In the end, the group left the petition with Roger Côté, VP Services, who refused to sign the petition.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1135</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>20160308_Montreal_March_Feminism</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>To mark the annual International Women’s Day in Montreal,, approximately 200 people gathered at Cabot Square to hear speeches, dance and listen to music, march for equality and celebrate womanhood. The march this year was organized by the Women of Diverse Origins, which is a local coalition and working group under QPIRG-Concordia. From Cabot Square, the march proceeded down Ste. Catherine St. E, chanting “So-so-so-solidarité, avec les femmes du monde entier,” before ending at Phillips Square. Along the way, the march would stop at intersections to hear speeches from various individuals in French and English, including Kahawihson Horne, a Mohawk student at Concordia. Horne spoke about discrimination she experienced at Dawson College as an Indigenous woman. There was a small force of police officers on bikes and in vehicles guiding traffic. A Montreal police spokesperson said an itinerary was given by the organizers prior to the event.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>20160313_Montreal_March_Anti-War</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Syrian-Canadians gathered for speeches and a march on de Maisonneuve Blvd. W. in Montreal to mark the five year anniversary of the Syrian revolution and show solidarity for those still stuck in the Syrian civil war. The Syrian Canadian Council, Damascus Declaration, Syrian Kids Foundation, among others organized the march. Amnesty International was also present to promote it. Many refugees that had just arrived from Syria were also present. During the opening speeches, Concordia student Yaman Alqadri spoke to the crowd about her experience as a medical student at Damascus University advocating for freedom, which led to her arrest and month-long detainment. She issued a challenge to university students in Montreal: “Imagine yourself a Concordia or McGill student raising your voice, expressing your opinion and getting tortured or detained for that reason.” Following speeches, the group marched down Ste. Catherine all the way to Phillips Square. Police were present but there was no expectation of a police intervention.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1143</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>20160329_Montreal_Demonstration_AntiRacism</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Hundreds gathered at Norman Bethune Square at 6 p.m. on March 29 for two hours to peacefully show support and solidarity with the mobilization efforts of Black Lives Matter Toronto (BLMTO). The demonstration was met with no interference from the Service de police de la Ville de Montréal (SPVM), although multiple police cars were stationed on site. The demonstration included spoken word performances and speeches about the topics of police brutality, Black and Indigenous allyship, and issues facing Black women and Black LGBTQ people. One speaker at the demonstration called for action from “elites,” specifically students at universities like McGill who “have a huge responsibility in having an impact on social justice and social affairs because they are decision makers"</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1148</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>20170308_AnnArbor_Strike_Feminism</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>More than 100 people gathered at Liberty Plaza in Ann Arbor, MI, for the International Women's Strike, a nationwide event encouraging women to take the day off from work and buy only from female- or minority-owned businesses. This was one of many demonstrations occurring throughout the day locally and nationwide. Several women spoke to the crowd. They talked about the explicit inclusion of trans women in the International Women's Strike, and the importance of inclusivity and solidarity. A member of the Graduate Employees' Organization at the University of Michigan also talked about the importance of unionization, specifically referencing the University President Mark Schlissel's Diversity, Equity and Inclusion plan. After the speeches, organizers led a march through downtown with chants of "No justice, no peace," and "the people united can never be divided," momentarily blocking traffic on some streets. Ann Arbor Police Department officers were also present, directing both traffic and protesters away from each other.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>20160326_Lexington_Vigil_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>The event is a Take Back the Night candelight vigil and a march, beginning on campus and stretching off campus, in which students and community members honoured sexual assault victims and protested against sexual violence. About 200 students and community member gathered at Patterson Office Tower, Thoroughbred Park and Third Street Stuff, where protested then march downtown while chanting with the help of a police escort. Among the individuals who came to show their support were members of student organizations, including Black Voices, PAWS and Listen, and the Violence Intervention and Prevention Center. After the three different crowds culminated downtown, protesters gathered around a podium to rally, watch shows and listen to speakers. Protesters also held a candlelight vigil.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>20161004_Atlanta_sit-in_Economy</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Turner Field neighbours marched to Georgia State University President Mark Becker's office to protest his denial to meet with the community groups surrounding the former Braves stadium. Dozens of students and community members gathered in the building's lobby demanding to see the university president. Members of the Collective Bargaining Agreement for the Turner Field Coalition participated in the event.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>20161117_Atlanta_March_Economy</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>United Students Against Sweatshops held an event in which protestors marched down Piedmont Avenue, where they held up traffic until turning towards Centennial Hall, under the president's. In 20 minutes, the group of 20 popped red balloons representing the communities which will be affected by the sale, and delivering a petition. The petition consisted of 700 signatures of students who support the protesters' cause: getting Becker to sign an agreement which will prevent any Turner Field neighbours from getting displaced.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>20160928_Greencastle_OtherForm_LGB+(Against)</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>The Campus Ministry USA lead by "Brother" Jed Smock, descended on DePauw University's campus late Wednesday morning. The group of about four men held signs reading "Homo sex is sin" and "fear god." They stood on the public sidewalk near Bowman Park in front of the Student Union building. The group stood in a corral of metal fencing, with Public Safety officers on either side. They arrived at around 11:30 a.m., and Smock used his microphone to attract students. At the same time, students of color and allies were marching across campus. Smock addressed the student demonstration and other events that happened on campus in an open letter posted on his facebook page. In it, he discusses how he agreed to stay within the barriers established by Public Safety to protect him from the "sex crazed mob." Some students circled Smock and his group, asking questions and heckling him. Senior Ben Cryder made a short comedy video about Smock which he posted on his Facebook page and YouTube channel. In the video he asks Smock about his failed attempt at a television show. Smock and his group left campus before the end of Wednesday's DePauw Dialogue.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>20161008_Hartford_Rally_Labor</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>This was a one-day on-campus protest led by food service workers at Trinity College to protest the contract that Chartwells is proposing for the upcoming renewal. Under Chartwells' proposed new contract, employees would be responsible for paying much higher healthcare insurance costs and would face reduced hours worked. The protesters, who were joined by over 200 other employees from other colleges, began the rally outside near Mather Circle and proceeded into Mather Dining Hall, where they chanted and waved signs in the lobby.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>20161105_Hartford_Rally_Labor</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>This was a one-day protest organized by UNIT HERE LOCAL 217 to protest Chartwells, Trinity's contracted food service provider, which over the summer stipulated that Trinity's food service staff would have to begin covering part of their own health care. The protest began as a march, then turned into a demonstration, and ended as a picket. Saturday's protest began around Mather Circle, where a group of Chartwells employees gathered shortly after noon. Joined by several students, they formed an initial picket line next to Mather before moving down Summit Street to the top of Vernon. Eventually, the protesters arrived at the parking lot near the Hansen dorm, where they reformed a picket line on the sidewalk of Vernon St. After, some of the protesters congregated one last time back at Mather Circle.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>20160921_Greensboro_March_AntiRacism</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>The protest started at the reflection pool and then hundreds of students traveled together singing songs and lifting their fists as they walked to the A&amp;T four statues. The North Carolina IGNITE members played a role in A&amp;T’s protest last night. IGNITE is a state youth movement fighting for equality and justice. IGNITE has several Aggie members. Throughout the A&amp;T protest, students marched with their fists up and chanted “don’t shoot” in hopes of bring light into the seriousness of police brutality and injustice within the Black community. A&amp;T’s University Police Department was in attendance of both the march and demonstration at the reflection pool. Officers attended to insure safety among students.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1247</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>20170416_Greenville_Demonstration_AntiRacism</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Students at East Carolina University protested an event featuring the controversial speaker Tomi Lahren.  Before the event started, a handful of student protesters arrived in front of the Mendenhall Student Center with signs to protest Lahren.  Lahren is known for spreading false and discriminatory rhetoric against racial minorities. The group of protesters attracted various students and had open dialogue during their protest.  The East Carolina University Police Department monitored the event.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Cooperate/Coordinate, Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1258</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>20151014_NewYorkCity_Rally_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Demonstration at Columbia University by Columbia Divest for Climate Justice part of a national climate change day of action where group members presented a proposal on fossil fuel divestment to the Advisory Committee on Socially Responsible Investing, asking University to divest its direct and indirect holdings from the top 200 oil, coal, and natural gas companies. There was a large police presence around campus of approximately 40 police officers. At the protest, group members filed onto Low Steps, raising signs that featured slogans such as "Climate change kills New York City" About 50 CDCJ members participated.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>20170415_Hempstead_Rally_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Take Back the Night, an annual rally and march hosted by Collegiate Women of Color, Campus Feminist Collective, and Student Advocates of Safer Sex, filled the Student Center Theater at Hofstra University as students gathered to speak out and stand in solidarity against sexual violence. There was about 100 participants at the peak of the event.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1302</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>20151204_NewYorkCity_Rally_Labor</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Following a rally in support of unionization on Low Steps attended by nearly two hundred people Manhattan Borough President Gale Brewer, New York State Assemblywoman Deborah Glick, New York City Councilmember Mark Levine, and a delegation of half a dozen graduate students tried to enter Low to deliver a letter signed by elected officials including Mayor Bill de Blasio and U.S. Senators Kristen Gillibrand and Chuck Schumer. The letter urges the administration to "refrain from any further legal or other actions that would delay graduate employees' right to choose collective bargaining." However, they were banned from entering the library. The group then attempted to gain entry to the building through a side door, and were met by the vice president of public safety, and a member of Bollinger's staff.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>20160414_NewYorkCity_March_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Annual Take Back the Night march through campus and Morningside Heights, and a speakout open to all attendees. The march is a national and international anti-sexual assault movement working to break the silence that surrounds sexual violence and raise awareness about the issue.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1343</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>20150907_Medford_Rally_Labor</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>The Service Employees International Union 32BJ and Tufts Labor Coalition organized a rally and march against janitorial staff cuts throughout campus. Tufts University Police Department blocked vehicle traffic as marchers walked from Powderhouse Square through campus to Ballou Hall. Several janitors told stories about their work experiences at Tufts.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1358</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>20170310_Jacksonville_Rally_Pro-Life</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Around two dozen members of Created Equal, a non-profit pro-life group, held a demonstration on the University of North Florida campus displaying graphic abortion signs and wearing shirts with slogans. Protestors also wrote pro-life messages on the sidewalk.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1359</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>20170310_Jacksonville_Blockade_Pro-Choice</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Students held a demonstration as a counter-protest to a pro-life demonstration held on the University of North Florida campus. Protesters held signs and erased pro-life messages from the sidewalk and stepped on the pro-life group's microphone wire.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1378</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>20170120_Hanover_Disruption_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>More than 25 counter-demonstrators arrived at the Dartmouth College Green in anticipation of a discussion about flag burning by Timothy Messen '18. Counter-demonstrators included members of Rolling Thunder New Hampshire Chapter 2, a Claremont branch of an advocacy group that helps local veterans and raises awareness for missing American prisoners of war. The crowd consisted of a mixture of protestors, counter-protestors and onlookers. In total, over a hundred students and community members stationed themselves on the Green in anticipation of the event. Sandor Farkas '17, the editor-in-chief of The Dartmouth Review, planned this counter-demonstration. Counter-protestors disrupted his speech several times. At one point in the speech, a counter-demonstrator directly confronted Messen, who continued to speak into the megaphone with two officers by his side. At another point, counter-demonstrators with flags stood in front of Messen and created a circle around him. Throughout the afternoon, officers and fellow demonstrators protected Messen from any potential hostile action.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>20170120_Hanover_Rally_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Timothy Messen '18 traveled to the Dartmouth College Green to protest the new president's administration by beginning a dialogue about flag burning and discussing the rights threatened by the president. The crowd consisted of a mixture of protestors, counter-protestors and onlookers. In total, over a hundred students and community members stationed themselves on the Green in anticipation of the event. Messen consulted with associate dean for student life Eric Ramsey as to how to secure the permits necessary to start a fire in a public location, although the College took no official stance on the action. No flag was actually burned. His speech was disrupted many times. Messen then thanked the crowd and asked the protesters to reach out to him via email with questions about his beliefs. He was then escorted by officers off the Green. The article states that Messen left the demonstration still undecided on whether he made the right decision not to burn the flag.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1430</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>20170214_Ithaca_Disruption_Alt-Right(Against)</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>The event is described as a gathering of about 15 students who gathered outside Cornell University's Rockefeller Hall on Tuesday to protest a private lecture by Tea Party leader and former speechwriter for President George H.W. Bush, Michael John. After being barred from entry student protesters stood outside chanting "open that door," at times drowning out the Tea Party leader as at least one Cornell Police officer stood at the building's entrance. The lecture began with eight minutes of silence, after which the protesters' chants could be heard from within Rockefeller Hall, prompting acknowledgement from Johns. Protesters said the private event excluded dissenting voices and gave Johns a platform for "hate speech" and a "safe space for white supremacy." Toting handmade signs with slogans like "Hate speech behind closed doors is still hate speech" and "This is a safe space for white supremacy," protesters said they want to keep CPU from legitimizing Johns' rhetoric. Students also protested towards making the event public. A Student Assembly representative and at least two other students stirred up controversy by recording several protesters and asking them for their names.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>20160401_Chicago_Rally_Labour</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>The Chicago Teachers Union (CTU) and protesters from schools across Chicago participated in a "Day of Action" that included a one-day strike by the CTU, as well as walkouts, rallies and marches across the city of Chicago. The Day of Action culminated in a rally outside the Thompson Center and a march through downtown. The Day of Action was part of a larger effort to call on state lawmakers to fund Chicago public schools and colleges and to persuade the Board of Education to accept the union's terms for a new contract for teachers. In addition to the CTU, protesters also included members of the University Professionals of Illinois, professors, and students who demanded funding for higher education, MAP grants, and support for bankrupt schools like Chicago State University; Workers from McDonald's, nursing homes, and city transportation who pressed for a $15 minimum wage; and supporters of the Black Lives Matter movement who called for police accountability. Students from DePaul University, Chicago State University, Eastern Illinois University, and Northeastern Illinois University joined the protest. Karen Lewis, the president of the Chicago Teachers Union, addressed the crowd, as did other activists including Jesse Jackson, who led the crowd in a prayer-like chant and emphasized the importance of solidarity for the marginalized. On the nearby streets, a wall of police officers stood and monitored event. After the rally finished, the protesters moved onto the streets and began marching towards the Chicago River, carrying signs and banners. Protesters chanted "Rahm Emanuel's got to go. Hey hey, ho ho" and "Hey Rahm, let's face it, your budget is racist" to the rhythm of cowbells, drums and didgeridoos as they marched. Barriers of Chicago police officers on bicycles and horses blocked alternative routes.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>20160524_Chicago_Disruption_FarRight(Against)</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Protesters disrupted a speaking event by controversial conservative Breitbart journalist Milo Yiannopoulos, who was invited to speak at DePaul University on May 24, 2016 by the DePaul College Republicans. Students initially assembled in a "peace circle" in the middle of the Quad where introductions were made, speeches given, posters built and organizers explained why they were protesting. The protest was meant to create an outlet for students to express their opinions on the Yiannopoulos event. Participants voiced concerns about ongoing issues of racism on campus. Several speakers mentioned incidents such as April's chalking--when College Republicans drew chalkings in front of the Student Center that included phrases like "build the wall"--and the painting found on the quad earlier that day, which included the phrase "F- Mexico." Several protesters asked organizers to march earlier than planned in order to be in front of the Student Center when the Yiannopoulos event started, and protest organizer Tom Rietz and other organizers agreed. So the protest group then march from the Quad to the Student Center. There, the protest turned chaotic. When Yiannopoulos arrived, student protesters blocked attendees' entry into the Schmitt Academic Center. Contrary to Rietz's initial plan, protesters entered the Student Center and chanted and banged on the doors outside of the event. During the Q&amp;A section of the event, Black Lives Matter activist and DePaul alum Edward Ward walked through the room and onto the stage while blowing a whistle, followed by another protester. Both College Republicans' current chairman John Minster, who moderated the Q&amp;A, and Yiannopoulos addressed the protesters who had taken the stage and interrupted the event. They remained on stage as the room erupts in yells from both the protesters and event attendees. The Q&amp;A doesn't continue successfully. University administrators then told Nicole Been, president of College Republicans, to announce that the Chicago Police Department had been called and that anyone on the stage besides the moderator and Yiannopoulos would be arrested. When Police arrived, they entered the Student Center and the crowd chanted "CPD," waiting for action. The police, however, did not intervene. Yiannopoulos then led his supporters outside, where they came into contact with around 100 protesters. The demonstration caused the Student Center to be closed around 7:45 p.m. for safety reasons according to the university, and employees were sent home. Yiannopoulos and his supporters marched around the Lincoln Park campus in their own counter-protest against the disruption. When he tried to address the crowd, he continued to be drowned out by noise. Demonstrators were protesting Yiannopoulos, but the event also exposed issues many students say have gone unaddressed for too long such as hate speech and campus safety in light of recent racial incidents. Protesters also took issue with how the university handled campus tensions and that they allowed Yiannopoulos on DePaul's campus and to have a platform to speak.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1471</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>20150707_Berkeley_SymbolicDisplay_Labour</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>A group of about a dozen students and workers gathered before the doors of Chancellor Nicholas Dirks' office, carrying a letter and a cake decorated with the phrase, "I don't always pay fair wages, but when I do it's in Berkeley and Richmond." They sang an original song, based on the song "Super Freak," with lyrics criticizing the administrators for treating workers unfairly. After the protestors were not let inside the office, they left the cake outside and handed their letter to UCPD Capt. Alex Yao, who arrived, along with several other police officers, and offered to pass the message along to administrators. This event marked the start of a new campaign calling on the UC Berkeley campus to create more union jobs instead of hiring contract workers.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1477</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>20150930_Berkeley_March_Environmental</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Students and community members participated in a march organized by Fossil Free Cal to protest the UC Board of Regents' continued stock holdings in fossil fuel companies. At the intersection of College Avenue and Bancroft Way, protesters began marching south of campus and continued into both the Residence Halls Unit 1 and Unit 2 courtyards, where participants made speeches about the purpose of the protest, to get the UC to divest from fossil fuels. At the end of each speech, participants marched with large LED signs that spelled "UC DIVEST NOW", and urged the onlooking students to come "out of the dorms and into the streets" to join the march. The march continued up Dwight Way and onto Piedmont Avenue, followed by a police car. At the campus's International House a speaker again delivered an address to students. The protest then ended at the starting point.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>20151212_Austin_March_GunControl</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>With a sign that read, "Mock shootings mock victims," and a chant that said, "Our history is not a joke," approximately 15-20 University of Texas Austin students gathered near the University Co-op around 12:30 p.m. Saturday to follow the gun-support group DontComply.com - who were planning to stage a "mock shooting" in support of guns on campus. Economics senior Baylor Morrison, who organized the protest group against the mock shooting, said the purpose of the protest was not to argue about gun rights, but to disagree with the way DontComply.com voiced its support for carrying guns on campus. The group marched around Guadalupe, 22nd Street, San Antonio Street and ending in the San Antonio Parking Garage.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1527</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>20160210_LosAngeles_Strike_Labour</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Health care workers at the the University of Southern California's Keck School of Medicine staged a one-day strike and picket line at the Health Sciences Campus. Red-shirted demonstrators stood with picket-signs, chanting as cars drove past. These workers are represented by the National Union of Healthcare Workers (NUHW). They were demanding better wages and more equitable treatment amid their ongoing contract negotiations with USC-Keck. Their primary complaints were short-staffing that strains adequate patient care, low wages that force workers to go on government assistance (of the 900 workers at the Keck Hospital, one out of every six employees was making under $15 an hour), and a discriminatory lack of retirement and tuition benefits afforded to other USC employees. Keck employees were quoted as saying that they did not want to leave their patients, even for a day, but they felt they had to strike in order to get USC's attention. The California Nurses Association joined the picketing in solidarity. Cafeteria employees working for Sodexo, a multinational food services company that employs 133,000 workers nationwide, were also striking alongside NUHW workers. The Keck administration has refuted the union's claims of short-staffing and poor treatment. Following the strike, Keck Hospital called the strike "largely a non-event" and claimed that only a fraction of Keck's NUHW-affiliated employees actually participated. To prevent the strike from affecting patient care, Keck hired contract employees and worked with the LAPD to provide a "safe environment" throughout the strike.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1528</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>20160302_LosAngeles_March_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>UC Student-Workers Union members organized a march in protest of history professor Gabriel Piterberg's return to teaching and the new Title IX policy, which union members said does not improve conditions for graduate students. Protesters were calling for UCLA officials to fire Piterberg, who allegedly sexually harassed two graduate students. About 40 students met at the bottom of Janss Steps, before marching to Chancellor Gene Block's office in Murphy Hall and the history department's office in Bunche Hall. Several university police officers followed the protesters throughout campus.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>20160422_LosAngeles_March_AnimalRights</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>As part of the annual World Week for Laboratory Animals, UCLA animal rights activists held a march throughout campus to Chancellor Gene Block's office with signs depicting bleeding monkeys and other animals to protest animal testing in campus research labs. About 70 protesters from the Animal Justice Project held black and white signs with photos of animal cruelty, chanting "UCLA has blood on their hands" and "Hey Gene Block, how many animals died today?" among other messages. Administrative restrictions kept protesters from entering Murphy Hall and going beyond Dickson Court. Activists were also prohibited from using amplification systems like megaphones outside Chancellor Block's office. Several police officers supervised protesters gathered in a circle in the Sunken Gardens.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1564</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>20170330_Binghamton_Occupation_AntiRacism</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Members of The Binghamton University X-Fact'r Step Team met with representatives of the BU Office of Diversity, Equity and Inclusion to demand the public condemnation, support, and further investigation into a racially charged incident that occurred off campus. Several dozen students gathered outside the ODEI in support of X-Fact'r as they met with Chief Diversity Officer Valerie Hampton. As the meeting went on inside the ODEI, students outside engaged in a dialogue about racial issues at Binghamton University. More than a half hour into the meeting, two uniformed officers from Binghamton's New York State University Police Department appeared in the hallway to respond to a noise complaint about the protesters. At the end of the meeting, the team announced that it was satisfied with the results of the meeting. Chief Diversity Officer Valerie Hampton agreed to publicly support an investigation and to publicly condemn what happened.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1599</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>20151113_Somerville_March_Anti-Racism</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>The event was the Boston University "Blackout: Mizzou We Stand With You" solidarity rally, which students from Tufts joined. More than 400 people marched in from the east and west sides of the BU campus to congregate at the Marsh Plaza and chanted phrases. Following the rally at the plaza, rally attendees gathered at BU's Howard Thurman Center for Common Ground to discuss systemic racism in relation to the events at Mizzou. Boston Police Department and Boston University Police Department officers were present throughout the duration of the rally. Jackson said she had called on police to be on duty after she and others received threats.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1601</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>20150907_Medford_March_Labor</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Tufts University Police Department blocked vehicle traffic as marchers walked from Powderhouse Square through campus to Ballou Hall. At the rally, speakers addressed the crowd and janitors told stories about their work experiences at Tufts.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1614</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>20160309_Victoria_OtherForm_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>A protest in which trans activist and UVSS Women’s Centre coordinator Daphne Shaed shamed the university for an apparent lack of action addressing sexual assaults on campus by spray-painting graffiti on a plastic-wrapped UVic sign at the Henderson Road campus entrance. The graffiti was quickly torn down by campus security roughly 45 minutes later. The protest occurred on International Women's Day.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1618</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>20160810_Montreal_Rally_ProPalestine</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A counter-protest was held in response the Jewish Defense League's planned disruption of a World Social Forum workshop given by Canadian Friends of Sabeel, a pro-Palestinian organization. The group Solidarity Across Borders helped to organize the counter action. Around 100 anti-racist activists gathered in front of Cegep du Vieux Montreal where the workshop was taking place, waiting to prevent the JDL from disrupting the event. Several Jewish participants were present. After about an hour, an organizer announced that the JDL were a few blocks away. The crowd began to move, and turned the corner from Ontario St. onto St. Laurent Blvd. to find a van and a group of people with Israeli flags and JDL shirts. A JDL member was carrying a stack of pamphlets and a counter-protester attempted to grab the pamphlets, but was shoved by a man wearing a JDL shirt. The pamphlets were scattered on the ground, and the man from the JDL shoved more counter-protesters before being punched in the face by an anti-fascist demonstrator. The police arrived and formed a line in between the two groups. Both sides brought out megaphones, and attempted to give speeches from behind police lines. Whenever the member of the JDL attempted to speak, however, they were drowned out by the chants of the anti-racist protesters. This back-and-forth lasted approximately an hour and a half. Once the Friends of Sabeel workshop was finished, the JDL members decided to leave. Their van was escorted by police as they drove southbound on St. Laurent Blvd., a one-way street which heads north. _x000D_
+_x000D_
+The counter-protest is codeable because it started on-campus, but the JDL protest is not codeable because it was off-campus with no higher ed issue.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1629</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>20170306_LasVegas_March_FaithBasedDiscrimination</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A march and a rally at the University of Nevada Las Vegas was led by Alpha Epsilon Pi (AEPi), a fraternity at UNLV, and members of the Jewish community to protest against anti-semitism. AEPi organized the march after several of its members found swastikas and the phrase, "Kill all Jews" painted on a powerbox behind the Boulevard Mall. The march began on Renaissance Drive in front of Jewish Nevada, the crowd walked and smiled and laughed. Officers with the Las Vegas Metropolitan Police Department escorted the marchers, blocking intersections to allow them to pass through freely. At UNLV's Pida Plaza, the final destination for the protesters, the stage was literally set for a rally with microphones, lighting and the UNLV logo emblazoned on a lectern. NLV officials from Student Union Director Jon Tucker to Director of Media Relations Tony Allen joined students as they listened to the guest speakers that took to the stage. Hayon, introduced several guest speakers, including Rabbi Yitschak Wyne. Other fraternities joined the crowd, not with signs of Judaism, but with their own fraternity's greek letters, flags and shirts.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1630</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>20170425_LasVegas_Rally_LGB+(Against)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Members of the Westboro Baptist Church held a rally to spread hate speech against the LGBTQ+ community. Protestors played a Westboro Baptist Church rendition of "Burnin' Down the House", the song by the Talking Heads'. Members were seen walking on the University of Nevada- Las Vegas campus wearing a blue Under Armour cap and a teal t-shirt with GODHATESFAGS.COM printed in bold, white letters. A member carried four posters with biblical verses and her counterparts were dressed in matching attire. The picketing was met by a pro-LGBTQ+ UNLV student counter protest.Even though the opposing groups were separated by yards of space and campus police, the tension was thick as both sides yelled messages of condemnation toward the other. After about an hour of yells, screams, chants and songs, Westboro members walked back to their car parked in the In-N-Out lot and drive off campus.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1631</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>20170425_LasVegas_March_LGB+(For)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>A demonstration and march by pro- LGBTQ+ students at the University of Nevada Las Vegas was held in response to the gathering of Westboro Baptist Church on their campus. Specifically, students were counter protesting Westboro's anti-LGBTQ+ messages. Participants gathered in the free speech area outside of the Lied Library, but around 8:45 a.m., news spread that Westboro members were outside of the Hank Greenspun College of Urban Affairs. Protesters marched across the campus chanting "No fear, no hate! We don't want you in our state!" along the way. marchers carried "Love Trumps Hate" and "Born This Way" signs down Maryland Parkway toward University Road. When faced with Westboro members, a protestor proudly shouted through a megaphone and presented them with a bowl of stones to accompany his sign. He placed the white bowl ahead of the crowd, directly between both sides.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1645</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>20161102_Montreal_March_PublicFunding</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>About a hundred students gathered to protest for free education at Square Victoria park. The protest was organized by Dans la Rue Montreal, various individuals at local universities, and the Campagne sur le travail étudiant (CUTE),in support of the Canadian Federation of Students who organized protests pushing for free education all around Canada in 42 other campuses and in 28 different cities, on the same day. Working in conjunction with McGill Against Austerity, David Aird, the VP External of the Students’ Society of McGill University, organized a McGill contingent to the event, which was comprised roughly of 25 people.  UQAM also participated, and they expressed concern with unpaid internships, which are becoming the new norm for students in Quebec and all around Canada.   The demonstration began with a rally in Victoria Square. Addressing the crowd, CUTE members delivered speeches in favour of recognizing studying as a form of labour that contributes to society and, as such, should be subsidized and even remunerated by the state. Officers of the Service de Police de la Ville de Montréal (SPVM) were present, but refrained from interfering with the protest. After the event at Victoria Square, the group marched to McGill’s Community Square, in order to join the rally taking place in support of the striking Association of McGill University Support Employees (AMUSE). The group was hoping the provincial and federal government will hear out the demands of Dans la Rue and the Canadian Federation of Students. The protest, which started west on Saint-Antoine St., ended at McGill University's Community Square. Dans la Rue chose to end the protest there in order to show their support for the Association of McGill University Support Employees who is currently on strike.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1701</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>20160916_Oxford-OH_Rally_LGB+(Against)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Preachers affiliated with the organization Official Street Preachers (OSP) held a protest on the Miami University campus by holding signs and preaching anti-LGBTQ and Islamophobic sentiments. OSP began their protest on academic quad behind the Armstrong Student Center until the Miami University Police Department moved them to the southeast corner of the intersection of Spring Street and Maple Street. This area is designated as a "free speech zone," meaning the protesters did not need a permit. In addition to police, the group was also met by student counter-protesters.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1702</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>20160916_Oxford-OH_Rally_LGB+(For)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>A throng of Miami University students congregated around a preacher group on campus to protest against their anti-LGBTQ and Islamophobic sentiments. The group of students grew over time, and students did things such as holding hands and kiss in front of the demonstrators. Students also held signs and played music on speakers. Miami administrators were also present at the protest and expressed statements of support and encouragement for the student protesters and those who felt targeted by the preachers.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1704</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>20161001_Lincoln_Rally_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>A group of University of Nebraska-Lincoln students gathered prior to a football game and held a rally with signs and slogans to show solidarity for Nebraska players who knelt in protest at a previous game. The students held up signs and stood around the phrase "Black Lives Matter" written in chalk in front of Richards Hall.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1722</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>20161112_Moscow_Rally_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>This was a one-day off campus rally titled "Idaho Against Hate," that took place in Downtown Moscow. This rally, which was organized by University of Idaho students in both the Gay Straight Alliance and Young Democrats, protested against president-elect Donald Trump and his policies. Importantly, the organizers wanted the protest to be peaceful above all else, focusing on solidarity and allowing it be a place for the discussion of ideas, not people. This rally, which took place at the Friendship Square, exhibited minor counter protests.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1732</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>20161109_Muncie_Rally_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Around 150 students at Ball State University gathered on campus in protest of Trump's election. Students carried cardboard signs of protest, some of which read "Love Trumps Hate" and other slogans. Some demonstrators wore symbols of LGBTQ pride, while others wore Clinton merchandise or Black Lives Matter shirts. Students expressed fears about homophobia, transphobia, xenophobia and other hateful rhetoric that would be enabled under a Trump presidency. The demonstration ended with information about where students could find support from their communities. Students reiterated that they felt this event was necessary for bringing people together.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1747</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>20161109_Murray_Rally_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>This was one-day on-campus student-led demonstration against the 2016 presidential election of Donald Trump. Approximately 30 Murray State students drew a crowd to Waterfield Library where they held various anti-Trump signs.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1766</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>20161120_Providence_OtherForm_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>A group of 10 to 12 vehicles staged a motorcade demonstration, driving through the Brown University campus apparently in reaction to recent flag vandalism incidents. They honked their horns, and at one point stopped and played the national anthem. Some of the vehicles bore American flags and "Don't Tread on Me" flags (contemporarily used as a symbol of the Tea Party). It's unclear whether any students participated in the event.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1819</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>20170302_Ottawa_Rally_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>A rally was held on the Carleton University campus at 4 PM as part of the "Not Our Policy" campaign, which supports a reform of Carleton’s sexual violence prevention policy. Ottawa police cars, including a van, met protesters at the rally to verify that they weren't going to block the roads. Jodi Miles, a student who is part of the Not Our Policy campaign, spoke at the rally, expressing discontent with the the current policy and wanting to expose Carleton for caring more about the protection of their public image than they care about the voices of students. During the rally, protesters hung a banner in front of the Carleton University sign on Bronson Avenue, the same spot were students attempted to hang a banner in protest on February 16 before they were confronted by Campus Safety. After the rally, campus security officers also met with the demonstrators outside of the University Centre as they walked back.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1834</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>20160923_Philadelphia_Disruption_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Students and community members disrupted the golf cart parade during Temple University's Homecoming Week. They chanted and held a banner as they walked down Liacouras Walk toward a pep rally at the Bell Tower. The event was organized by the Stadium Stompers, and was held in protest of Temple's planned construction of a new stadium, and how this would contribute to gentrification. Protesters also handed out flyers. Police officers both on foot and on bicycles monitored the event, but did not intervene.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1837</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>20170120_Philadelphia_Walkout_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>About 100 students gathered at the Bell Tower at Temple University for a student walkout and protest in response to President Donald Trump's inauguration. They huddled under the tower to keep themselves and their posters dry from the rain. Philadelphia Socialist Alternative organized the protest at Temple as well as the larger protest in Center City, which students later joined. They marched from Temple's Main Campus down Broad Street to Thomas Paine Plaza - next to City Hall. They then marched to Independence Mall, escorted by police. While members of Temple 15 Now, Philadelphia Socialist Alternative, and Stadium Stompers spoke to the crowd through megaphones, another group of about 50 students walked around the corner of Paley Library and joined the protest.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>20170215_Philadelphia_Disruption_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>In protest of Temple University's proposed on-campus football stadium, the group Stadium Stompers staged a disruption protest in which about 20 members of the Stadium Stompers protested on Broad Street near Cecil B. Moore Avenue, blocking traffic in jest of the traffic analysis that was part of the feasibility study. The protesters chanted as drivers honked their horns and were redirected by police.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>20161116_NewYorkCity-Columbia_Walkout_ImmigrationFor</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>A week after Donald J. Trump's presidential victory, over 400 students walked out of classes at Columbia University and gathered on Low Steps to demand that the University provide sanctuary for undocumented immigrants. The demonstrators urged the University to ban immigration officials from campus, block immigration officials from obtaining student information, and make a public statement asking the government to protect students currently under DACA as well as support a path to permanent resident status for them. At the event, protesters chanted, "Education, not deportation" and "What do we want? Sanctuary campus. When do we want it? Now." The event was lead by the student group Undocumented Students Initiative, but numerous other student groups read their statements of support, including the South Asian Feminisms Alliance, Party for Socialism and Liberation, Columbia Divest for Climate Justice, International Socialist Organization, Columbia Queer Alliance, and Apartheid Divest. Four New York Police Department officers stood on College Walk during the demonstration. The University has yet to comment on what provisions it will make for undocumented students, if any, though a University spokesperson said that financial aid will not change for undocumented students, regardless of DACA status.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>1873</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>20161109_Philadelphia_March_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>More than 2,000 protesters marched throughout the city of Philadelphia to protest Donald Trump's election victory and to stand in solidarity with minorities, LGBTQ people, women, and other groups who feel disenfranchised by the President-elect's campaign rhetoric. Multiple participants were quoted as calling Trump racist, sexist, and anti-LGBTQ+. The event, called "Protest Trump In Philly," was hosted by Philadelphia Socialist Alternative. The protest passed through Temple University's Main Campus at around 7 p.m. as it travelled north from City Hall.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>1877</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>20170501_Philadelphia_Rally_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Drexel Socialists held a rally in Perelman Plaza with the primary goal of pressuring Drexel University administration to declare the university a sanctuary campus. The rally had a few dozen participants including students and some faculty members. Rallygoers held signs and participated in chants while speakers shared personal experiences intermittently. Protesters also handed out flyers. At one point, onlookers also began to chant "Build the wall," directed at the protest. Drexel Police Department monitored the rally, but did not intervene. Around noon, a group of rallygoers from the University of Pennsylvania joined the Drexel group, and the groups marched together to the larger rally at Philadelphia City Hall. The lack of a contract for public school teachers was one of the main themes of the larger protest. Several protesters were in opposition to the Trump administration. Protesters also chanted against the police and white supremacy, although these were not the central issues of the event.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>1890</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>20170222_NewYorkCity_Demonstration_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>40 protesters rallied in Schwartz Plaza at NYU to challenge both the lack of student representation on the Board of Trustees and board member John Paulson's connection to President Donald Trump as an economic advisor. Earlier that week, the Students Senators Council voted favourably on a resolution that will potentially allow one undergraduate and one graduate student to join the university's Board of Trustees. Shortly after the rally was scheduled to begin, the group of about 40 protesters admonished Hamilton's lack of support for the resolution, and then relocated (which I coded as a march) to the atrium of Bobst Library after 15 minutes of demonstrating. Once inside Bobst, the students formed a walkway outside the only elevator that goes to President Andrew Hamilton's twelfth floor office. Public Safety officers stood at bay.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>1935</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>20170327_NewYorkCity_Demonstration_TraditionalMarriage</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>From 9:30 AM until around 10:08, five members of the  Westboro Baptist church stood in the rain between metal police barriers on Amsterdam Avenue between Laurel Hill Terrace and 181st Street. A number of NYPD officers were present securing the scene. The church announced via Twitter that it would protest at Yeshiva University in order to denounce the university's acceptance of homosexuality and Judaism. When asked why the protest was staged a block away from YU's Wilf Campus instead of in a location more visible to students, Phelps-Roper explained that they wanted to demonstrate in a busy intersection where they would be noticed by passing cars and pedestrians, and insisted that the group was still within sight of YU's indoor parking lot.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>1938</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>20161110_SaltLakeCity_March_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Three University of Utah students, also members of Students for a Democratic Society, organized the "Say No to Trump's Agenda" protest in Salt Lake City following President-elect Donald Trump's election victory. More than 1500 citizens, including many University of Utah students, participated in the event. Protesters gathered near 100 South and State Street outside the Wallace F. Bennett Federal Building. For about one hour, student organizers, representatives from Utah Against Police Brutality, and Local Teamsters 222 addressed the audience with a series of speeches. The group then marched up 100 South to the Capitol Building. On the steps of the capitol, Weber State student Crystal Hall, an LGBT woman with disabilities, burned an American flag. The protesters held signs that read, 'Climate change is real,' 'Not my president,' 'I am gay. I am terrified," "No human is illegal," "Trump=Voldermort" and "Without immigrants, Trump would have no wives." The rally aimed to represent Americans who Trump has offended during his campaign: people of color, women, those with disabilities and the LGBTQ community. A protester also stressed that college students have faced discrimination with high tuition and student loan debt, which has been a contributor to the election protests. The police played a watchful yet lenient role in the rally, giving the citizens space and blocking streets for their safety. One police officer even acted as a crossing guard to assist protesters in front of the Capitol.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>20161117_UniversityCenter_March_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Delta College saw its first anti-Trump protest. It was stated that the purpose of the event was not to not push hate, but to unite people against hate and to bring other people together as a country. _x000D_
+_x000D_
+The protest started in front of the library, small at first but gradually growing in size. The protesters attracted quite a crowd, some even joined in the protest. As the march started, the protesters chanted, "Not my President" as they marched through the quad to the front of the school. The march lasted about an hour and had supporters, people cheering them on and cars honking their horn in support of the protesters. Behind the protest, campus security followed along just in case the protest took a wrong turn.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>20161116_Vancouver_Demonstration_AbortionAgainst</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Several pro-life activists set up about half a dozen large posters (with graphic images of aborted fetuses and babies) and cones at the plaza outside of the Nest at the University of British Columbia as part of their “abortion awareness project.” UBC Lifeline, the pro-life club on campus, put on the event in partnership with the National Campus Life Network and the Canadian Centre for Bioethical Reform (CCBR).  Campus Security stood by to mediate the situation.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>20170120_SaltLakeCity_March_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Around 1,000 anti-Trump protesters marched through Salt Lake City, holding signs and chanting, in response to President Donald Trump's inauguration. Organized by the University of Utah's Students for a Democratic Society (SDS), the protest began at the Wallace F. Bennett Federal Building and wound through the streets of downtown Salt Lake City until the crowd arrived at the Capitol. Law enforcement lined the sidewalks as activists protested against the newly elected President and his policies about immigration and many others. Protesters chanted, "Education not deportation!" According to a spokesperson for SDS, Trump's stance on undocumented immigrants is the most concerning part of his agenda for students at the University of Utah, adding that SDS is currently petitioning the U to become a sanctuary campus for undocumented students. Carrying pride flags, and flags donning the Communist hammer with a sickle and Anarchist Circle-A, demonstrators at one point occupied the intersection of South Temple and Main Streets, blocking a UTA Trax line and halting all vehicular traffic. As the march headed up State Street toward the capitol, residents of apartments watched from their balconies while some yelled at protesters. Once at the Capitol, participants demonstrated on the steps and overflowed onto the lawn. Speakers drew roars from the crowd as they expressed their frustrations with the government and Trump administration and some even burnt an American flag. Trump supporters confronted people leaving the rally, resulting in arguments, but not physical violence.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>20161116_Vancouver_Disruption_AbortionAccess</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>In counter-protest of the pro-life demonstration outside of the Nest on the University of British Columbia campus about 30 GRSJ undergraduates and unaffiliated students intentionally stood in line with the row of the Lifeline club’s graphic anti-abortion images with the intent to block the images from passersby. They also rallied with posters. According to one op-ed, pro-choice counter-protesters threw insults and "nasty" comments toward pro-life protesters. Campus Security stood by to mediate the situation.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>20170125_SanFrancisco_Disruption_Labour</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>During the first UC Board of Regents meeting of 2017, hosted at UCSF Mission Bay, the public comment period was disrupted by the Teamsters Local 2010 who urged the regents to grant UC workers contracts. "What do we want - contracts! When do we want - now! If we don't get it, shut it down!" Teamsters chanted, as regents chair Monica Lozano attempted to end the public comment session. Police stationed themselves between the Teamsters and the regents, and the protesters began to exit the room, chanting, "No contracts! No peace!" Teamsters Local 2010 is the union that represents 14,000 UC employees.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>20170301_Victoria_Disruption_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>A demonstration/disruption  at the University of Victoria of a screened speech and then Skype Q and A of Peter Singer, an ethicist who has previously spoken on the right of parents to euthanize severely disabled infants. The protesters at the event stood on stage with a microphone and read out a list of names of disabled people killed throughout 2016 and 2017 while audience members filed in. When Effective Altruism, the campus group holding the speech event, tried to begin, protesters started to shot various chants to deter the proceedings. Eventually, the Q&amp;A ended about a half hour earlier than scheduled, after campus security encouraged early termination.  One article reports this event as taking place on March 1st another on March 6.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2052</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>20161109_LosAngeles_March_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>A large student protest erupted on campus after Donald Trump was elected president. Hundreds of students marched down Bruin Walk from the Hill and campus before heading to Westwood Village. At least 1,000 more students joined by the time the crowd reached Westwood Boulevard. Protesters chanted "Fuck Donald Trump," "Fuck the wall" and "Not my president." Students began tearing apart and burning a Donald Trump pinata, and some students tried to flip over a car. The students stopped after noticing a man inside the car. Other students played guitar and held a Mexican flag. There was police presence during the protest. University of California police officers followed protesters on foot and in police cars around campus, but Los Angeles police and fire officials intervened when the group reached Wilshire Boulevard and Veteran Avenue. On Wilshire Boulevard, students briefly blocked traffic as cars honked, some in support of protesters. Many students held their fists in the air as they ran or walked through the street. One of the students leading the protest said nobody will accept the results of the election. After marching to Wilshire Boulevard, hundreds of protesters walked to the Janss Investment Company Building, where they did an 8-clap before sitting for about 10 minutes. Students then marched back to campus and to the Hill at around 1:30 a.m. Some students dispersed, and others continued to chant.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2090</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>20160926_Burlington_Rally_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>University of Vermont students held a Black Out rally in support of the Black Lives Matter movement. Over 100 students, staff and community members gathered under the new "Black Lives Matter" flag flown in front of the Davis Center for a moment of silence. They were all gathered for "solidarity for those killed by gun violence." Protestors also identified institutionalized racism towards minorities.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>20161010_Washington_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>About 35 Georgetown students gathered at the university's front gates for a rally and march against police brutality. The theme of march was"Black Bodies are Beings." Before the march began, the organizer of the march Raquel King addressing the killing of Black Americans taking pauses to collect herself before continuing her call for justice reform. The event specifically sought to address the deaths of Trayvon Martin in 2012, Eric Garner in 2014, Sandra Bland in 2015 and most recently Terrence Sterling, shot by a police officer Sept. 11 in Washington, D.C. The march drew a diverse crowd of students from different years, programs, and races.  The group then gathered for a prayer of solidarity, asking for a successful march and changes to the American policing system. Next, the group marched to the White House. Because they filed for a parade permit, the group received a Metropolitan Police Department escort, which included the accompaniment of three motorcycles and five cars for certain stretches of the march and fewer vehicles for other stretches, depending on the location. Police blocked car lanes so the students could peacefully march on O and M streets and Wisconsin and Pennsylvania avenues, which caused up to 10-minute traffic delays in Northwestern D.C. As the protesters marched, they carried signs listing the names of men and women killed by police and chanted calls reinforcing themes of racial equality and political reform, such as, "It is our duty to fight for our freedom. It is our duty to win" and "What do we want? Change. When do want it? Now." Once they reached the White House, the protesters continued their calls for racial reform with nearly an hour of chanting before pausing for a prayer circle.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>20161109_Washington_Rally_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>An anti-Trump protest was held outside the Mary Graydon Center at American University, which resulted in an altercation between an AU student and AU employee. At the protest, the employee ran toward the sophomore protester, who was holding a burning flag at the time. The employee attempted to take the flag away from the student, which led to an altercation between the employee and several protesters, who pushed the employee away from the student protester. The employee allegedly grabbed the student and pulled her up the stairs of the Mary Graydon Center. Uniformed Public Safety officers were stationed outside of the Mary Graydon Center and across the quad, and plain clothes officers were visibly identifiable among the demonstrators. _x000D_
+_x000D_
+ The demonstration provoked a strong response from then-University President Neil Kerwin</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2132</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>20161117_Washington_Demonstration_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Between 75 and 100 students gathered in Red Square around 2 p.m. and after short speeches by Professor Andrew Bennett and the march's liaison to police, the marchers left campus around 2:20 and headed toward Myron Ebell's office at 1310 L St Northwest. The protest was organized by Professor Andrew Bennett and a group of students called Students for Climate Security against Myron Ebell, the head of President-Elect Donald Trump's transition team for the Environmental Protection Agency, who expressed doubts of climate change and has ties to the fossil fuel industry. Accompanied by a police escort, the marchers walked through the city streets chanting slogans and holding signs. Passers-by in buses, trucks, taxis, and personal vehicles honked in support. After being joined by protesters from George Washington University , the marchers stopped outside Ebell's office where they continued to chant. Several students from Georgetown, GW, and University of Maryland gave speeches interspersed by chants and shouts from the protesters until they dispersed shortly before 4 p.m..</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2183</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>20160923_StLouis_Occupation_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>In response to recent instances of police brutality nationwide, a group of over 40 black Washington University students occupied and effectively shut down Bear's Den. Students began by gathering in the dining hall area of the Danforth University Center. Wearing black clothing, each student was given a photo of a victim who have died under the hands of police as well as signs that read phrases such as "White Silence" and "Black Lives Matter." Once ready, the group of students proceeded to march, in rows of five people, towards the South 40 through the underpass. On their way, they chanted "You can't stop the revolution" and "Hands up, don't shoot," grabbing the attention of people walking by. When the group arrived at Bear's Den, protesters linked arms and surrounded the food stations, blocking others students from ordering food and bringing all dining hall activities to a halt. They shouted more chants such as "It is our duty to fight this" and "These killer cops have got to go." The protest, designed as a space for black students only, allowed individuals to share frustrations caused by racial profiling and recent high-profile, police-involved shootings. A number of students spoke about experiences they've had, particularly on campus, as black students. One protester expressed her frustration over the lack of conversation. Different students took turns sharing their feelings and personal experiences about racial profiling and police shootings. They criticized the University for neither addressing this national crisis nor providing a support system for black students. One student recited a poem dedicated to all the victims who have died as a result of police brutality. The protest ended as the group of students exited the building as they continued chanting, "You can't stop the revolution," leaving behind a quiet Bear's Den which resumed its usual activities soon enough. Washington University Police Department officers were also present at the scene. There was a moment of retaliatory conflict came after a protester made a negative comment about Donald Trump; A student interrupted by yelling, "Make America great again."</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2185</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>20161104_StLouis_Demonstration_Transgender(Against)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>About 10 Westboro Baptist protesters arrived outside of Washington University in St. Louis to protest against the Transgender Spectrum Conference, an annual conference held at the Brown School of Social Work that included panel discussions and presentations on transgender youth, minorities, and identity challenges facing the trans community. The Westboro protesters were guided into a gated section of sidewalk outside of the Brown School by WUPD officers along Forsyth Boulevard. They were equipped with signs condemning transgender identity, as well as a radio blasting remixed versions of popular songs. Instead of singing the real lyrics to Ke$ha's "We are Who We Are," the Westboro members shouted, "We hate who you are," over the music. Out of the 10 protesters, there were two young children standing with their parents. The children also held signs that promoted anti-transgender messages, but remained silent as the adults chanted. One father, when asked about his decision to bring his child to a protest of this kind, spoke about his parenting beliefs. At 1 p.m., the Westboro protesters packed up their things and left.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2194</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>20170121_Detroit_March_Trump(against)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Wayne State's campus was home to roughly 4,000 protesters marching in solidarity with the Women's March on Washington. The march started at 10 a.m. at Gullen Mall with thousands of women, men and children crowding campus for the protest. The WSU Police Department and the Detroit Police Department were onsite to block off roads for the protests, and many in the crowd thanked and shook hands with officers along the route. Protesters chanted against President Donald Trump and his cabinet members with calls including "Betsy DeVos is not our boss!" and "no hate, no fear, immigrants are welcome here!" during the roughly two hour march.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2217</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>20161110_EauClaire_Rally_Trump(against)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>A march began at the nymph sculpture on UW-Eau Claire's lower campus where a crowd of about 180 included Memorial High School students, older community members, professors, and students gathered to listen to speeches. They then moved through downtown Eau Claire, members of Eau Claire's Police Department blocked sections of the street so marchers could safely pass.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2233</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>20170213_Washington_Demonstration_ImmigrationFor</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>A group known as Concerned Students 1867 at Howard University held a rally at the flagpole and raised a "resist" banner, then marched to the administration building to deliver a physical copy of the demands to President Frederick where they were met with campus police. The demands included a call for President Wayne Frederick and Howard to "ban" U.S. President Donald Trump from university buildings in response to the Muslim ban, and that Howard "deny Immigration and Customs Enforcement access to students' immigration and citizenship status." The movement began after rumours surfaced of a possible executive order coming from Trump that would target historically black colleges and universities.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2243</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>20170428_Washington_Disruption_LGB+(For)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>In response to an anti-gay demonstration on George Washington University's campus by Westboro Baptist Church, students at the Phi Sigma Kappa townhouse across the street blasted music through speakers, including songs like "Same Love" and "We Are the Champions." Playing loud music is coded as a disruption.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2250</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>20170126_WestChester_Demonstration_AbortionAgainst</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>At around 12:30 p.m., two men began spewing controversial political language on the academic quad at West Chester University. The two men, allegedly "pastors" from the Philadelphia area, stood near Main Hall and spoke on topics mainly targeting women, such as abortion, abstinence and homosexuality. They wore body cameras to record reactions from those who passed by. One student pushed one of the men and stole his sign, prompting a small foot chase and arrest by the Public Safety officers. Another student threw an egg at the activists.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2258</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>20161009_StLouis_March_Economy</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>A community-led Say No To Hate March gathered several hundred protesters for a march down the Delmar Loop and Skinker Boulevard in St. Louis, MO, on the day of the Presidential debate at Washington University. The Say No to Hate March and rally, which began in the parking lot behind Cicero's Italian restaurant, featured a clear focus on proposals for a $15 minimum wage. The rally also gathered community members supporting Planned Parenthood, marijuana legalization, and environmental activism, among other topics. The protest was also joined by a small cohort of Liberation Collective protesters who marched from Washington University after holding a rally of their own on campus. After a series of speeches in the parking lot, including one from a Liberation Collective organizer, the march began. The crowd of hundreds followed activist guides, several of whom were Liberation Collective students, as well as police car escorts down the Delmar Loop and onto Skinker Boulevard, disrupting traffic before terminating the march with chants at the edge of campus.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2272</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>20161116_Turlock_Rally_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>A Solidarity Rally took place in the quad at California State University Stanislaus (Stan State) in Turlock, CA. The rally was meant primarily for students to voice their frustrations and concerns over the new president-elect, Donald Trump. Secondary issues included spreading awareness in regards to "illegal" immigrants and gender diversity. The rally was patrolled by campus police officers that stood casually, listening to what the speakers had to say. Sociology professors spoke on stage about their willingness to cooperate with students who might be feeling alone, afraid or upset after the election results. Around 12:30 p.m. the crowd marched around the campus, beginning their chants once again.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2276</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>20161109_WestLongBranch_Walkout_ImmigrationFor</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Walkout for a Sanctuary Campus at Monmouth University. Student organizer, as the faculty, want to make those negative feelings disappear. Student Organizer of the walk-out, Marilyn Carteno, spoke about keeping the undocumented community safe after President-Elect Donald Trump takes office. Towards the end of their march the protesters were met with verbal taunts from students of the college, but were dealt with by Monmouth College Security. Many faculty members of the Communication Department were seen taking part in the march during the walk-out, demonstrating their support to the students of Monmouth College and the surrounding community.. Letter of Support signed by many members of the faculty to make the University a sanctuary campus. Specifically, The Department of Communication Studies released a statement affirming its support of equal academic opportunity and a stand against discrimination and oppression.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2318</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>20161108_Tallahassee_ March_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Faculty, students, and staff participated in the "Souls to the Polls: Millennial March" that was held at Florida Agricultural and Mechanical University as a part of a statewide campaign for black millennials to get out and vote. The march began at 1 p.m. at the eternal flame in the center of FAMU's quad. From there, the march went all the way down the set, past The Palmettos, and continued on down South Adams Street until the group reached the voting precinct. Protesters blocked traffic during the march. The event was hosted by the FAMU Chapter of the National Association for the Advancement of Colored People.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2334</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>20170414_Baltimore_March_Universitygovernance</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Nearly 50 graduate students at Johns Hopkins University protested to demand more affordable and accessible University healthcare. The event was organized by Teachers and Researchers United , a coalition of graduate students, and followed a recent meeting four days earlier between members of TRU and the Vice Provost for Student Affairs, Vice President for Human Resources, and Chief Risk Officer. The group has also been organizing since last semester, collecting stories of graduate student experiences with University healthcare. The demonstration began in front of Levering Hall, where several participants related their personal struggles with the University's healthcare plan. The group then marched to Garland Hall to present their demands to University President Ronald J. Daniels. Their demands are organized into three subsections: equality, accessibility and affordability. They include a fully-funded health insurance plan, family leave for graduate student parents, coverage of mental healthcare providers outside of the Counseling Center, coverage for dental and vision care, as well as STI and HIV testing. At Garland, the protesters filled the first floor, carrying signs and chanting "Let them in now" and "Ronny D, you can't hide, we can see your greedy side" as several of the members approached Daniels' office with their list of grievances. However, TRU members were met by security personnel outside Daniels' office who said that he was not there. The protesters instead delivered their grievances to Daniels through his chief of staff Kerry Ates.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2337</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>20170421_Baltimore_Sit-in_Environmental</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Refuel Our Future, a student activist group at Johns Hopkins University (JHU), staged a four-hour sit-in at Garland Hall to advocate for fossil fuel divestment following the recent JHU Forum on Divestment from Fossil Fuels. The group hoped the sit-in would build momentum and place pressure on the University and the Public Interest Investment Advisory Committee (PIIAC), resulting in a recommendation to the Board of Trustees. Refuel Our Future has been campaigning for divestment for the past six years. To start the protest, students chanted "Divest the nest" and "Fossil free's the way to be" outside of Garland Hall. Upon entering the building, they were met by Vice Provost for Student Affairs Kevin Shollenberger. The group handed their list of demands to Shollenberger and University Provost Sunil Kumar. The demands call for a timeline of PIIAC's meetings, a report, and a voting recommendation to the Board of Trustees by May 17. Demonstrators then sat in a line on the third floor of Garland for four hours, holding up orange signs that read, "One Month: We are demanding a decision by 05/17/17, one month since the Forum." Security guards patrolled the area during the sit-in. The next week, the head of PIIAC wrote in an email that their next meeting will be held on May 16 during which they will create a timeline for completing the proposal. He added that PIIAC intends to complete the review by the end of the year, but a decision will not be reached by graduation this May.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2367</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>20161116_Collegeville_March_Universitygovernance</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>The protesters met in Bomberger Hall, and then marched around campus and along Main Street. The protest was organized primarily by members of United Students Against Sweatshops and allied students. The purpose was to express dissatisfaction with the outcome of the election and its aftermath. Despite commenting on the national election, the protest had an Ursinus-centric focus, urging a more proactive stance from the school about responses to the protest and election. The march, which featured chants against Donald Trump and against racism, sexism, homophobia, and xenophobia, went smoothly. The marchers looped around campus, through Reimert Hall and Lower Wismer, and around the residence halls. A number of passersby joined in, although some expressed disapproval as the march passed them. At one point, as the demonstrators walked along Fifth Avenue, the march was diverted by a policeman from the street to the sidewalk. The protestors complied peacefully. As the march returned to the center of campus, it veered back towards Bomberger Hall, where a faculty meeting was taking place. The group walked inside chanting, "The people, united, will never be defeated." Once all the protesters were inside Bomberger Hall, the faculty yielded the floor, and protest organizer Temi Olafunmiloye spoke about the goals of the protest, which included more vigorous and proactive opposition to harassment. A number of faculty were visibly moved and some were even crying as they listened to the group's demands. The majority of faculty gave the group a standing ovation and joined them in walking out of the meeting. After the faculty walkout, the entire group convened on the steps of Olin Hall for a demonstration where students and faculty shared their personal experiences with the group. The group was shouting at a counter-protest group. Once the demonstration was over, members from both sides remained in Olin Plaza to exchange some final words before dispersing.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2369</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>20161114_Towson_Rally_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Students and faculty staged a walk-out and rally at Towson University's Freedom Square to protest against President-elect Donald Trump. During the rally, in response to a student saying, "If you voted for Trump, fuck you", a Trump supporter responded, "Fuck you too." The rally then erupted into chaos, with shouting back and forth and several concerned faculty and students rushing the area. Towson University Chief of Police Bernie Gerst was quick to reach the Trump supporter and begin talking with him. Around them, students began chanting "Bye! Bye!" Eventually, the Trump Supporter left the area. He was walked out by police, but not removed by them. Towson University officials said police were with him for his own safety. Students and faculty then returned to sharing stories and expressing their fears and worries about both the Trump presidency and the system of white supremacy that some cited as a cause for Trump's election. The Social Justice Collective, which is a group of mostly faculty committed to ideals of social justice, worked in alignment with various student groups to stage the walk-out.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>20161011_Toronto_Rally_FreeSpeech</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>A rally entitled “U of T Rally for Free Speech: Jordan B. Peterson, Lauren Southern &amp; Students On Political Correctness, Bill C16, HR &amp; Equity Policy” was held on the steps outside Sidney Smith Hall at the University of Toronto. The event, which was a freedom of speech rally against Bill C-16, was in response to a teach-in and rally hosted by trans and non-binary activists a week prior who were calling out Professor Jordan Peterson for his statements on gender, and refusal to use gender neutral pronouns. Peterson believes that Bill C-16 and associated Ontario Human Rights Commission policies place limitations on free speech in the interests of protecting peoples’ feelings (specifically with regards to using peoples’ proper pronouns). Peterson was invited to speak at the rally, along with another right-wing speaker, Lauren Southern, who is a conservative commentator at Rebel Media. Attendees at the rally included a man who shouted "we need more Michael Brown's", and another who wore a Hell's Angels Motorcycle Club jacket. The rally was disrupted by counter-protesters, who blasted white noise in an attempt to drown on the speakers at the free speech rally. The atmosphere at the rally became tense, and outbursts of violence occurred between attendees of the rally and its counter-protesters. Police arrived to monitor the possibility of conflict between the rally’s attendees, and those protesting the event. There were a number of incidents of assault at the rally, including “a small brawl” involving Southern and spectators, and Southern’s microphone was taken away. Partway through the rally, the fire alarm was pulled inside Sidney Smith Hall, causing students to evacuate the building and onto the street until the fire department came and gave the all clear. The rally came to a close around 2:30 pm when the audio equipment failed and police intervened in apparent escalating conflict.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2450</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>20161111_Wise_Demonstration_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>A group of five University of Virginia-Wise students stood on the low wall outside the Slemp Student Center to counter the alienating and oppressive rhetoric currently sweeping the nation. Some had tape covering their mouths, which can be seen as symbolizing a lack of political voice in a country that needs to be constantly reminded that"Black, Brown, Muslim, LGBT, Immigrant Lives Matter". Each person held a sign emblazoned with a message urging for equal rights and justice for all by re-evaluating and dismantling the current power structures designed to benefit primarily white, cisgendered, heterosexual men. As the day continued, passersby joined the protest line on the wall, resulting in around thirty more people. At 2pm, the silent protest moved into the Chapel of All Faiths.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2462</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>20161108_Davis_March_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>At around 11:30 p.m. on Nov. 8, a few hundred students began marching through campus to protest Donald Trump winning the presidential election. Students marched off campus and into downtown Davis, chanting slogans such as "f*ck Donald Trump," "Trump is an asshole" and "not my president." At times, protesters blocked Russell Boulevard. Police remained on standby. For many students, the protest provided not only a way to express disappointment in the election results, but also an opportunity to demonstrate their political views in a way other than voting. At around 2:00 a.m., the protesters gathered in front of the Whole Foods in Downtown Davis. At that time, protesters spoke on why the election result mattered to them and stressed the need for the protest to remain peaceful.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2487</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>20161027_RiverForest_March_Anti-Racism</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Dominican University students, faculty and staff walked out to Division Street in front of Circle Drive, protesting the recent and past acts of racism and social injustice on and off campus. With handmade posters, signs and fliers, the group consisting of over 200 bodies chanted, "No plans, no action, no peace!" and "We want deadlines!". The names of members of the Board of Trustees were publicly read off one by one by, although none were in attendance at the protest. Public Safety kept watch with three officers staked out around the parameters. Cars passing on Division Street slowed down to see the protest and read the signs. Several honked their horns to show support. President Donna Carroll was made aware that the protest was happening at 3:11 p.m., however Carroll didn't come out until 4 p.m. to address the protesting students. Students were not afraid to verbally confront Carroll as well as Goggin openly sharing their frustrations and concerns. students asked the president for a public statement of solidarity from the university and asked for an apology from Carroll for saying "All Lives Matter" and not "Black Lives Matter" at the open Black Lives Matter forum.</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2517</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>20160710_Madison_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>A crowd of more than 200 Black Lives Matter protesters marched from the University of Wisconsin - Madison, down State Street, taking their cause to the steps of the state Capitol, through Madison's Art Fair on the Square, and then to the doorway of the Dane County Jail. They were protesting against racism and police brutality, but more specifically in response to the fatal police shootings of two black men: Alton Sterling in Baton Rouge, Louisiana, and Philando Castile in a St. Paul, Minnesota, suburb. Madison police officers escorted protesters.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2520</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>20161110_Madison_March_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>The anti-Trump protest began with speeches at Bascom Hall at the University of Wisconsin - Madison. Additional speakers representing different causes addressed the crowd at various stops during the march down State Street. The only issue coded was Trump (as per agenda decision on 2021/01/22), but there were many, including racism, immigration, homophobia, the electoral college, and the environment. Once at the Capitol, the crowd heard from students, community leaders and State Rep. Chris Taylor, D-Madison. When the protesters reached the state Capitol, Michael Johnson, president and CEO of the Boys and Girls Club of Dane County, instructed them to lie on the ground in silence for three minutes, but no symbolic meaning for this action was described in the article. The protestors then marched back to the steps of Bascom Hall, continuing to chant the whole way. Around 2,500 participated. Protesters carrying a banner for UW Students for Immigrant Rights marched also.</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2524</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>20161111_Madison_Blockade_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>This protest march/blockade at the University of Wisconsin - Madison was  a response to an incident at a Wisconsin Badgers football game. An attendee wore a prison jumpsuit with a mask of President Barack Obama with a noose tied around his neck. Another man, dressed as Donald Trump, held the other end of the noose. _x000D_
+_x000D_
+Protesters started at Bascom Hall and attempted to march down State Street. The protest was redirected by police due to UW-Madison's homecoming parade. The march headed back toward Bascom Hall, down Park Street. Protesters blocked rush hour traffic for several minutes at the intersection of University Ave and Park Street. The protest continued down Park Street to Johnson Street, where protesters blocked traffic and continued to share stories of UW-Madison's perceived inaction around reported incidents of hate and bias on campus.</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2553</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>20180321_Boulder_Rally_FarRight(Against)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>A small group of protesters gathered outside the UMC Cristol Chemistry and Biochemistry building during Coulter's talk, holding signs with slogans including "fuck white supremacy," "your racism offends us" and "free speech not, hate speech." Around 50 students who partook in the silent walkout joined demonstrators. The Young Democratic Socialists of America were outside the event with a booth promoting socialism. They held a toiletries drive with the tongue-in-cheek name "toilet paper USA" and filled several bins full of sanitary products. A small group of Coulter and Trump supporters engaged with the protesters partway through the night. Though some became aggressive, people generally engaged in genuine dialogue with each other. One Trump supporter engaged in a long discussion with several protests about police violence, another about trans rights. The protests were peaceful, with no arrests made despite a heavy police presence. Thirty police officers from multiple departments, including CU Police Department, Boulder County Sherriff's Department and Boulder Police Department stood watch outside of the event. Some officers wearing SWAT and military-style gear and an armored truck was parked behind the University Memorial Center. Many student protesters said that by allowing Coulter to speak and providing resources for her to do so, CU's allowance bordered on endorsement. This struck a chord with students who feel as though the university is already not supporting marginalized groups.</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2587</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>20161018_Toronto_Rally_Pro-Life</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Anti-abortion demonstrators gathered on Gould Street on the Ryerson University campus on Tuesday, October 18th. The group has been staging similar demonstrations for the past three weeks. The organization behind the protests is the Canadian Centre for Bioethical Reform. Clarissa Canaria, a volunteer at the organization, said they are going to campuses across the province to show what abortion does to preborn children. The group demonstrated with larger banners showing graphic imagery of abortions. Police officers showed up at the demonstration around 2 p.m.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2588</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>20161018_Toronto_Disruption_AbortionAccess</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Abortion rights advocates held a counter protest to a demonstration held by anti-abortion protesters on Ryerson's campus. They brought out signs, cardboard boxes and tents to hopefully block the pro-life groups graphic images of abortions. Police officers showed up at around 2 p.m. Ryerson University and the Ryerson Students’ Union (RSU) have yet to release a statement about the protests taking place on campus.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2611</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>20161111_Rochester_Rally_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>This was a one-day on campus demonstration at the University of Rochester against the rhetoric of President-elect Donald Trump's campaign and the possible consequences of his term in office. The peaceful protest, "Not My America," was organized by students in the wake of Trump's upset election on Tuesday over Democrat Hillary Clinton, which was met with overwhelming dismay from students. Over 500 stood on and in front of the steps of Rush Rhees Library, scores of them waving handmade signs with slogans of solidarity, and opposition to Trump: "Stronger Together," "United Not Divided," "Love Trumps Hate." In addition, a banner painted with "United Against Hate" hung prominently from the fifth-floor windows of Morey Hall. Lastly, in honour of Veterans' day, they hosted a food and clothing drive, a moment of silence, and a veteran speaker-Gary Hilburger, who has Parkinson's disease-as part of the program. Junior Annie Forestiere belted out the national anthem near the beginning of the event.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2616</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>20160707_Richmond_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>More than 100 Richmond, VA, locals assembled in Monroe Park on the Virginia Commonwealth University campus to protest police brutality and hold a vigil to honor the lives of Louisiana's Alton Sterling and Minnesota's Philando Castile, two black men recently killed by police. At the vigil, more than a dozen in attendance spoke about the injustices persistently plaguing Black Americans. Following the speeches, protesters began an impromptu march. They marched from Monroe Park to W. Broad Street and N. Harrison streets, where organizers led the demonstration to a halt, separating the crowd into the four corners of the intersection so the group would not block traffic. Throughout the march, Protesters made an effort to not disrupt evening commutes by marching on both of the sidewalks to separate the large crowd so it wouldn't overflow into the road. Police were present to ensure the demonstrators maintained order. Form W. Broad Street, protesters marched back to the VCU Commons on campus. As the group passed the VCU Police Department, they stopped for a moment of silence in honor of Sterling and Castile. The demonstration then moved to the VCU Compass for final remarks.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2617</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>20160716_Richmond_Rally_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Hundreds of students, families and community members gathered at Monroe Park on the Virginia Commonwealth University campus for the "1,000 Man March," a protest event organized following two more high-profile deaths of Black men at the hands of white law enforcement. The demonstrators chanted "No Justice, No Peace, No Bad Police" and "Black Lives Matter," from VCU's Monroe Park, across the Robert E. Lee bridge and Jefferson Davis highway and into the South Side where the group concluded near Blackwell Community Center. Richmond and VCU Police led, trailed and paralleled the group to control traffic patterns while EMS followed. Organizers had worked at length with the Richmond and VCU Police Departments throughout the preceding week to ensure a safe, effective turn-out. One protester was unhappy with the police presence and held a "Fuck the Police" sign. At Blackwell elementary school, where the approximately-three-mile-long march concluded, members of the community took turns addressing the crowd in a closing rally.</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Monitor/Present, Cooperate/Coordinate</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2618</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>20160813_Richmond_March_Economy</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Beginning in Monroe Park on the Virginia Commonwealth University campus, participants gathered for a Fight for $15 march to protest racial and economic equality and demand a $15 minimum wage. From Monroe Park, participants marched down W. Franklin St. and Monument Ave., concluding with a rally in front of the Robert E. Lee Monument for a keynote speech by Rev. William Barber II, president of the North Carolina chapter of the NAACP. More than 8,000 protesters from 20 industries across the country participated in the march. There were no reported incidents of violence or any arrests made during the march, according to Richmond Police.</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2644</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>20161001_Raleigh_SymbolicDisplay_Anti-Racism</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Approximately 70 students gathered in Carter-Finley Stadium prior to the football game against Wake Forest, dressed entirely in black. The students assembled as part of a blackout for the Black Lives Matter protest during the football game. To support the movement, students raised their fists during the national anthem and sat through the playing of the alma mater. In addition to students protesting in the student section, two students in the NC State marching band knelt in support of Black Lives Matter and in protest of systemic racism towards black people.</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2665</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>20170412_Pullman_Symbolic_Pro-life</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Anti-abortion demonstrators from Students for Life at Washington State University set up a "Cemetery of the Innocent" display, which included 300 crosses, on the lawn between Holland Library and Bryan Hall. One cross was equivalent to "10 children aborted per day in the U.S.," according to the sign. A counter-demonstrator tore down the crosses and threw the signs away.Students for Life members later returned and set the display back up, after which the student returned and started taking them down again. People started to come and support the removal of the crosses and signs. Students for Life supporters also began showing up as well.</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2676</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>20160924_Durham_March_LGB+(For)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Almost 100 LGBT students and allies from NC State, decked out in rainbow-colored attire, marched with the NC State GLBT CommUNITY Alliance in the 32nd annual NC Pride Festival parade at Duke University's East Campus on Saturday. Hundreds of students from Duke, UNC-Chapel Hill, NC State and other area schools participated in the event. Many church groups were also among the supporters at NC Pride. Protestors also raised the issue of the passage of House Bill 2, which forces individuals to use bathrooms that correspond to the sex stated on their birth certificates. Participants also talked about their hope to see a Pride event hosted on NC State's campus, and participants stated that they would like to see more diversity education throughout courses on campus.</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Participate, Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2721</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>20160912_Berkeley_UnknownForm_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Members connected with Project Veritas at UC Berkeley built a mock brick wall in support of Donald Trump and his rhetoric. In response, members of Rising Immigrant Scholars through Education held a counter protest. Approximately 17 students chanted slogans and joined hands as they faced a crowd of counter protesters that were at gathering at Sather Gate around 11 am.</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2722</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>20160912_Berkeley_Demonstration_TrumpFor</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Two members, affiliated with Project Veritas, built a mock wall out of cardboard bricks on Sproul Plaza at UC Berkeley, inciting a protest led by undocumented students. Approximately 45 activists not affiliated with UC Berkeley or the Berkeley College Republicans gathered at Sather Gate. They held up a cut-out of the Republican presidential nominee and chanted slogans, as members of Rising Immigrant Scholars through Education protested against them.</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2728</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>20161017_Berkeley_Blockade_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>At noon, 40 to 50 demonstrators associated with QARC and the bridges Multicultural Resource Center, gathered inside the Cal Student Store at UC Berkeley to campaign for a more visible and accessible location on campus to better support underrepresented students. Protesters were asked to leave the store but they did not comply. The store locked all of its entrances about 30 minutes into the protest. By the time officers arrived on the scene, there were also 30 demonstrators outside the store entrance. An emergency rally was called at 2 p.m., 100 or more protesters had formed a human barricade blocking the Sproul Plaza entrance into campus. At 2:23 p.m., demonstrators inside opened the student store, allowing protesters outside to come in. David Surratt, associate dean of students, spoke privately with several student organizers. Protesters announced that they wouldn't leave until they met with university officials, Greenwell and Daryl Ansel. After a little more than an hour of deliberation with Greenwell and Daryl Ansel, they reached an agreement. Protesters left the store about 5:30 p.m.</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2749</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>20161201_Berkeley_March_Indigenous</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>A group of approximately 30 to 40 UC Berkeley students congregated at 8:00 a.m. in front of Sproul Hall and marched to Wells Fargo on Shattuck Avenue and Center Street. Demonstrators were protesting the the pipeline at Standing Rock Indian Reservation and called for the divestment of banks from the pipeline. Five police officers were on location supervising the protest, which remained peaceful.</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2765</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>20180819_Clemson_vigil_FarRight(Against)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>The event is described as a vigil to remember those who were killed and injured after violence erupted at a white nationalist rally in Charlottesville, Virginia. More than 120 people gathered in the Clemson University Carillon Gardens consisting of students, faculty members, and members from the local community. People came from as far as Greenville and Anderson. The vigil began with a recitation of a poem and prayer, and the floor then opened up for people to discuss what had happened and what next steps to take. Last night's vigil was originally set to be held on Bowman Field, but it was moved to the Carillon Gardens due to security concerns. Lifsey says the move was a joint decision between organizers and CUPD. CUPD and SLED were on scene to provide security for the event. The vigil was peaceful, and police did not have to intervene.</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2776</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>20161014_Calgary_Rally_AbortionAccess</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Members of the Queers on Campus student club at the University of Calgary protested in MacHall on Oct. 14 after an anti-LGBTQ activist group set up in front of the Students’ Union Q Centre. A few hours after the CTA set up, Queers on Campus members stood by the table with a rainbow flag. Later, several dozen U of C students stopped to argue with the evangelic group.</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2792</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>20170219_Charlottesville_March_Immigration(For)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>A rally and a march took place at the UVA Rotunda in response to President Donald Trump's controversial executive order from Jan. 27, 2017 titled "Protecting the Nation from Foreign Terrorist Entry into the United States" that included a temporary ban on travel from several countries with majority Muslim populations. Several hundred people convened at the Rotunda bearing signs that welcomed refugees and immigrants. Other signs simply read "RESIST." Charlottesville Vice-Mayor Wes Bellamy spoke to the crowd wearing workout clothes and reasoning that people wearing suits and ties were responsible for causing the trouble and turmoil of contemporary America. After the speakers finished, the march began with cheers in support of the many Muslim citizens in attendance and criticisms against politicians, particularly those currently occupying the White House.</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2800</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>20170406_Claremont_Disruption_Anti-racism</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>A crowd of approximately 300 protesters surrounded the Marian Miner Cook Athenaeum at Claremont McKenna College in an attempt to block conservative political commentator Heather Mac Donald from entering the building and delivering a talk. The protesters, most of whom wore all black, congregated outside Honnold/Mudd Library at 4 p.m. to stage the action. The protesters subsequently marched to the Ath around 4:30 while chanting. When they arrived, the protesters were greeted by around two dozen Campus Safety officers and Claremont police officers, stationed at various locations around the building. Protestors ignored the officers (who did not obstruct them) and the makeshift white fences sectioning off areas of Flamson Plaza, enveloping each of the Ath's entrances with multiple rows of students linking arms. White students were encouraged to stand in front to form a barrier between students of color and the police. The protest continued through the talk. The protesters released an anonymous statement on Facebook the afternoon of the talk accusing Mac Donald of holding anti-black, Islamophobic, and xenophobic views. They also mention fascist views as an issue. Seven students were found responsible for violating college policies.</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2827</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>20170422_Berkeley_Blockade_Labor</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>On UC Berkeley's Cal Day, members of the Undergraduate Workers Union (UWU) blocked Sather Gate to demand higher wages, safer working conditions and rollback tuition. About 40 members of UWU formed a human chain in front of Sather Gate about 12:30 p.m., chanting phrases such as "One, two, three, four, we need you to pay us more! Five, six, seven, eight, or we will retaliate!" and "Our hands, our labor, our terms." One protester climbed the gate to hang a banner reading "Living Wages Now," which was taken down at the end of the demonstration. Beginning about 12:40 p.m., several individuals attempted to go through the chain of protesters, prompting UCPD to intervene. The student workers alleged that the previous night, several of them had been fired from their jobs for organizing and were told that they could not longer enter the premises of certain campus dining halls. Campus spokesperson Adam Ratliff could not comment on the allegations. About 2 p.m., the workers marched to Crossroads Dining Hall, where they forced themselves inside, shouting, "You can't fire all of us" and blocking one of the food lines. UCPD was called to the scene, and Cal Dining staff in Crossroads were directed to stop production. The protesters left Crossroads about 2:30 p.m.</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2842</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>20161010_Middletown_Blockade_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Students from a newly formed student union held a series of protests across campus on the Office of Admission's Open House, as prospective students were visiting campus. The event was held in response to the recent revelations surrounding former Dean Scott Backer's past of sexual misconduct and subsequent firing. First, students attempted to disrupt campus tours by plastering a university building's windows with anti-administration flyers and hanging banners directed at the administration's participation in violence against Indigenous peoples. Protestors created installations informing viewers about indigenous remains in Exley. Protestors also taped fake checks made out to University President Michael Roth with his current salary to an ATM machine. The tour interrupters read from a script that included information about the Backer firing, statistics about sexual assault on campus, and accusations of the administration's trivialization of African American Studies. A tour guide for the university alleged that they were told by their supervisors to avoid the building, but the university denied this. In a second action, students stripped down outside North College to engage in a performance art protest. Positioned in front of chalking on the ground that read "reject administrative gaslighting," various nearly nude students took turns lying down with their eyes on an altar surrounded by candles and flowers in vases. The meaning of the protest was that the University sacrifices victims of sexual assault in the name of its own image and reputation. Students distributed flyers shedding more light on the motivations and emotions behind the protest. In a third action, students filled the area outside Beckham Hall, where University President Michael Roth was scheduled to speak to prospective students, and handed out slips of paper with questions they suggested these prospective students ask Roth during the talk's question and answer section. The questions touched on sexual assault at the university, the firing of Associate Dean Backer, and the fact that Wesleyan does not have a resource center for students of color. After Roth had been introduced, the approximately 45 protesters, most of whom held posters bearing slogans such as, "Roth protects rapists," "Accountability NOW," and "Diversity is more than a number," silently filed into Beckham Hall. Roth left the talk without taking questions, and protestors subsequently took questions from the crowd. The protestors demanded a "Title IX coordinator who is receptive to sexual assault complaints and doesn't actively discourage students from report," accountability structures, support in academic fields that recognize underrepresented histories, and hiring an advanced practice registered nurse to prescribe medication as part of the Counseling and Psychological Services.</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>20180328_Edmonton_SitIn_Tuition</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>After a townhall in which University of Alberta president David Turpin was critiqued about the university's Board of Governors decision to pass budget cuts and increase fees, over 50 protestors followed Turpin from the event as he walked back to his office in the South Academic Building. Once he got to his office, protestors were greeted by two peace officers standing guard outside his door, but students lined the hallway shouting chants like “Not public good,” and “Turpin, serpent.” The protest continued until around 2 p.m. as students knocked on Turpin’s door. Others began taping posters outside the hall and on the portraits of past U of A presidents. At one point, executives from the Students’ Union began giving water bottles to protesters who had been chanting. Once the two peace officers left, students began pressing the doorbell to get Turpin to come out of his office. Students’ Union president Marina Banister met with protesters in the hallway and said it’s important that students keep protesting the Board of Governors’ decision once the day is over. After 2 p.m., protesters said Turpin had managed to leave the building in a police car.</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2904</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>20170813_Albuquerque_Rally_WhiteSupremacyAgainst</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>More than 50 people gathered outside the University of New Mexico bookstore in response to "Unite the Right" rallies organized by white supremacy groups in Charlottesville, VA, and to show support and solidarity for the victims of the violent riots. The event was organized by the Party for Socialism and Liberation and Stop the War Machine. Participants joined in chants of: "Alt-Right that's a lie, you're a nazi in disguise," "Ain't no power like the power of the people 'cause the power of the people don't stop" and "Bash the fasc." The protesters spoke out against neo-naziism, the Alt-Right, hate speech, and the capitalist rhetoric of the Trump administration. They argued that Trump represents a capitalist regime through which a group of elites control and exploit people who are in relative positions of powerlessness, while also using tools like racism to divide the working class. Protesters also criticized the government's response to the violent riots. The University of New Mexico Police Department was present at the protest. Note: Trump was not the headline issue of this protest</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2907</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>20170922_Albuquerque_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>A Black Lives Matter march and rally took place in downtown Albuquerque that drew close to 400 people at its peak. The crowd gathered outside the Cinemark 14 theater then marched west down Central Avenue. The group chanted "Hands Up, Don't Shoot," "Whose streets? Our Streets," and "No Justice, No Peace, No Racist Police." They also carried signs with slogans such as "De-militarize the Police," "#BLM," and "End Police Brutality." The march stopped at a roundabout on Eighth Street, where the group wrapped around a concrete wall and the event organizer, an Albuquerque resident and University of New Mexico graduate, spoke through a megaphone before inviting others to share. University of New Mexico students raised the issue of institutional racism in the educational system and addressed a recent anti-affirmative action bake sale protest event that took place at the University, explaining that sometimes they don't feel safe on campus. Police were present at the protest but didn't interfere with the march. As a precaution, the National Lawyers Guild provided legal observers and advisors to assist participants in case of altercations with police.</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2947</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>20161111_Minneapolis_Blockade_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Thousands attended an anti-Trump protest in Minneapolis. The protest, organized by Socialist Alternative MN and a collection of other groups, began their protest outside of the Humphrey School of Public Affairs on the University of Minnesota campus. The night started with passionate speakers and a crowd that was upset - not only with Donald Trump becoming the U.S. President-Elect - but a host of other issues according to the chants and signs used by the crowd, including women's rights, LGBT rights and police brutality. Eventually, the crowd moved to block the intersection of 3rd St and 19th Ave and continued to Franklin Ave while chanting and holding signs that ranged from, "Love trumps hate" to "Pussy grabs back". The Minneapolis, St. Paul and University of Minnesota police along with the Minnesota State Patrol blocked traffic so the group could move freely through the streets. From about 8-9 p.m. the protesters stayed on the interstate, but eventually exited via Cedar Avenue after the group's organizers encouraged the crowd to move back to the Humphrey School of Public Affairs. The Minneapolis Police Department estimates more than 2,000 people attended the protest.</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2951</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>20170110_Minneapolis_LabourAndWork_InformationDistribution</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Students at the University of Minnesota held a protest in support of a $15 minimum wage. Organizers expressed that they wanted the Minneapolis City Council to listen to protesters' demands and seek to make the minimum wage a ballot measure. The event was organized in partnership with 15 Now and the student organization Socialist Alternative Club. Two hundred people participated in the event, which started with a rally at Coffman Memorial Union at 4 p.m. Speakers called for unity across various backgrounds and the group watched a performance by hip hop artist Paul Wenell Jr. After the initial rally, the crowd moved inside the building before marching to McDonald's in nearby the neighbourhood of Dinkytown. Police closed off the roads at 4th Street SE and 15th Avenue SE, as protesters held high red banners and led chants like "Fifteen now" and "Students united will never be defeated." At McDonald's, the group held a roughly 45-minute rally during which demonstrators took turns speaking on a megaphone, denouncing president-elect Donald Trump and calling for social justice. Organizers also handed out posters in support of the movement, as well as flyers for Students for Revolutionary Socialism. The event ended at 6:30 p.m.</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2952</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>20170112_Minneapolis_Rally_TrumpAgainst</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Over a thousand protesters gathered outside of the University of Minnesota's Humphrey School of Public Affairs to protest President-elect Donald Trump. Socialist Alternative MN co-hosted the event with at least 17 other student and community advocacy organizations. Outside the Humphrey School, protesters chanted "Hey hey, ho ho, Trump has got to go," and "White silence is violence," while holding up signs that read "Build the resistance against Trump" and "Not my president." From the Humphrey School, the group marched off-campus. Police shut down 19th Avenue South to allow protesters to march to Cedar-Riverside. From there, the protest snaked from Cedar Avenue to East Franklin Avenue onto Interstate 94 and was eventually directed off of I-94 back onto Cedar Avenue. Protesters voiced a number of concerns about a Trump presidency, including his plan to deport undocumented immigrants, Muslims and his denial of climate change.</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2962</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>20180314_Durham_Rally_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>The event is described as a gathering of around 30 tenure faculty, union members and some students who met at the Dimond Library last Wednesday, March 14 to support the University of New Hampshire Lecturer's United (UNHLU-AAUP) labor union in its negotiations with university representatives for a new contract. In response to the gathering of supporters outside the library, library administrators called campus police. An email sent to library faculty stated that the UNHPD was called because the group was blocking the entrance and exit to the library. According to UNH Police Chief Paul Dean, the supporters had moved inside by Room 345, the meeting room where negotiations would be held, when the UNHPD arrived. The UNHPD spoke with staff, determined there was no issue and left the area.</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2963</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>20180424_Durham_Blockade_FarRightAgainst</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>The event is described as a barricade by a group of student protesters in front of the Whittemore Center Arena with the intent of blocking spectators from a free speech event on Tuesday hosted by conservative group Turning Point USA at the University of New Hampshire which included political commentator, David Rubin. The event was organized by the Black Student Union and consisted of mostly students of color and allies who came to show their dissatisfaction with the event, rather than one organized group. Audience members continued to interrupt Rubin throughout the event by playing music, shaking noisemakers, and starting chants like "solidarity against hate," "we are not the problem," and "hate speech does incite violence." At one point, two audience members chanted "black lives matter" for several minutes. Rubin initially reacted with jokes and sarcasm, agreeing with the protestors. People of color were reported to have been pushed or touched without their consent at the protest. UNHPD said no arrests or detainments were made during the event.</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2969</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>20180405_Carbondale_March_AntiLawEnforcement</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Southern Illinois University students and community members staged a sit-in after marching from the Communications Building to Anthony Hall in protest of a proposed police academy at the university. Demonstrators occupied the office of SIU Chancellor Carlo Montemagno for nearly 25 hours. Police officers patrolled Anthony Hall and the surrounding buildings while demonstrators occupied the chancellor's office overnight. Anonymous professors donated food and coffee to the protestors. Friday morning demonstrators hung up signs and banners outside of Anthony Hall with messages such as "no cop academy" and names of victims of police brutality written on cardstock. Shortly after Montemagno greeted protesters and complimented them on their professionalism during the demonstrations. The chancellor expressed his desire to take pictures and tweet about how proud he is of them. A student protester said they would take a picture with the chancellor under the condition he say on camera that there will not be a police academy at SIU. Montemagno denied the request and said the decision ultimately would rest with the faculty of the proposed school. Montemagno promised demonstrators that when issues on the proposed police academy are discussed or debated, there will be a seat for the students to provide their perspective. The demonstrators vacated Anthony Hall early Friday afternoon.</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2985</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>20120202_Montreal_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Between 100-300 protesters, a loosely organized contingent of anarchists, socialists and anti-capitalists, met in Concordia’s Hall Building and marched through downtown Montreal and into the hallways, libraries and cafeterias of Concordia, McGill, CEGEP Vieux-Montreal, and the Université du Québec à Montréal to protest against proposed tuition hikes. The event was organized by students from four different campuses—Cégep du Vieux-Montréal, l’Université du Québec à Montréal (UQAM), Concordia University, and McGill University. Members of the Concordia and McGill Mob Squads also helped to organize the event. The protesters began marching at 11:00 a.m. at Concordia and moved towards McGill to gather more students. Professor Jim Nicell, Associate Vice-Principal (University Services), sent out an email informing McGill staff and students that peaceful protesters were approaching campus. At McGill, the protesters walked up McTavish Street and marched through McLennan Library, shouting through megaphones and chanting slogans in both English and French. They then entered the SSMU building and approached room 202 where Career Planning Service (CaPS) was hosting a Public Service Jobs Fair. They pushed past the registration and entered the fair. Two girls wearing masks were carrying garbage bins. When they approached the table facilitated by Correctional Services of Canada, one of the girls reportedly swept everything off the table, and together they emptied the contents of their garbage bins. The crowd of demonstrators left shortly after and continued to march outside the James Administration building. A banner was also dropped from the top of the Arts building reading, “même menace, même lutte” ("same threat, same struggle"). After leaving the McGill campus, the demonstration moved to Cégep du Vieux-Montréal where they gathered more students and spontaneously disrupted a conference on mining development in the north of Québec. Escorted by police, the march ended at UQAM, where another banner was hung. Throughout the march, the student protesters chanted and yelled in both English and French in an effort to put their language quarrels aside and stand in solidarity in the fight against tuition hikes. They held flyers, on which the slogan symbolically alternated between French and English. When marching through the McGill campus, protesters also honoured those affected by last year’s police brutality by chanting. Protesters yelled “Fuck the police!” and, “Don’t fuck with our education!,” causing others in the anti-tuition hike movement to criticize the aggressiveness of this groups' tactics.</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2986</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>20120214_Montreal-UQAM_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Following a vote for an unlimited strike by student associations at l’Université du Québec à Montréal (UQAM), student protesters staged what they called a strike-commencing march in the unlimited general student strike against the Quebec government's plans to increase university tuition fees by $1,625 over five years. About 300 demonstrators – many of whom were students from UQAM – met at Café Campus on Prince Arthur for a General Assembly. Protesters then proceeded to march through UQAM’s Complexe des sciences Pierre-Dansereau, located just north of the Place-des-Arts metro station, then marched up McGill College and congregated outside of the James Administration building. Demonstrators chanted, “UQAM, McGill, same struggle.” The group entered the McConnell Engineering building and marched through the building until exiting by the Schulich Library of Science and Engineering. They marched off campus at 4:40 p.m. No police officers or vehicles were seen on campus. Eleven police vehicles were seen trailing the demonstration along Sherbrooke and McGill-College. In March 2011, the Quebec government announced a tuition increase of a total of $1,625 over the next five years. The increases in tuition will begin as of September 2012, at the rate of $325 per year until 2017. A sociology student at UQAM explained that they all voted for the strike against tuition hikes and started the strike today, so they were doing what they call a strike-commencing march or demonstration. They wanted to show people that they're on strike and specifically rally McGill students in the process.</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>3047</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>20180426_Eugene_March_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Protesters gathered for a rally at the University of Oregon's EMU amphitheater for the 40th annual Take Back the Night march which bring awareness to sexual violence. The TBTN rally featured speakers from UO's Muxeres. During the TBTN march, protesters headed past the Pioneer Cemetery toward 18th Avenue then turns a corner on 18th Avenue and heads north on Alder Street. Police helped to escort the marchers along their route. The marcher then headed west on 11th Avenue toward the Atrium in downtown Eugene. The TBTN marchers chant slogans while holding signs. The marchers momentarily stop at an intersection in downtown Eugene before ending at the Atrium government building in down town Eugene as certain participants head inside for a "Speak Out."</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>3066</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>20120315_Montreal-Concordia-CSU_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>More than 200 Concordia University students participated in an event to kick-off the Concordia Student Union's week-long strike against tuition hikes. Students gathered early this morning in front of the Hall building, chanting, dancing and peacefully blocking the front entrance of the building with tape and balloons. At 11.30 a.m., about 100 students started marching in circles around the downtown campus, progressively joined by more protesters along the way. After a couple of circles around the Hall building, the protesters walked on Ste-Catherine Street, escorted by police cars and attracting drivers’ and pedestrians’ attention with vuvuzelas, accompanied by a giant bookworm made out of a dozen students hiding under sewed sheets. The protesters then went up McGill College Avenue for a quick stop in front of Quebec Premier Jean Charest’s office, before heading back towards Concordia. When the march ended around 1 p.m., students remained in front of the Hall building, enjoying free food and partially blocking traffic by chanting and dancing to the sound of drums.</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>3113</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>20180214_Asheville_Disruption_LGB+(For)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>The event can be described as a counter protest by UNC Ashville students who opposed the Bible Believer's demonstration on campus. Students holding a rainbow flag in front of Ramsey Library draw attention to the area a junior computer science student, stood in front of the demonstrators with a rainbow painted face as well as a rainbow flag as a cape.While some students opted to protest the presence of the demonstrators with loud music from the likes of Lady Gaga, Kesha and Tegan and Sara, other students engaged in conversation with the demonstrators. . Campus police were present throughout the entire demonstration, their role was simply to observe. Assistant Vice Chancellor for Public Safety Eric Boyce stepped in when Edgar began calling the females of the university whores, claiming it is his right to do so as it is in the Bible. As the demonstration went into its second hour, a group of students began singing in unison, "My God doesn't judge, my God teaches love." Throughout the demonstration, students took to making their own signs to counteract those brought by the Bible Believers. One sign, made by sophomore English student read "I'm Catholic and I'm OK with it," with a drawing of a rainbow. Though campus police escorted the group to their car when they decided to leave, several students stayed in front of the library, talking about those who had just left.</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>3114</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>20180214_Asheville_Demonstration_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>A demonstration organized by four people holding up signs condemning sinners at the University of North Carolina Asheville. The demonstration was attended by Edgar Orea, his wife Dianna Orea, their daughter and another woman named Melissa Thomas. They proclaim themselves as being members of a group called Bible Believers. The group came to the Ramsey library to preach the gospel to UNC-Asheville students. The signs the group held proclaimed, "Jesus said go and sin no more," and that students should "prepare to meet thy God." The largest sign boasted a list of sinners - including fornicators, homosexuals, drunks and con artists - the group believes will burn in hell. Their preaching focused mostly on sin and salvation while students yelled back their own protests. "Sins lead to destruction, Christ leads to life," Dianna shouted to passerbys. Though initially Dianna seemed to be taking the lead, Edgar soon found his voice when he began to ring his cowbell. While some students such as Zantello opted to protest the presence of the demonstrators with loud music from the likes of Lady Gaga, Kesha and Tegan and Sara, other students engaged in conversation with the demonstrators. campus police were present throughout the entire demonstration, their role was simply to observe, Assistant Vice Chancellor for Public Safety Eric Boyce stepping in when Edgar began calling the females of the university whores, claiming it is his right to do so as it is in the Bible. As the demonstration went into its second hour, a group of students began singing in unison, "My God doesn't judge, my God teaches love." Though campus police escorted the group to their car when they decided to leave, several students stayed in front of the library, talking about those who had just left.</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>3129</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>20120322_Montreal_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Quebec students staged a province-wide day of action on March 22 that included as many as 300,000 people marching peacefully through downtown Montreal, paralyzing upwards of 50 city blocks for several hours throughout the afternoon. This day of action was part of the ongoing Quebec student strike in protest of the Liberal provincial government's planned tuition increases. The protest came two days after the Quebec government released its annual budget, confirming that tuition is set to increase by $1,625 over five years starting in September. The Coalition large de l’Association pour une solidarite syndicale etudiante (CLASSE) was one of the main organizers of the event, which included student protesters from universities across Quebec. Other participants included professors, public school students, labour unions, Quebec MPs and opposition party representatives, and Quebec families. Over 500 students from Concordia University and another 500 from McGill University joined the march. The Montreal Gazette reported that the Société de transport de Montréal (STM) rerouted trains in order to accommodate an additional 100,000 commuters. The event officially began at Place du Canada, where buses from various universities and CEGEPs across Quebec—including some Ontario students—had unloaded thousands more to take part in the demonstration. Four buses holding about 600 students came from the CEGEP de Jonquière, 500 km from Montreal. From Place du Canada, the approximate length of the route was five kilometres, with protesters marching down both Sherbrooke and Ste-Catherine Streets to Jacques-Cartier Place in the Old Port. Protesters held signs denouncing Premier Jean Charest’s Liberal government, the leadership of Education Minister Line Beauchamp, and the government's refusal to prioritize accessible education. As the students marched, red banners and blankets waved from windows in support of the marching students. The protest was extremely peaceful and the Service de police de la Ville de Montréal (SPVM) reported no major incidents during or after the march. Police presence was very light in comparison with other demonstrations. The march finished in Place Jacques-Cartier in the Old Port and featured speeches by Heloise Moysan Lapointe, member of the Profs Contre la Hausse collective, and Gabriel Nadeau-Dubois, spokesperson for CLASSE. Nadeau-Dubois told students to return to their schools and to keep the student movement going. The event ended around 5 p.m. and by 6 p.m., most of the protesters had dispersed. This day of action was the largest of the "twenty-twos," monthly protests on the 22nd of each month throughout the Quebec student strike, and was one of the largest protests in the history of Quebec.</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Monitor/Present, Cooperate/Coordinate</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>20181120_Jacksonville_Rally_WhiteSupremacyFor</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>In support of a suspended University of North Florida student, white nationalists gathered on campus during his hearing. Earlier in the week the student posted a photo of himself to to the comment section of a Spinnaker Facebook story featuring himself holding a gun. The photo was accompanied with the comment, "Fuck the BLM BS!!! I am WHITE and PROUD, and these queer balls have yet to confront me on campus." Parker is the former Grand Dragon of the KKK and a current member of the National Socialist Movement, a neo-nazi organization. He identifies as a nazi. Protesters and counter protesters began to gather around Hicks Hall and Alumni hall around 7:45 a.m. Around 7:50 a.m., officers shut down all southbound lanes of Kernan Boulevard._x000D_
+Shortly after the arrival of the counter-protesters, a small group of demonstrators arrived at UNF in support of Ken Parker. Among them were members of the National Socialist Movement , Ku Klux Klan, and League of the South, said Burt Colucci, regional director of NSM. Parker's fiance, Crystal Moore, was in also in attendance, holding a Confederate battle flag. The protesters claimed that the university was suspending Parker on account of his own personal beliefs. "Parker is the former Grand Dragon of the KKK and a current member of the National Socialist Movement, a neo-nazi organization. He identifies as a nazi." The two groups remained separated from each other for the duration of the event. Peace was maintained by the University Police Department alongside Jacksonville Sheriff's Office. Demonstrations remained civil and there was no outbreak of violence. Taken from article: 18188</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>3150</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>20181120_Jacksonville_WhiteSupremacyAgainst</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Counter protesters gathered at 8 a.m. outside of Hicks Hall and marched across the street to Alumni Hall at 9 a.m. The group was comprised of members of Students for a Democratic Society , Students for Justice in Palestine, and other on-and off-campus far-left activist groups. Most held signs and banners with phrases such as "nazi punks f-k off" and "punch a nazi." The group was counter-protesting a demonstration of white supremacist who came to campus to support Ken Parker - a student suspended for racism. Members of the counter-protest group claimed the failure of the University of North Florida administration and student code of conduct to quell racism on campus has led to the current situation. The two groups remained separated from each other for the duration of the event. Peace was maintained by the University Police Department alongside Jacksonville Sheriff's Office. Demonstrations remained civil and there was no outbreak of violence.</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>3163</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>20120308_Montreal_March_Feminism</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>A march in Montreal for International Women's Day left Concordia University's Simone de Beauvoir Institute at 2:00 p.m. The march later merged with another group of protesters at 6 p.m. at Norman Bethune Square near Concordia's downtown Sir George Williams campus. From there, hundreds of protesters marched down Ste. Catherine St. W. The International Women’s Association led the march followed by students protesting the provincial government's tuition fee increases, Israeli Apartheid Week demonstrators, and a Filipino women’s group protesting female workers’ rights. The protest was surrounded at all times by riot police on horseback, accompanied by police in cars, on bicycles and on foot. A helicopter hung overhead as the protesters made their way to Philips Square at Union St. and Ste. The protesters continued to block traffic while speakers from each group cheered their reasons for participating in the march.</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>3207</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>20161104_Chicago_March_IndigenousIssues</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Demonstrators marched across campus in support of the Standing Rock Sioux Tribe's fight to halt construction of the Dakota Access Pipeline near Bismarck, North Dakota. The activists briefly occupied the lobby of the Citibank on South Ellis Avenue, playing American Indian electronic music over a loudspeaker and chanting slogans including "Who shuts shit down? We shut shit down." The event was one of several at universities across Chicago on Friday. Activists at the University of Illinois at Chicago, Loyola, DePaul, and Northwestern also held campus demonstrations. The groups then met downtown for a rally outside the Chicago district office of the Army Corps of Engineers on West Jackson Boulevard and South La Salle Street. At 3 p.m., protesters with signs reading "Water is life" and "You can't drink oil", as well as a large banner with the words "DAPL profits off native death" in spray-paint gathered in the quad. The demonstrators numbered around 30, including several members of the Revolutionary Communist Party, a group that has participated in several rallies on campus recently and that had one of its members arrested by the University of Chicago Police Department for trespassing in Baker dining hall. One of the organizers spoke briefly about the purpose of the event over the megaphone. The demonstrators marched through the arch of Levi Hall to gather in front of the Citibank branch on South Ellis Avenue before moving inside. Filling the lobby and much of the bank itself, the protesters played music and chanted as bank employees looked on. After about 10 minutes, the demonstrators moved back outside, the music attracting the attention of bystanders, including a high school tour group. From Citibank, the protesters marched north, with multiple UCPD and Chicago Police Department vehicles following behind. The demonstrators continued past the Reg and walked through the quad before moving back toward the intersection of 55th Street and South University Avenue to catch a bus heading downtown to the main rally. A CPD squad-car turned on its sirens and pulled up alongside the demonstrators after one of the group pulled the metal cart holding the megaphone speaker into the road, but turned them back off soon after.</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>3240</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>20171109_Lynchburg_Occupation_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>More than 50 Virginia University of Lynchburg students protested on campus, demanding the removal of President Kathy Franklin. Students held signs and chanted, calling for Franklin's immediate resignation. Other chants included "I need clean carpet" and "get rid of the mold," which many students said was an issue. Some students even complained of mushrooms growing in their rooms on campus. Students protested for more than an hour, demanding to hear from their president. At one point, they sat outside her office in Humble Hall and slid protest signs under her door as she remained inside. As Franklin was not present at the time, staff members met with students in the cafeteria. Upset at Franklin for not meeting with them, many students left, though a small group discussed their grievances with staff members. During the height of the protest, at least six Lynchburg Police Department officers were on campus. Six students gathered with four staff members, huddled around a table in the cafeteria where Jason Randoo, director of institutional management at VUL, took down a list of student grievances.</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>3260</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>20170505_ Boulder_Rally_Environmental</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>A rally by Fossil Free CU started at the UMC Fountains at the University of Colorado Boulder. The event gathered about 30 students and community members who sang, unfurled banners and talked about being threatened with arrest for their week-long occupation of the chancellor's office. Members carried fake oil barrels during the protest.</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>3278</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>20180314_LasVegas_March_GunControl</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>The event is described to be a walkout consisting of a rally and march component. The event was part of the national gun reform campaign known as the ENOUGH walkout. The protest began with UNLV student activists taking to the free speech zone to rally for gun reform. During the event, students marched from the free speech zone to the alumni amphitheater and heard local politicians, student leaders and faculty members speak on the matter. Notable individuals present included CSUN Student Body President Christopher Roys, UNLV Black Lives Matter President Micajah Daniels and Executive Director of Battleborn Progress Annette Magnus. Along with encouraging students and campus community members to take part in civic engagement going forward, many of the speakers at the event encouraged students to vote. Specifically, they encouraged students to vote against people who oppose gun reform. The march rallied upwards of 150 participants and garnered support from many who could not attend, including students and public figures like Sen. Catherine Cortez Masto. The event was not school sanctioned, yet due to the size of the crowd and a few threats of counter protesters, UNLV police services were present. A counter protestor did meet with the gun control activists and made several statements supporting the current gun legislation and utilizing the second amendment rights to do so.</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>3282</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>20171109_Laramie_FarRightAgainst</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>This is a one-day on-campus protest at the University of Wyoming against a presentation by Dennis Prager. The exact form of the protest is unclear. The protesters stood outside the education auditorium where Dennis Prager spoke.</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>3335</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>20120308_Montreal_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Student protesters held an unplanned protest march and vigil, during which they marched from Concordia University to Berri-UQAM Metro station and into the east end of the city. The students were demonstrating against tuition hikes as well as for International Women’s Day, anti-police brutality, and Israeli Apartheid Week. Protesters marched under the Jacques Cartier Bridge and went to the Hydro-Quebec building. A pile of roses were laid at the feet of police lined up at the entrance of the building before the group headed back toward downtown. A student explained the coalition between groups when she said, “We’re here today fighting tuition [hikes] and gathering for International Women’s Day [...] We combined the two together to support people that aren’t able to go to university.” Protesters reconvened at Concordia University outside of Norman Bethune Square around 6:00 p.m. before heading back to Berri Square.</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>3347</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>20161112_Boulder_March</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>About 100 protesters calling for unity in the wake of the US Election. They gathered in front of the Boulder County Courthouse on Pearl Street before marching up Broadway to the University of Colorado campus and back. At one point during the march, the group blocked northbound and southbound Broadway, but there were no major incidents or arrests. The group eventually returned to the courthouse and left at about 4 p.m. The blockade was reported by a police officer, who said that they were assisting with traffic but didn't interact much with the crowd. While it could be assumed that this march was against Doanld Trump, that is not clear from the article.</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>3364</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>20120320_Montreal-McGill-PGSS_Picketing_Tuition</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Graduate students formed picket lines outside McGill University's Wilson Hall as part of the Post Graduate Students’ Society's three-day strike against proposed tuition hikes. There were also reports of at least two Université du Québec à Montréal (UQAM) students participating in the picket lines. Four Nursing classes and three Social Work classes were moved from their original locations in Wilson Hall to different locations on campus due to student picket lines around the building. The Social Work Student Association (SWSA) and graduate students from McGill’s School of Nursing (who are members of the Post Graduate Students’ Society) share the building, so confusion arose regarding what tactics which representative body voted to support. However, SWSA mobilization committee was not present on the picket lines. Tensions arose almost immediately between students and staff arriving at Wilson Hall as people attempted to gain entry to the building, while picketing students tired to hold their lines. One Social Work student pushed his way into the building through the picket line while student picketers attempted to block his way. People within the building held up picketers’ arms to allow gaps for people to get through the lines. Police visited the picket line outside Wilson Hall around 8:00 a.m. Associate Dean of Student Affairs and Faculty of Arts Disciplinary Officer André Costopoulos also visited the picket line to talk to students. The Associate Vice-Principal (University Services) Jim Nicell also sent an email to all McGill staff and students in response to the picket lines. At 10 a.m., nearly 30 students and staff who had attempted to enter the building stood or sat in groups around James Square.</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>20120326_Montreal-Concordia-Hall-GUSS_Picketing_Tuition</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Geography students at Concordia University formed a picket line outside of a GEOG 318 class on the fourth floor of the Hall Building. The students used hard-picketing tactics by blocking the entrance to their classroom, letting students into the room, but not professors. Those holding the line would not provide their names in light of the firm stance taken by the university against students who picket or block access to classrooms. Protesters were met by security who showed up to make sure “there would be no incident.” Several students felt intimidated by the guards, who were also filming the picketers. The picketing action facilitated the low attendance that lead to the cancellation of class by lecturer Julie Podmore, after consultation with the Concordia security guards who faced protesters. The Geography Undergraduate Student Association is on strike to protest against the province's tuition hikes. This picketing action was part of their ongoing strike.</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>3398</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>20120326_Montreal-McGill_Disruption_Tuition</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Joel Pedneault, SSMU VP External, disrupted a strikebreaking class for UQAM that was held at McGill University. A UQAM professor held his class in room 348 of McGill's Frank Dawson Adams building as a means to work around the strike currently occurring on the UQAM campus in protest of the government's planned tuition increases. Pedneault had been invited by the UQAM Science Students' Association to observe and potentially mediate a class discussion. Pedneault explained, "There was no picket line, just people explaining that they're on strike and that they should respect the strike," he said. "It was really peaceful, just a discussion, people were discussing the merits of the student strike." However, this action prevented the UQAM professor from beginning lecture and after 45 minutes, the professor cancelled class. Around this time, a McGill security agent showed up. In response to this event, Associate Dean (Student Affairs) Andre Costopoulos sent an email to Pedneault stating that "I have reasonable grounds to believe that your continued presence on campus is detrimental to good order." Pedneault was then banned from campus for five days under Article 21(a) of the Code of Student Conduct and Disciplinary Procedures. Speaking broadly about the University's response to actions like Pedneault's, Costopoulos explained that instances such as students physically blocking access to classrooms or students who continue to pursue discussion on political topics with disregard to a professor's attempts to begin lecture, could fall under breaches of the code if allegations were submitted.</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>20171006_Blacksburg_Demonstration_WhiteSupremacyAgainst</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>The Facebook posts on white supremacy of a Virginia Tech graduate student have riled fellow students, spurred public protests, and increased scrutiny on the limits of free speech on the school's campus. A second antifascist demonstration was held on campus, this time outside a classroom in which Neuhoff was teaching. In photo and video accounts of the protest, both plainclothes and uniformed Virginia Tech Police officers are seen following behind as Neuhoff entered a classroom while students stood silently in the hallway, holding pieces of paper with printouts of the instructor's social media posts and other anti-fascist messages on them.</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>3450</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>20120422_Montreal_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>An estimated 200,000 to 250,000 people were in attendance at the April Day of Action march. Since February, a Day of Action has been held on or around the 22 of every month to protest  against the provincial government’s intended tuition hike. Protesters waved signs and flags, while wearing flamboyant costumes. Many students and citizens bore the red felt square on their jackets and coats, which has come to represent the anti-tuition hike movement. The march began at 2 p.m. at the Place des Festivals and ended at Mount Royal Park where speeches were made. In addition to protesting tuition increases, the purpose of the march was also to draw attention to the importance of environmental issues and show support for “green” initiatives and attitudes. The atmosphere was cheerful and despite the crowds, the march was very peaceful. Police were on the scene to ensure the event remained safe, but did not report any major incidents.</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>3451</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>20170329_Cambridge_Blockade_Environmental</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Around 20 members of Divest Harvard blockaded entrances to University Hall in protest of Harvard's decision not to divest from the coal industry. Several Harvard University Police Department officers gathered near University Hall.</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>3452</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>20170307_Cambridge_Rally_Immigration(For)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Hundreds of Harvard affiliates and local residents rallied in Harvard Square to condemn President Donald Trump's immigration order, and call on the University to do more. The executive order suspends visa applications from six predominantly Muslim countries for 90 days and bars all refugees from entering the United States for 120 days. At the rally, organized by the Harvard Islamic Society, international and Muslim students drew cheers from the crowd as they denounced the ban as Islamophobic and unconstitutional. Cambridge police officers blocked off streets as protesters marched up Massachusetts Ave. to Cambridge Common, chanting, "No walls, no deportation, no Muslim registration!" As students and affiliates took the streets, administrators continued their efforts to respond to the changes in federal policy. University President Drew G. Faust addressed the updated order at the Faculty's monthly meeting.</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>3462</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>20120411_Montreal_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Hundreds of students marched through downtown Montreal in waves throughout the day in protest of tuition increases slated to begin in September and to voice their dissatisfaction with a government unwilling to negotiate. Independent student group Rouge Illimitée organized the day of action, dubbed the Manifestation Générale Illimitée (MGI), that involved twelve planned marches, leaving every hour from Square Victoria. According to the demonstration’s Facebook page, the day was designed to “turn the downtown core into a Protest Playground.” About two dozen students participated in the first march that left at 7:30 a.m. and headed north from Square Victoria before looping east around Place du Canada. The second march, a group that had grown to roughly thirty people, left an hour later and headed in the opposite direction. Marches later in the afternoon swelled to well over one thousand. A temporary staging point was set up at Square Victoria. A tent was pitched, with protesters printing on t-shirts and making signs. A number of live performances were held in the Square throughout the day. Gabriel Nadeau-Dubois, spokesperson for CLASSE, a temporary coalition of striking student associations formed under the Association pour un solidarité syndicale étudiante (ASSÉ), spoke to the the purpose of the day of actions, explaining that “The idea was to do something original, to organize multiple marches throughout the day to put the most pressure possible” on the provincial government.</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>20120412_Montreal-UdeM_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Around 300 protesters participated in a demonstration organized by Université de Montréal students in response to the school’s provisional injunction against the hard picketing of classes. The protesters gained access to the Hall d’Honneur of the UdeM campus and demanded entry inside the administrative wing of the building by pounding on the door. After campus security left the building, protesters attempted to break the door open with a metal pole used as an improvised battering ram. After the failed attempt, they marched toward Quebec Minister of Finance Raymond Bachand’s electoral offices on Côte-des-Neiges. As riot police gathered outside, a group of students triggered the fire alarm to Bachand’s building. At that point, the demonstration was declared illegal by the Service de police de la Ville de Montréal.</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Monitor/Present, "Breaking the Rules"</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>20171008_Princeton_Demonstration_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>The event is described as a Christian protest by five men unaffiliated with Princeton University. Protestors set up outside of Princeton's Ivy Club to recognize Sin Awareness Day. Signs were made, some read "Evolution is a lie" and "Atheism is a temporary condition". The Christian protesters wielding megaphones and signs condemning evolution and sin. After setting up for the gathering, one man stood on a small platform and shouted at students passing by using a loudspeaker. Individual members of the group approached passing students to question their "preparation for Judgement Day," as well as to discuss God's omniscience. Throughout the night, vehicles from both Public Safety and Princeton Police appeared on the scene.</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>3590</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>20170819_Pullman_March_WhiteSupremacyAgainst</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Roughly 200 marchers made up of Washington State University students, faculty, staff and Pullman community members formed a line winding down the Stadium Way sidewalk on Saturday, while nearby Pullman police stood guard. The scores of participants chanted, "No Nazi. No KKK. No Fascist USA" in their demonstration against white supremacy, and discrimination on campus and across the country. Protesters also said they want greater action toward a more inclusive and welcoming environment for minority students. The enthusiastic but peaceful demonstration started at Beasley Coliseum, moved through Terrell Mall, then circled back towards Stadium Way, ending next to Mooberry Track. Other chants at the march included, "hey hey, ho ho, hate on campus has got to go," "white silence is white violence," and "wake up, Kirk," in reference to WSU President Kirk Schulz. Similar marches were held on Saturday in cities around the country, such as Boston and New Orleans, in response to the "Unite the Right" protest in Charlottesville, Virginia, that broke out in violence, leaving one woman dead and many injured.</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>3605</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>20170912_Toronto_Rally_Abortion(Against)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>The first event in this article is a protest being held by University of Toronto Students for Life (UTSFL) held a demonstration at the University of Toronto Students’ Union (UTSU)’s Street Fest on the St. George campus which began at approximately 11 AM. UTSFL members were seen holding large signs that appeared to depict aborted fetuses. They also handed out pamphlets to students. Approximately six Toronto Police Service officers were present at the protest, creating a barrier around members from UTSFL and the counter-protesters with their bicycles.</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>20170912_Toronto_Rally_AbortionAccess</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>The second event mentioned in this article is a counter-protest to the original UTSFL protest, in which members of Silence is Violence (SIV) and others stood in front of the anti-abortion protesters with signs and a banner of their own, which read "UofT Feminist Strong." This counter-protest came together last minute in response to the first protest's presence. Approximately six Toronto Police Service officers were present at the protest, creating a barrier around members from UTSFL and the counter-protesters with their bicycles.</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>3644</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>20170827_Reno_March_WhiteSupremacyAgainst</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Members of the university and Reno community gathered outside the Joe Crowley Student Union for a protest organized by Black Lives Matter in response to the appearance of a University of Nevada, Reno, student at a white supremacist rally on the University of Virginia campus. Around 450 people participated. After the speakers finished, a participant performed an old slave hymn titled "Motherless Child." At the protest, people in the audience cheered and clapped as speakers called for the university to take a stronger stance against white supremacy and to protect its minority students. A speaker suggested creating a task force and a protocol to help document hate crimes.</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>3706</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>20120522_Montreal_March-Day_Tuition</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>On the 100th day of the Quebec student strike, tens of thousands of people took to the streets of Montreal for a massive demonstration in protest of raising tuition fees and Bill 78, the controversial new law recently imposed by the Charest government. Starting around 2 p.m. students and non-students assembled at Place des Arts where the protest kicked off with a press conference and passionate speeches from student leaders. The crowd left Place des Arts around 2:45 p.m. and moved slowly north on Jeanne-Mance St. The new law indicates that all demonstrations must announce their route and have it approved by the police eight hours in advance. The Fédérations des étudiants universitaire et collegiale du Québec (FEUQ and FECQ) complied and shared the route with police. However, upon reaching the first intersection, CLASSE leader Gabriel Nadeau-Dubois led several thousand protesters West along Sherbrooke St. in stark defiance of the eastwardly intentions. The Coalition large de l’Association pour une solidarité syndicale étudiante (CLASSE) had announced the day before that it would refuse to comply with Bill 78. For this reason, the event is now being described as the biggest act of civil disobedience in Canadian history. Another group followed the planned route and a third diverged completely from the other two protests. With estimates ranging from 250,000 to half a million people, a sea of red stalled traffic for hours as the different demonstrations made their way through the downtown core. The Service de police de la Ville de Montréal scrambled to keep traffic moving. The crowd remained entirely peaceful throughout the afternoon and was joined by young families, seniors, and students. After approximately four hours of marching, the protest concluded at Lafontaine Park, following speeches by various student groups. While the Service de police de la Ville de Montréal (SPVM) reported no arrests, injuries, or acts of mischief. However, Montreal Police declared the third protest illegal at approximately 4:45 p.m. because three windows had been smashed.</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>"Breaking the Rules", Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>20161130_Cambridge_March_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Protesters gathered in the rain outside Harvard's Institute of Politics in the evening and a crowd of roughly 200 then marched down John F. Kennedy and Mount Auburn Streets, which Cambridge police kept closed for the duration of the demonstration. With chants ranging from "Not my president" to "No Trump, no KKK," protesters criticized Trump's rhetoric, which they said has emboldened white nationalists throughout the country.</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>3769</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>20171016_Statesboro_Rally_Otherissue</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Georgia Southern University students gathered in Sweetheart Circle Monday afternoon to protest the GS head football coach, Tyson Summers, blaming him for the poor performance of the football team. Word of the protest spread from Sunday night into Monday afternoon after online posts from Barstool Southern and Old Row Southern, both popular student-oriented social media accounts. But when the time for the protest came, there were roughly 20 students who showed up. Those who did show up, signs in hand and full of gusto, met in the middle of Sweetheart Circle around 4 p.m. The afflicted voiced their concerns on the walkways as passing cars honked in solidarity or frustration. From the numerous police cruisers patrolling the area, it seemed that they too were privy to the protests prior to their onset.After a short time at the popular lovers lane, the protesters moved to the Russell Union pavilion where they accosted students to join their plight. Much of the student reaction seemed to be supportive of the cause or that of amusement and indifference. The administrators of the Russell Union, however, were not amused. After about 20 minutes of peaceful protests at the location, the students were asked to leave by a faculty member. Protesting on the schools campus is only allowed on the pedestrian walkways or in Sweetheart Circle. Shortly after their unceremonious dismissal, the group of students parted ways. Before they left, they made a promise: They'll be back every Monday until GS wins a game.</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>3794</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>20171010_Madison_Demonstration_GunControl</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Outside a presentation by conservative commentator Katie Pavlich at the University of Wisconsin-Madison, a couple dozen student protesters shouted the slogan "Cocks Not Glocks," passed out plastic dildos to passers-by and criticized a bill in the state Legislature that would eliminate the state's gun-free school zone law. Students protested Pavlich's talk, specifically her rhetoric that women would not be assaulted if they carry firearms. The protesters were making a comparison between laws and policies barring the display of obscene materials in public, and being able to carry a firearm in public. As controversy over free speech on campus flares at one university after another, UW officials were on alert for what Pavlich's appearance might bring, including assigning a couple of extra officers, said UW-Madison Police spokesman Marc Lovicott. "We are pleased that tonight's lecture and demonstration were peaceful and allowed for the expression of a wide range of viewpoints," UW-Madison spokeswoman Meredith McGlone said in a statement.</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>3805</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>20170405_Bloomington_March_ImmigrationFor</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>A group of about 50 supporters and members of Students Against State Violence marched down Indiana Avenue to take a letter of demands to the provost's office and demand that Indiana University become a sanctuary campus. Some of the students shouted along with the group's leaders. Others, many wearing backpacks and carrying yoga mats or bicylces, appeared to have just been tagging along after class. Several leaders of SASV, including IU senior Jess Mann, read from a scripted letter in the lobby of Provost Lauren Robel's office. The letter claimed IU has not taken enough concrete action to increase diversity on campus. Some of the group's demands included increased hiring of faculty and staff of color, higher enrollment rates of minority populations and Pell Grant recipients, and the addition of a social justice component to IU's general education requirements.</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>3839</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>20171213_SantaRosa_Rally_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Cry to God, a group focused on informing colleges about the wrath of God, performed a demonstration in Bertollini quad on the Santa Rosa Junior College campus. Of the four demonstrators, two consistently targeted individual students to yell profanities at in an attempt to start a discussion.</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>3865</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>20171129_StCharles_Rally_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>President Donald Trump traveled to Missouri to whip up support for the Republican tax plan working its way through Congress - and in the process put himself squarely into the state's heated 2018 U.S. Senate race. In a speech to about 1,000 invited supporters at the St. Charles Convention Center, Trump hammered at the message that the Republican tax plan is the best way to offer relief to the American people. More than 100 protesters began gathering outside the center hours before the scheduled speech, but police had blocked off the streets close to the building. Police officers, some in riot gear, were patrolling. Some protesters were chanting "Kill that bill!" referring to the tax overhaul measure; others held signs calling Trump a "liar." Critics point out that the Republican tax plan gives permanent tax benefits to businesses and wealthy taxpayers, while the tax cuts for middle and lower incomes will expire within a few years. The plan also has drawn fire for proposing to take away current tax exemptions on student loan interest, graduate student tuition benefits, family major medical expenses, state and local income tax bills and other areas that would hit middle- and lower-class taxpayers.</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>3920</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>20180426_SanLuisObispo_Demonstration_FarRight(Against)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Fake News Panel, hosted by Cal Poly College Republicans and Cal Poly's Turning Point USA chapter, had relatively few protesters and extensive security precautions by the university. The panel, which featured controversial right-wing political commentator Milo Yiannopoulos drew about 25 protesters. English senior James Copp held a "Fuck White Supremacy" sign opposite of security and the event attendees while Psychology senior Bria Brickman sat next to the barrier with a sign that read "Free Speech ? Hate Speech."</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>20170830_Oxford_Rally_WhiteSupremacy(Against)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Hundreds of Miami University students and community members gathered for a rally against white supremacy. Students and community members began by gathering into the area around the Sundial. The crowd grew bigger. People began holding up their signs, and others took pictures. It was student De'Vante Montgomery's idea to organize the Rally Against White Supremacy. He was inspired to put on the rally by hearing his friends called the n-word for no reason, being afraid of being the only black kid in a classroom and the events play out in Charlottesville. The event was shared through Facebook, and over 1,000 people said they were interested. No one expected that many, but around 300 students, faculty and Oxford locals showed up to hear the speakers and march in support. The police lights shone along the rally's march route. Police presence at the event was described as large. The march made its way around campus before returning to the Sundial. The Collective - an organization that brings together Miami University students and Oxford community organizations to combat sexual assault and white supremacy, held a rally against white supremacy on Aug. 30.</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>20171010_Philadelphia_Disruption_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>The Stadium Stompers held a theatrical demonstration called "Meet your Board of Trustees" outside of the Board of Trustees meeting in front of Sullivan Hall at Temple University. The organization - made up of students, faculty and community residents who oppose the proposed on-campus football stadium -aimed to tell students and faculty about the trustees' alleged economic interests. Members held up photos of Board members over their faces, reading descriptions of who the member is. The protest was said to have disrupted the meeting.</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>3965</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>20180322_Saskatoon_Rally_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>On March 22, after the University of Saskatchewan Students’ Union election closed, students attended the election-results announcement event in the North Concourse of Place Riel with signs. They were protesting in response to allegations of sexual assault against incoming president Coden Nikbakht. The atmosphere was tense, and two Protective Services officers were on hand. The outgoing executive team was noticeably upset, and the remaining attendees seemed hesitant to praise the victors. Typically, candidates attend the event to hear the announcements in person, and Nikbakht was the only absent candidate. Student demonstrators expressed displeasure with his victory and his absence and eventually began to chant “by-election.”</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>3973</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>20170912_SaltLakeCity_SitIn_AltRightAgainst</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Upwards of 50 students staged a four hour long sit-in outside President David Pershing's office at the University of Utah. Protesters were demanding President Pershing cancel a speaking engagement for Ben Shapiro currently slated for Sept. 27. _x000D_
+_x000D_
+Students urged for the event to be cancelled in light of Shapiro's positions on transgender people, LGBT rights and conversion therapy._x000D_
+_x000D_
+The protest was organized by the U's chapter of Chicanx Student Movement of Aztlán (MEChA) and included the U's Students for a Democratic Society and the Black Student-Union. Protesters held signs that read things like, "Y'all can't do anything, or y'all won't do anything?" _x000D_
+_x000D_
+Pershing came out to speak with protesters, emphasizing that the university maintains a commitment to diversity. Both Pershing and a spokesperson for the university also emphasized that the U didn't invite Shapiro and fully-registered student groups have the right to invite speakers._x000D_
+_x000D_
+ After just under 10 minutes, the president left the building with three police escorts. After unsuccessfully attempting to then meet with Vice President of Student Affairs Barb Snyder, the protesters marched to the law building's Moot Courtroom to join a Presidential Search Committee public hearing. Protesters were followed by police as they marched. At the hearing, the protesters criticized administration's lack of accountability and called for the new president to spend more time listening to minority populations.</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>20180215_SaltLakeCity_March_AntiRacism</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>An annual march and rally by members of the Westminster College community who gathered together on Monday to march in solidarity for Martin Luther King Jr. Day. The rally was one of a number of events at the college celebrating King and his legacy. The march began in front of Converse Hall on Jan. 15, participants wielded signs as they marched together down the streets of Sugar House to give a voice to those who have historically been silenced. Police officers had the area blocked off, and cars honked in encouragement as the crowd marched down 1300 East, chanting quotes from King and the ideas he fought for."What do we want?" they shouted. "Freedom!""When do we want it?" they cried. "Now!". The university responded to the march before it started by expressing its support for it.</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>3992</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>20180314_SanDiego_Walkout_GunControl</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>The event is described as a walkout consisting of a rally and march component organized by the   University of San Diego community. USD students, faculty, and administration rallied in Colachis Plaza in support of victims of the Florida Parkland shooting, as well as the mass shootings from the past few years. More than 100 people attended the event and the event lasted for 17 minutes, one minute for every victim killed in the Parkland shooting. Starting at the top of Colachis Plaza, the procession walked down toward the west side of campus ending at the Joan B. Kroc Institute for Peace and Justice's front courtyard. The names of the Parkland victims were chanted out one by one, serving as a reminder of the severity of the situation. The names of the victims were chanted and displayed on signs with their ages in bold letters. Messages conveyed at the protest encouraged students stay active beyond this singular event and call their local representatives and vote to enact legislation that will allow for stricter gun control. Public Safety officers and vehicles were deployed between the Immaculata Church and the KIPJ to ensure the safety of the demonstration. After the protest moved from the Immaculata to the KIPJ, a megaphone was used for students and faculty to voice that gun violence and school shootings must come to an end. The walkout concluded with a moment of silence for all the victims of the Parkland shooting.</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>3995</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>20180419_SanDiego_March_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>The event is described as a Take Back the Night march which consisted of a candlelight vigil near the end. The event started in front of the Student Life Pavilion, where people gathered to craft signs for the march and listen to the first speaker of the night. Protesters chanted "survivors unite to take back the night." as they walked the streets of the University of San Diego,escorted by Public Safety squad cars. One protester passed out flyers with campus resources to aid those affected by harassment and assault. Students expressed excitement that University President James T. Harris III attended the event and offered support. Speakers present spoke about their sexual assault experiences. This was followed by a performance from the Founders Chapel Choir with the song "Praying" by Kesha. As they marched through the SLP, heads turned from all directions and people who had not initially joined the group began to chant along, with some picking up their things to join in the protest. The route took them throughout campus, down the steps by the Valley soccer field, back up and around and through Colachis Plaza, and finally ended behind the Kroc Institute of Peace and Justice at the Garden of the Sea. A candlelit vigil was held in silence of all the survivors and the lives lost to sexual violence. After the prayer, the marchers gathered to hear from the second speaker, a member of the USD community personally affected by sexual violence. The speaker's story was followed by a reminder from the faculty regarding on-campus resources, as well as within the San Diego community, to aid those struggling. The night closed with a reminder of why everyone was gathered there.</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>4000</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>20170912_Pittsburgh_March_Labor</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>A protest march was held at the University of Pittsburgh in support of the ongoing unionization campaigns by both Pitt faculty and grad students. This protest is one of many held since both Pitt faculty and grad students officially announced their separate campaigns to unionize with the help of United Steelworkers in January 2016. Some of the issues the faculty and grad student union organizing committees are campaigning for are better wages, more job security and increased protections regarding academic freedom. The event began in Schenley Park around 1 p.m., with organizers from the organizing committees of both and representatives from United Steelworkers. The protesters chanted "What do we want? Neutrality! When do we want it? Now!" and waved banners and signs while marching across Forbes Avenue. The cheering protesters then made their way up the front steps of the Cathedral and to the Chancellor's office within. There, grad students and faculty gathered outside Chancellor Patrick Gallagher's door As a union organizer spoke to Gallagher's executive assistant. The event culminated with the delivery of several letters to Chancellor Gallagher. The letters were written by dozens of elected officials to express their support of the union and their hope that the Pitt administration would remain neutral. The letter writers were political figures in the Pittsburgh community and beyond, including U.S. Sen. Bob Casey, D-Pa., and U.S. Rep. Mike Doyle, D-Pa. As protesters were gathered outside the Chancellor's office, a Pitt police officer addressed the crowd and inquired what the group represents and what they were seeking.</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>20170918_Pittsburgh_Rally_LGB+(For)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>More than 200 students at the University of Pittsburgh staged a counterprotest sporting rainbow flags and handmade signs in response to a Christian group bearing signs with messages hostile toward Muslims and members of the LGBTQ+ community. A group of students, combined with a presence from the Pitt Police, moved the protesters off-campus and onto the sidewalk.</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>20171117_Pittsburgh_March_Universitygovernance</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>About 40 students and community members staged a rally and march through the University of Pittsburgh campus to mark the end of a four-day occupation of Chancellor Patrick Gallagher's office. The occupation and rally were also held to coincide with the first anniversary of a protest last November against student debt and President Donald Trump, during which Pitt police arrested two people following an altercation. At the anniversary protest, students were targeting Pitt police and calling for disarmament. Associate Dean of Students Linda Williams Moore and Dean of Students Kenyon Bonner were present to observe the rally. Bonner approached the protesters with some "ground rules" for the event, including that they could not go into Towers lobby and that they would face repercussions if the rally turned into anything confrontational. The rally then began as students and community members - several clad in "Black Lives Matter" shirts or with their mouths covered by bandanas - joined hands and formed a circle in front of Tower B around 4 p.m. Several individuals spoke to the crowd. The group then began to march on Fifth Avenue, through Schenley Quad onto Forbes and ended on Oakland Avenue. The protesters waved flags and signs with slogans such as "Disarm the police, arm your desire" and chanting "A.C.A.B., all cops are bastards." About 10 to 15 Pitt police officers stood inside Towers lobby while four to five stood outside the entrance of Towers. Several police cars were parked across on Thackeray Avenue. Unlike last year, there were no violent confrontations between rally attendees and the police.</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>20120827_Edinburg_Rally_LGB+(For)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Members of the Atheist Student Organization at the University of Texas - Pan American protested the new Chick-Fil-A restaurant on campus. Student protesters were opposing the views of Dan Cathy, Chick-Fil-A's chief operating officer and president, who told an online journal that he believed in the traditional version of a family unit. A different online website also published information revealing the franchise donates millions of dollars to so-called anti-gay organizations. Protesters demonstrated at the Student Union, where a few members of the AOS took turns sharing their opinions on the issue using a microphone on stage, and another 10 people stood under the shade of a tent listening. Sodexo, the University's food supplier, has a license with Chick-Fil-A to use its name and food. One of the organizers was quoted as saying, "We want Chick-Fil-A to pull its name from the University. Let Sodexo call it a different name, just not to use Chick-Fil-A's name."</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>20180406_LosAngeles_Petition_Environmental</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>The Environmental Core, a student group at the University of Southern California, hosted the "Do Better" rally at Tommy Trojan asking the University to increase its efforts regarding sustainability. Dozens of students rallied for two hours, chanting phrases like "Hey Nikias, buy a Prius" and "High tuition, no green ambitions, all we have is hella emissions." The ralliers marched around campus and walked onto USC Village, where they spotted President C. L. Max Nikias and followed him. Nikias left USC Village and the ralliers were asked to leave by USC Department of Public Safety. The club also set up a table at Tommy Trojan, where they asked passersby to sign a petition urging Nikias to sign the Second Nature Presidents' Climate Commitment, which promotes sustainable living on campus. The club sent Nikias a letter asking him to sign it.</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>20180417_LosAngeles_March_LabourAndWork</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Over 150 students, faculty members and custodial staff gathered at Tommy Trojan to advocate for USC custodians to receive higher wages and affordable health care from the University's subcontractor Aramark. Colored signs that said "Custodians deserve more than minimum wage," "Aramark treat custodians as Trojan family" and "Trojan family ready 2 strike" were passed out around Hahn Plaza. Participants wore lanyards attached to badges that read "2018 Todo o nada ¡Ya Basta! #faircontractnow" on one side, and "Trojan family ready 2 strike 4 fair contract #custodiansaretrojans2" on the other. Led by a small group of workers playing snare drums, participants marched down Trousdale Parkway to USC Village and ended their march at the intersection of 32nd and Hoover Street. At the end of the rally, the intersection was blocked off by police. Participants sat on the ground in a huge circle as the custodians sang in Spanish. Different chants such as "Estamos en la lucha," which translates to "We are in the fight," and "What do we want? A contract! When do we want it? Now!" were called out to capture the attention of passersby.</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>20180507_LosAngeles_Strike_LabourAndWork</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>At UCLA, hundreds of employees convened together on campus Monday, attired in green union shirts with the slogan "We run UC" inscribed in bold yellow letters, in a show of unity as they carried signs that called for diversification, equal pay and respect. The three-day strike was organized by the University of California's largest employee union, the American Federation of State, County and Municipal Employees Local 3299, as a response to the failed negotiations between the union and the University last year. The union also called for the UC to acknowledge and fix racial and gender disparity in pay, especially among Latinas and black women. Workers say they are also concerned about the outsourcing of jobs to contracted agencies, which takes away work from previously trained UC employees and contributes to high turnover. _x000D_
+Three UCLA staff members protesting on campus were struck by a vehicle, university police said. A male driver struck the protesters at the intersection of Westwood Plaza and Le Conte Avenue at about 9:45 a.m., according a UCPD statement. The three staff members were treated for minor injuries on the scene. Protestors were being guided across the street by a city marshal when they were struck by the vehicle, de Los Angeles said. He added three members were struck and one worker hung onto the hood of the vehicle.</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>4116</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>20130425_Pittsburgh_Rally_FreeSpeech</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>About 20-30 students gathering outside of Warner Hall in protest of an email from Carnegie Mellon President Jared Cohon, which protesters argued threatened the freedom of expression on campus.  Students held signs with slogans like, "I support your right to offend me" and "Don't make Downhill Derby a slippery slope.".  Three university police officers stood stationed in front of the doors of Warner Hall throughout the protest.</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>4142</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>20121114_Montreal_Rally_Pro-Palestine</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Over fifty people gathered in front of the Hall Building of Concordia University at 6 p.m. to protest the launch of Israel’s most recent Gaza military operation, “Operation Pillar of Defence”, which began earlier that day. This demonstration was organized by Solidarity for Palestinian Human Rights Concordia (SPHR Concordia). Escorted by police cars, the demonstrators marched down Ste. Catherine – which had been blocked off by police cars from Concordia to Phillips Square for the march – chanting “Solidarité avec des Palestiniens,” “Palestine will be free, from the river to the sea,” and “Israel terrorist, Harper complicit.” When the demonstration reached Phillips Square, several speakers gave speeches on the issue. One organizer stated that the purpose of the demonstration was to “give a place for Palestinians in Montreal and others to express their sadness, frustration, and anger at what is happening in Gaza and Palestine in general,” and to raise awareness about Israeli apartheid.</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>20121123_Montreal_March_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Upwards of 100 people took to the streets of downtown Montreal to participate in the Take Back the Night protest against sexual and gendered violence. The march was organized by Concordia’s 2110 Centre as part of their ongoing campaign to bring a sexual assault centre to Concordia University. The campaign’s objective is to pressure Concordia’s administration to create a new centre on campus that would provide support services to victims of sexual assault and raise awareness of sexual and gendered violence. The march began at Norman Bethune Square before proceeding down Guy St., Ste. Catherine St. W., McGill College Ave. and de Maisonneuve Blvd. W. A police escort accompanied protesters along the route. As they walked, protesters held signs and chanted, “Patriarchy has got to go,” and, “Stop the violence, stop the rape.” The march ended at the terrace behind Concordia’s Hall Building, which was identified by Women in Cities as one of the least women-friendly places on campus, since it is secluded and lacks sufficient lighting at night. Protesters also raised the issue of the need to make public spaces safer through a gender-based approach to municipal planning, and police negligence in cases of missing and murdered indigenous women. Several campus and community organizations participated in the event, along with students from McGill University.</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>20121010_Madison_Rally_Abortion(Against)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Members of a pro-life organization protested on the University of Wisconsin campus Wednesday, brandishing graphic photographs and taking questions from passersby. Center for Bio-Ethical Reform members advocated for ending abortion in UW's Library Mall throughout the day. CBR Site Manager Darius Hardwick said the protest occurred from 7 a.m. to 4 p.m. Wednesday and will take place again on Thursday. He said the project has been around for 14 years and visits hundreds of universities around the country. Several Madison Police officers supervised the event throughout the day. According to MPD Lt. David McCaw, CBR is not a Madison-based organization and after further research that revealed group volunteers have been assaulted, he suggested MPD supervise the event. McCaw reported no violent incidents occurred during Wednesday's protests, though several individuals expressed their concern with the organization and inquired about permitting issues in Library Mall. Protest groups are generally required to secure a permit from the city to protest on Library Mall. McCaw confirmed the group has obtained a permit prior to its protest. Members of CBR notified the gender and women's studies department at UW of the protests and encouraged them to debate with the group Thursday,</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>4156</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>20121122_Montreal_March_PublicFunding</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Several thousand protesters weaved through downtown Montreal in support of free education despite the Parti Québécois’ reversal of the tuition fee increase implemented by the former provincial government led by the Charest Liberals. Students and their supporters gathered at Victoria Square to promote accessible education in solidarity with the week-long International Student Movement from Nov. 14 to Nov. 22 and address the quality of post-secondary institutions. The event started with speeches from the Association pour une solidarité syndicale étudiante, The contingent then marching for hours without incident before arriving at Place Émilie-Gamelin. While an itinerary was not provided before the march, the Montreal Police allowed the demonstration to continue since it remained peaceful. _x000D_
+_x000D_
+Organized by the Association pour une Solidarité Syndicale Étudiante (ASSÉ), 5,000 protesters gathered for a protest in Downtown Montreal against the commodification of education as part of the the global strike in education week. Participants brought up a host of issues including, capitalism, Israeli occupation, global institution's role in education commodification, and the newly passed law which criminalizes the wearing of masks during protests. A group of protesters known as the Santa Bloc, dressed up in Christmas costumes stating "[Our costumes] are a way of protesting Christmas as a holiday of widespread capitalist consuming, and at the same time of protesting the new law, which criminalizes wearing masks during protests." An hour into the march, the Service de police de la Ville de Montréal tweeted that the protest had been declared illegal but that it would be “tolerated if no criminal acts occur.” There were no reported arrests. _x000D_
+_x000D_
+Students gathered in Montreal to advocate for free tuition and in show solidarity with student mobilization worldwide. Organized by the Association pour une solidarité syndicale étudiante (ASSÉ), the event occurred as part of a global education strike week organized by the International Student Movement. Starting at Victoria Square, the protest wound through downtown Montreal, before ending at Parc Émilie Gamelin. Students’ Society of McGill University Vice-President External Robin Reid-Fraser attended the protest with a small group of McGill students. Although the Service de police de la Ville de Montréal (SPVM) declared the protest illegal because the organizers did not disclose their planned route, SPVM announced that they would allow the protest to continue as long as no criminal acts were committed. No arrests were made._x000D_
+_x000D_
+_x000D_
+Downtown Montreal saw students gathering to protest in favour of free tuition and show their solidarity for student causes across the world. The protest was organized by the Association pour une solidarité syndicale étudiante (ASSÉ), one of the largest student groups in Quebec, and was part of a global education strike week organized by the International Student Movement. Starting at Victoria Square, the protest wound through downtown Montreal, before ending at Parc Émilie Gamelin. Although the Service de police de la Ville de Montréal declared the protest illegal because the organizers did not disclose their planned route, SPVM announced that they would allow the protest to continue as long as no criminal acts were committed. No arrests were made.</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>"Breaking the Rules", Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>4191</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>20130327_Toronto_Rally_Pro-Palestine</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Students Against Israeli Apartheid held a rally in York University's Vari Hall. a number of other groups were present at the rally, including the York University Black Students’ Association, York’s chapter of the Filipino Canadian Youth Alliance, the Middle Eastern Students’ Association, Ontario Public Interest Research Group-York, Independent Jewish Voices – Toronto, Fightback, and CUPE 3903. The rally took place one week after the York Federation of Students endorsed the Israel Boycott, Divestment, and Sanctions campaign. The Students Against Israeli Apartheid rally was calling for York to adopt an ethical investment strategy. A security liaison and marshal kept things under control during the rally. In response, the University revoked club status of the Students Against Israeli Apartheid for “repeated disruption of academic activities.” York alumnus and SAIA activist Hammam Farah was also banned from entering York property as of April 25 after he was observed by York security using an amplification device to speak to a gathering of students and others, thus violating university policy. A few members of other student groups involved in the rally also received warning letters from the university.</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>20130417_Toronto_Demonstration_Tuition</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>The Ryerson Students’ Union (RSU) organized a Rally for Lower Tuition Fees to protest against the expected four years of a three to five per cent tuition fee increase. A gathering of 30 people stood outside the student centre around the intersection of Victoria and Gould Streets. The group listened to music, made buttons and wrote anti-tuition hike slogans on posters. Some snacked on free pizza, while others held banners and voiced their concerns regarding tuition hikes. Two bicycle cops to did a ride-by. RSU’s vice-president, Melissa Palermo, said she was impressed with the turnout. She stated, “We can really show the university and the province the impact tuition fees have on students.”</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>20171101_Chicago_Walkout_WhiteSupremacy(Against)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>In the pouring, freezing rain on Wednesday evening, DePaul students protested Libertarian speaker Charles Murray's appearance at DePaul. College Republicans hosted the event inside of Cortelyou Commons with Chicago police, Public Safety and a privately contracted company providing security. Murray is most widely known for his 1994 book, "The Bell Curve.". The book attempts to show how intelligence can be attributed to genetics rather than environmental factors. Days before the event, Students for Reproductive Justice and DePaul Socialists organized a Facebook event which attracted over 100 students not affiliated with either organization to join the groups in protest. Protesters first held a walk-out of the event, holding signs and yelling into a megaphone, condemning him for his views on race and class. While Murray is notably known for his research in "The Bell Curve," the speech given on Wednesday was in regards to his most recent book, "Coming Apart: The State of White America, 1960-2010." Murray said "Coming Apart" gives insight into how Donald Trump utilized a polarized America to win the presidency. Protesters were not deterred by hard rains as they showed up to make their opposition to Murray being invited to campus heard. Chants of "Murray is a racist" and "Racist, sexist, anti-gay, right wing bigots go away" filled the street. Student protesters like Gabriel Bullock felt like the newly-established speaker review board dropped the ball on allowing Murray to be invited to campus.</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>4248</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>20171104_Chicago_March_Trump(Against)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>A crowd of over one hundred activists gathered at Federal Plaza in Chicago on Nov. 4 for a demonstration opposition to President Trump's administration.The group called Refuse Fascism organized rallies in over twenty cities. A crowd of over one hundred activists gathered at Federal Plaza. Before arriving at the Plaza a crowd of protesters over 100 strong marched through DePaul's Loop Campus. Chicago Police had well over 100 officers deployed to the plaza. There were officers on foot, on bicycle, and some with bomb-sniffing canine units. Across the street from the Federal Plaza, approximately 20 counter-protesters gathered to denounce Antifa and support President Trump.</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>4306</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>20180207_Chicago_InformationDistribution_Environmental</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>UChicago Student Action and the People's Lobby protest outside Justin Trudeau's talk at Mandel Hall. Outside the Justin Trudeau event, UChicago Student Action organized a small rally with a coalition of labour groups and the People's Lobby, in an effort to hold the Canadian prime minister accountable to his promises on labour and environmental standards. During the event, fourth-year UCSA organizer Alex Peltz tweeted that "cops and administrators" had asked him to leave Mandel Hall for distributing fliers criticizing Trudeau.</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>"Breaking the Rules", Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>20170813_Montreal_March_FarRightAgainst</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Roughly 300 protesters assembled at Philips Square in Montreal on the evening of Sunday, August 13, for a march against the far-right in response to recent events in Charlottesville, Virginia. The previous day, a white supremacist attacked anti-racist and anti-fascist activists who had gathered in Charlottesville to counter-protest a gathering of far-right groups dubbed “Unite the Right.” One activist at the event expressed they were attending due to a rise of fascist activity in Montreal and Canada such as Students for Free Speech Concordia and Proud Boy organizations.. Protesters left Phillips square at about 7:30 p.m. and marched down René Lévesque Boulevard to the U.S. Consulate on St. Alexandre Street. Once there, organizers denounced racist immigration policies such as the United States’ notorious “Muslim Ban” and mass deportations, before chanting “Fuck Trump, fuck hate, America was never great!” Following their stop at the U.S. consulate, the protesters continued down St. Catherine street and through the Gay Village where people chanted “Queer and anti-racist!”. At one point, a passer-by heckled the protesters, resulting in a brief scuffle with members of the black bloc. At approximately 8:45 p.m. when protesters reached the intersection of St. Catherine and Papineau. A dark-coloured pickup truck continued to cross St. Catherine Street at high speed despite being surrounded by marchers, dragging at least one person for several metres. Police immediately surrounded the vehicle and escorted it out of the area. Following this incident, many on social media noted the similarity with Saturday’s vehicular terrorist attack in Charlottesville. The demonstration largely dispersed before 9 pm.</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>4330</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>20171112_Montreal_March_AntiRacism</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Thousands of activists protested in downtown Montreal on November 12 for the Large Demonstration Against Hate and Racism to condemn the rise of far-right ideologies in Quebec. Organizers felt compelled to act following multiple discriminatory events in Quebec, including the passing of the Quebec Charter of Values—a set of regulations to restrict public workers from wearing religious symbols—and the Quebec City Mosque shooting in January 2017, during which six members of the Muslim community were fatally shot in a religiously-motivated hate crime. The protest march began at Place Émilie-Gamelin and lasted three hours. Approximately 5000 people and over 160 local groups participated in the largely peaceful event. Both McGill and Concordia sent contingents to the protest, who marched together down Ste.-Catherine street in the hour before the demonstration’s official start at Place Émilie-Gamelin. The Students’ Society of McGill University (SSMU) also participated. The SSMU showed support by signing the demonstration’s Call to Action and passing a motion to endorse the protest. Student protesters described a growing concern over alt-right propaganda and far-right ideologies within the McGill community. Student protests also expressed concern with Bill 62, or the “religious neutrality law,” which bans the use of face coverings when receiving public services and implicitly targets Muslim women who wear niqabs or burkas. Another McGill student protester cited the administration’s decision to not divest from fossil fuels as evidence that the University contributes to regressive ideologies.</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>4371</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>20140304_Evanston_Occupation_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Following a forum on Title IX of the Education Amendments of 1972, which prohibits sex discrimination by higher education organizations receiving federal funding, students decided to sit in and then walk out of Ludlow's 12:30 p.m. "Philosophy of Psychology" class to protest his continued employment by the University after a Medill junior filed a lawsuit claiming he sexually assaulted her in February 2012. Ludlow cancelled the class Monday morning, but about 100 students gathered anyway to discuss the future of their movement and march to Mangelsdorf's office, 1918 Sheridan Road. Students left the sit-in at Harris Hall and gathered silently at The Rock for a few minutes, after which they proceeded to march through The Arch and down Sheridan Road to protest in front of the office. Some held signs with messages of support, including quotes from the online petition posted by concerned faculty after the University filed a response Feb. 21 denying any Title IX violations. University Police, including Chief Bruce Lewis, were present to make sure the protest proceeded "safely," said Dan McAleer, UP deputy chief. Some held signs with messages of support, including quotes from the online petition posted by concerned faculty after the University filed a response Feb. 21 denying any Title IX violations.</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>4447</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>20140201_Cambridge_Occupation_Environmental</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>More than 30 members of Divest Harvard occupied Massachusetts Hall, which houses University President Drew G. Faust's office and many of her senior staffers, some for a full 24 hours, to call for a divestment from fossil fuels. Faust offered to meet with Divest Harvard members if they left the building, but the group declined that offer.</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>20131123_Gatineau_Rally_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>60 students stood outside of Best Western Plus Hotel in Gatineau, Quebec, where the Canadian Federation of Students’ (CFS) 32nd National General Meeting was taking place. Quebec students stood in protest against the CFS for not letting them discontinue their membership and for the negative attitude taken towards them. McGill University’s Post-Graduate Students Society (PGSS) organized the demonstration with the participation of Concordia Student Union (CSU) leaders, Dawson College and fellow McGill students. Representatives from the University of British Columbia-Okanagan and the University of Toronto were also in attendance. Six police cars surrounded the protest, and six police officers patrolled the area, one of them was directing traffic circulation. Protesters were prohibited on hotel property.</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>4482</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>20131001_Marquette_Rally_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>A group of six evangelical pastors and additional congregational members held a protest in the Academic Mall at Northern Michigan University. The protest took the form of a soapbox speech, which created a heated debate with students, mostly on the grounds of religious or moral beliefs, but also addressed world issues. The article reports that conflicts emerged between the group and students and there were several harassment and hate speech complaints made by students in regards to the group's demonstration. NMU Public Safety officers were called to oversee the event after complaints were issued. The article also notes that the group had attained the appropriate permits to be there.</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>4492</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>20140520_Hays_Demonstration_LGBSexualOrientationAgainst</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Eight members of the Westboro Baptist Church gathered for a demonstration at the graduation of Fort Hays State students to demonstrate their belief that higher education "teaches nothing but f** lies and promotes filth in place of an edifying educational experience." The group set up behind Stroup Hall on the north side of Gustad Drive around 9:30 a.m. with signs stating that "God hates F***." The WBC members left campus at 10:05 a.m. after only thirty five minutes.</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>4493</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>20140520_Hays_Demonstration_LGBSexualOrientationFor</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>About 10 protestors, including students, a minister, a motorcyclist, and three of his companions, who came with their bikes, participated in a counter-demonstration by holding signs and flags to protest against the Westboro Baptist Church for their demonstration against Fort Hays State graduation activities.</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>4494</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>20131001_Marquette_OtherForm_HateSpeech</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Responding to a group of evangelical pastors and congregational members staging a soapbox speech protest, students at Northern Michigan University held a counter-protest. There was a heated debate between the two opposing protests, mostly on the grounds of religious or moral beliefs, but also addressing world issues. The article reports that conflicts emerged between the group and students and there were several harassment and hate speech complaints made by students in regards to the group's demonstration. NMU Public Safety officers were called to oversee the event after complaints were issued.</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>4555</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>20140417_Minneapolis_Rally_DomesticForeignPolicy</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>The protest event involved around 200 people at the University of Minnesota, who were opposing Condoleezza Rice's lecture and presence on campus, given her wartime policies in the Bush administration during her tenure as US Secretary of State. The rally occurred outside the Northrop Auditorium, where the lecture was taking place.</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>4558</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>20131029_Kent_Rally_LGBSexualOrientationAgainst</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Anti-gay and anti-abortion demonstrators came to Kent State University to "preach the gospel of Jesus Christ" and condemn abortions and homosexuality. One man who identified himself only as John argued that he was not a protester and was only a preacher of the gospel who travelled to different college campuses in Ohio to preach. One of John's signs depicted a bloodied Jesus Christ, while other demonstrators held other signs. The demonstrators got into a heated argument with student counter-protesters outside the University Library, which resulted in the police showing up. The police didn't break up the protests and were only concerned for peoples safety.</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>4559</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>20131029_Kent_Rally_LGBSexualOrientationFor</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>The event was a protest involving dozens of people, who gathered outside the University Library at Kent State University to protest a religious demonstration that was condemning abortion and homosexuality. The protesters held signs and chalked messages on the sidewalk, singing and chanting. Eventually the police were called due to passerby safety concerns, at which point the Center for Student Involvement became involved to ensure that everyone remained non-confrontational.</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>20130910_Berkeley_Rally_Anti-War</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>About 20 Members of the International Youth and Students for Social Equality organized a protest at Sproul Plaza against possible U.S. military intervention in the Syrian civil war. The protest form was not specified, but protestors were referred to as "demonstrators".</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>4580</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>20130910_Berkeley_Rally_DomesticForeignPolicy</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Counter-demonstration consisting of at least two students and two alumni shared an opposing perspective than that of the International Youth and Students for Social Equality protestors.</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>20140412_Schenectady_March_LGB+(For)</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>On Saturday, April 12, the third annual LGBTQ Pride Parade was held at Union College. The event was hosted by Rev. Moonhawk River Stone, chair of the commission's LGBTQ committee, and held in conjunction with the Schenectady County Human Rights Commission. Participants gathered outside of Memorial Chapel approximately half an hour before the festivities began to register, talk amongs themselves and take photos before setting off toward Union Avenue with a great deal of fanfare. They waved rainbow flags as passing drivers honked and revved their engines. The event attracted attention from local, state and event federal officials. This event was intended to draw attention and awareness to the issues and the challenges these members of the community have.</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>4628</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>20140224_Montreal_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Some 200 protesters marched across the Université de Montréal’s (UdeM) Outremont campus on Monday afternoon in protest of the reappointment of the university’s rector Guy Breton. Students were discontent about the lack of democracy involved in Breton's reappointment and he's participation in the commodification of education. The protesters gathered outside Édouard-Montpetit metro station to march down Mont-Royal to the university’s 1420 Mont-Royal building, later turning around and heading through campus toward the Pavillon Roger-Gaudry. Confronted by security guards outside the building’s main entrance, demonstrators attempted to gain access through the building’s front doors, but found them to be locked. One demonstrator discovered an unlocked service entrance on the ground floor and the protest moved inside. After marching throughout the halls on several floors of the building, the protest moved back outside, where demonstrators tore down UdeM flags from the poles out front, and attempted to burn them among cheers from the crowd; however, the flags did not light. The crowd chanted “Guy Breton, démission,” as they marched, calling for the resignation of the newly-reappointed Breton.</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>20140401_Montreal_SymbolicDisplay_Environmental</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>A rally culminating in a “die-in” was held on in protest of Concordia and McGill University’s environmental policies. Students met in the Hall Building mezzanine at 3 p.m. to make signs and organize. At around 4 p.m., the participants left the Hall Building and marched down Mackay St. to St. Catherine St. W. They were escorted by several police cars. The crowd wound its way down St. Catherine St. W. before heading down McGill Ave. The group then made their way to a tarp in front of McGill’s central building, where ‘Fossil Fuel Fred,’ a character played by McGill student Justin Chisholm, made a satirical speech thanking ‘McSpill University’ and ‘CoalCordia’ for investing in fossil fuels. The die-in simulated an oil spill, and around 15 students ‘died’ one by one on the tarp, including CSU councillor John Talbot and Garoufalis-Auger. There were several minutes of silence for those impacted by oil spills, after which protesters dispersed.</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>20130924_NewPaltz_UnknownForm_Environmental</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>A group of about 30 students gathered outside the Student Union Building at SUNY College at New Paltz to call on Gov. Cuomo to ban hydrofracking. The University Police would not let student protesters within 50 feet of the Student Union Building. Protesters wore shirts with slogans.</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>4682</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>20140210_LosAngeles_Rally_AntiRacism</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Students and faculty-held rally to protest racial and gender discrimination on campus at UCLA. It occurred as a response to racist and sexist fliers sent to UCLA's Asian American Studies Center and USC's Asian Pacific American Student Services. he fliers contained racial slurs directed at white individuals and members of Asian and Mexican communities. At the protest, members of Asian American student groups referenced a YouTube video posted in 2011 by former UCLA student Alexandra Wallace called "Asians in the Library," which they said they thought contained slurs about members of Asian communities. They also pointed out that Vietnamese Student Union signs were vandalized with racial and sexist slurs in 2012. Around 80 students were involvedin the rally in front of Kerckhoff Hall, and was organized by the Asian Pacific Coalition at UCLA, the Vietnamese Student Union and numerous other student groups. Students and faculty spoke at the rally, decrying the racism that has been prevalent at UCLA through a number of incidents.</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>4708</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>20140403_Storrs_NoForm_Labor</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>About a dozen protestors carried signs and protested over suspicion of resumed illegal construction contracting began this Thursday on the corner of Hillside Road and Jim Calhoun Way, outside of Gampel Pavilion. The Department of Labor issued a stop work order on the new $32 million dollar basketball development facility after it was found that about 20 employees were not listed on payroll and were being paid in cash to avoid paying state taxes. There was also a bomb threat, and the group was warned not to go inside the pavillion. UConn commented on the violations alleged by the Department of Labor and respects the 'stop work' order. UConn police were monitoring the protest. Protesters stated they will be protesting the next day.</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>4740</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>20131203_Washington_SymbolicDisplay_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>An African-American man in a hoodie covering his face staged a die-in on the lawn of the Edward J. Pryzbyla Center in response to the recent events of Ferguson, Missouri. Next to the protester were the words "Black Lives Matter" written in ketchup to simulate blood as well as a large pool by the man's head to simulate a gun shot. At his feet was a sign that read "NMOS14 Rest in Peace: Eric Garner, Kimani Gray, Trayvon Martin, Sean Bell, Amadou Diallo, Jordan Davis, Mike Brown, and many more. BLACK LIVES MATTER!!" Officers from the Department of Public Safety arrived at the scene of the protest to protect the Constitutional Rights of protest to the identified man.</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>4752</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>20131119_AnnArbor_Demonstration_AffirmativeAction(For)</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>More than 140 people, including students from local high schools in Ann Arbor and Detroit, attended a march and rally at the University of Michigan. The protest had multiple purposes, including advocating the overturn of Proposal 2, the restoration of affirmative action, an increase in the enrollment of black, Latino/a and Native American students and in-state tuition and financial aid for immigrant students who were brought to the United States as children. University Police officers were present, and UMPD official added that the group's presence was complicated by the fact that the organizations involved did not formally inform the University of their intent to demonstrate. the police presence initially caused some of the students to disperse, the encouragement of other students kept the rally going.</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>4803</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>20131011_Athens_March_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Members and supporters of F--kRapeCulture took to the streets Friday for a rally and march with the invitation to participants to dress as they wanted - including being topless. The demonstrators marched through the town of Athens against campus rape culture.</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>4825</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>20131030_Toronto_Demonstration_LabourAndWork</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>CUPE1281, Ryerson’s division of the Canadian Union of Public Employees, was holding a Halloween themed rally/picket to “scare away the lockout.” Their lockout marked 30 days of stalled negotiations with the Continuing Education Students’ Association of Ryerson (CESAR.)  after weeks of discussion between CESAR executives and their staff on the topic of wage increases to a “cost of living standard” through a new collective bargaining agreement. Picketers don’t believe they were causing any disruptions but, simply handing out flyers. Someone contacted the Toronto police, and five police officers appeared briefly to answer the call, asking CUPE1281 members questions and and then phoning back to division headquarters to check picketing rules, leaving shortly after.</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>4868</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>20141202_Champaign-Urbana_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>A march organized by the Central Black Student Union, which advocates for minorities around campus to show support for African-Americans on campus and protest the recent events that have unfolded in Ferguson, Missouri. After assembling at the Bruce D. Nesbitt African American Cultural Center, the long column of demonstrators marched down Gregory Drive, holding signs and chanting "Black lives matter." Police blocked off intersections to ensure safety and a police vehicle followed the group as an escort.</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>4885</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>20140321_Ottawa_SitIn_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>About 20 members from the Carleton Food Collective which runs non-profit food service the Garden Spot, or G-Spot, filled the reception area of the main Carleton University Students’ Association office in the Unicentre. They held up signs demanding their student levy be released. _x000D_
+_x000D_
+Campus safety officers monitored the sit in, but did not try to remove the protesters</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>4890</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>20140225_Philadelphia_Rally_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Saint Joseph's University students, upset over a lack of transparency, organized a protest outside of McShain Hall as the Board of Trustees met inside on the 5th floor. The gathering was organized after the Faculty Senate unanimously passed a vote of no confidence against Louis Mayer, '79, Ph.D., vice president of financial affairs, and John Smithson, '68, senior vice president, calling for their resignations on Feb. 25. The demonstration organizers cited "seeming incompetence and obvious shortsightedness of the university's administrators" in an email sent to all faculty members inviting them to the protest gathering._x000D_
+_x000D_
+Students and faculty began to gather outside of McShain Hall shortly after 10 a.m., and formal protesting began at 11 a.m., the start of university free period. A group of roughly 100 protesters sang "Open the Eyes of My Heart" led by a guitarist, and then began chanting, "Where's the magis?"  Lower Merion police were noticeably present at the demonstration, parked on Lapsley Lane. According to the director of Public Safety and Security, it was normal protocol. When asked about his thoughts on the protest, University Provost Brice Wachterhauser said, "I think the student protest was legitimate and orderly and an appropriate way for students to express their opinion."_x000D_
+_x000D_
+The protest drew to a close around 11:45 a.m. as protesters began to disperse from the area.</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>4893</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>20140310_Philadelphia_SitIn_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>A disruption and sit-in at Temple University in response to the dismissal of an African American studies professor Anthony Monteiro and other community issues._x000D_
+_x000D_
+Members of the group Justice for Dr. Anthony interrupted a meeting of the Board of Trustees and demanded to speak with O'Connor and President Theobald. The protesters staged a sit-in in the lobby of the president's offices for approximately half an hour. The protesters agreed to end the sit-in and elect several representatives to meet in a private discussion with university representatives.</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>4912</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>20150507_Claremont_Blockade_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>The students, and some faculty, delivered a letter expressing demands to each of the 5C administrations, and then marched to the intersection of Claremont Boulevard and Foothill Boulevard, where they blocked the intersection for about 10 minutes to chant the names of those who had fallen victim to police brutality. The students demanded first, that "the Claremont Colleges recognize this movement through releasing a public statement in solidarity with Black Lives Matter;"second, that "an announcement is posted to the school websites that is then sent to faculty, staff, students, alumni, incoming students, the Board of Trustees, etc.;" and third, that "students who have been deeply affected by recent events be allowed to postpone finals." Black Lives Matter protestors handed a list of demands to each college president.</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>4949</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>20141029_Chicago_March_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>More than 50 DePaul University students gathered off-campus in Pritzker Park in solidarity with Emma Sulkowicz, the Columbia University student whose senior thesis performance piece has inspired action to combat sexual assault. Students from DePaul Feminist Front and FURIE (Feminist Uprising to Resist Inequality and Exploitation), and other student organizations participated in the event. Speakers addressed the crowd in Pritzker Park ahead of a march. Student protesters carried a mattress through the neighbourhood around Pritzker Park, modeling Sulkowicz's action - hauling her mattress around her campus until the student who raped her leaves or is expelled. The march lasted more than half an hour with chants such as "assailant shaming/not victim blaming" and "my body isn't property/ I'm a human being," garnering attention on Michigan Avenue. Following the march, protesters gathered around for an open-mic session following a series of speakers. Two police officers came to diffuse a situation where a verbal altercation occurred between protesters and a local resident.</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>4960</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>20130828_Austin_Rally_CampusClimate</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>The Black Student Alliance at the University of Texas - Austin rallied in front of the Martin Luther King Jr. Statue at the East Mall in opposition to racial insensitivity and ignorance, as well as racially charged violence in the area. This was a week after an allegedly race-fueled "bleach bomb" was thrown at government senior Bryan Davis in West Campus. Police was present at the rally. Rally attendees were invited to share their stories of racial injustice.</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>4963</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>20130901_Austin_Rally_Feminism</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Protesters gathered in front of the Capitol as part of a civil rights rally Sunday night, fighting for issues including reproductive health care, equal pay and voting rights. The group, escorted by police, marched down Congress Avenue to Cesar Chavez Street, Lavaca Street, 11th Street and then back to the Capitol. The group held up signs reading "Feminists Against Racism." Connected to higher-ed since some protesters concerned with the recent "bleach bombings" at UT.</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>4965</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>20140131_Austin_March_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>In this event, several hundred students, faculty and community members marched across campus in protest of the University's Shared Services Plan, which was held on the eve of a two-day United Students Against Sweatshops national conference held in Austin. The UT Save Our Community Coalition, and United Students Against Sweatshops partnered with the Texas State Employees Union, the University Leadership Initiative and several other organizations to voice their concerns about the plan. UTPD officers accompanied the protesters to ensure their safety and keep traffic unaffected. The protest was generally peaceful, but it did create a disturbance when protesters physically blocked the street traffic on Guadalupe while dancing and chanting.</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>5003</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>20130131_Berkeley_Picketing_Labour</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>About 100 UC Berkeley students and service workers blocked the intersection of Bancroft Way and Telegraph Avenue in protest of impending changes to the UC employee pension plan. The protest was part of a systemwide picket organized by AFSCME 3299, the University of California's Service and Patient Technical Workers union, which represents 22,000 UC service and patient care workers. The protesters gathered on Upper Sproul Plaza at noon, picketing the area in a large circle before moving onto the street. They stopped traffic for 10 minutes before concluding the hourlong protest on the sidewalk. Police monitored the protest until it ended just before 1 p.m.</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>5008</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>20141208_Columbus_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>A group of around 60 Kenyon students attended a protest at The Ohio State University, where students marched to the Columbus Police Station to protest police brutality in the community. Police surrounded protesters.</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>5021</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>20150512_Chicago_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Approximately 65 people marched from E. 55th street and King Drive, one of the proposed Barack Obama presidential library sites in Washington Park, to the house of University of Chicago President Robert Zimmer, protesting for a Level I trauma center at the University of Chicago Medical Center. At a press conference before the march set out, a an organizer of the Trauma Center Coalition, expressed concern that the lives being lost on the South Side due to gun trauma, due to economic violence, due to police violence, will not be able to find much life-saving value in the presidential library, and that a trauma center would be more beneficial. There was substantial media presence at the event, along with a noticeable police presence. Two Chicago Police Department SUVs crawled between the stream of marchers and the UCMC as it moved down Cottage Grove Avenue; two more police vehicles parked outside of President Zimmer's house. Police officers asked organizers to move protesters off the street. The route of the march went through parts of the UCMC and the University, and featured many chants. The march dispersed after about an hour and a half with a chant asking Zimmer to "come outside."</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>5040</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>20150324_Charlottesville_Demonstration_TuitionFees</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Students and community members at the University of Virginia staged a demonstration against tuition hikes. Protesters displayed a red square as a symbol of protest. Members of the group Students United passed out these squares to all those who attended the rally. The idea was adopted from the 2012 student protests in Quebec on tuition increases. One of the protesters explained that the red square has become an international symbol of the student movement against student debt. The red square, he explained, means squarely in the red, squarely in debt. The University of Virginia demonstration took place during the Board of Visitor's Finance Committee meeting where the tuition increase proposal was being discussed. Protesters gathered outside of the Special Collections Library then moved inside and downstairs, towards the library's auditorium where the meeting was taking place. There they were confronted by the Charlottesville Police who prevented protesters from continuing further. University President Teresa Sullivan then addressed the protesters and held an impromptu question and answer session in which she responded to their concerns and clarified the incoming changes to tuition. President Sullivan then returned to the subcommittee meeting, and the proposal to increase tuition was passed. As the Board members left the room, remaining protesters chanted, "Whose University? Our University!"</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>5079</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>20140301_SanDiego_SitIn_Fees</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>A march and sit-in held by about 20 students at San Diego State University, to protest the lack of communication with President Hirshman on the issue of increased student fees. The march began at the Conrad Prebys Aztec Student Union courtyard, where students had initially planned to meet with President Hirshman, and ended outside his office in Manchester Hall, where they held a sit-in.</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>5080</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>20150504_Davis_Walkout_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Protestors held a walkout on campus and gathered at Davis City Hall and chanted. Starting with approximately 50 people, the protest grew to around 100. According to the Facebook event page, they are protesting to bring awareness to the death of Freddie Gray and the current Baltimore protests. They join several other statewide and nationwide protests.</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>20140307_SanDiego_Disruption_Fees</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>More than 40 protesters gathered in front of San Diego State University's Manchester Hall during the grand opening of the student union. Some held signs with slogans such as "no fees" and "take back education" while others passed out red tape, which the protesters wore over their mouths to show their silence. From the audience, the protesters were heard chanting "No fee," sometimes interrupting speakers._x000D_
+_x000D_
+Protesters were opposing a potential 200$ increase in tuition that had been recommended to university president Elliot Hirshman. At one point during the grand opening, students left to chant on the roof of the Prospective Student Center, which is adjacent to the union.</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>20140502_SanDiego_Walkout_Fees</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Students staged a walkout, rally and march on May Day at San Diego State University to protest the recently ratified Student Success Fee. In addition to the fee, speakers addressed several issues, including immigration reform, the right of all working people to organize and unionize, and discrimination against women and LGBTQ folk. After gathering at Scripps Pond to listen to speeches, more than 200 students marched to Montezuma Hall to protest the fee. Protesters carried signs and chanted "the students united will never be divided." There, protesters attempted to enter President Elliot Hirshman's office but found the doors locked. Campus officials and police oversaw the more than 150 students as they crowded into the hall and wrote messages in chalk outside the office. 60 students stayed outside President Elliot Hirshman's office for about an hour and a half. Students involved discussed concerns surrounding the growing costs of education.</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>5125</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>20130217_Montreal_Rally_HumanRights</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>More than 200 people gathered for an hour-long rally in the square opposite Quebec Premier Pauline Marois’ office to protest the government's proposed changes to language laws with Bill 14. The rally, which included several speakers, was organized by two minority rights groups—the Unity Group and PutBackTheFlag.com. Throughout the event, police vans lined the street, blocking traffic from accessing McGill College Avenue between Sherbrooke and President Kennedy. No arrests were made. Bill 14 seeks to further protect and promote the French language in Quebec in business, education, and municipalities. According to protesters, this bill would affect human rights for ethnic minorities, and their ability to challenge rights infringements in the Supreme Court. Connecting this legislation to higher education, attendees also expressed concern with Bill 14’s impact on students’ ability to finish school, and enroll in English CEGEPs. Under this legislation, students would have to pass a French exam to graduate CEGEP and secondary school, even if the school is in an English system. Bill 14 would also create difficulties for students to secure employment in the province after graduation, which may cause English-speaking students to leave the province.</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>20141201_Cambridge_Occupation_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Black Lives Matter protest in Massachusetts and the Harvard University campus. Protesters held two "die-in" demonstrations in which protesters laid down silently for 4 and a half minutes on the street and then at the Harvard Coop, created a traffic blockade in Harvard Square, and held a rally outside of Wasserstein Hall</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>5141</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>20151205_Cambridge_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Protesters staged a march involving multiple universities in Cambridge, Massachusetts, to protest the recent non-indictments of the officers in the Michael Brown and Eric Garner cases. An estimated 600 protesters marched from Tufts University to MIT. The protest attracted local police departments, including those of Somerville and Cambridge, and at least four helicopters circling overhead. After passing through Davis Square, the marching protesters staged a "die-in" in Harvard Square and rallied in front of the Harvard Coop. The police temporarily shut down the main Harvard Square MBTA entrance. about 50 Harvard affiliates gathered in front of the John Harvard statue at University Hall. Protestors wore hospital masks that read, "We can't breathe" and chanted the phrase 11 times to signify Garner's repeated use of the phrase while being choked by a police officer intending to arrest him on an illegal sale of cigarettes charge. The protesters also held a 4.5 minute die-in to represent the 4.5 hours Brown's body lay in the street before being taken to the morgue. From Harvard, protesters continued down JFK Street and turned east on Mt. Auburn Avenue toward MIT, temporarily diverting traffic. The protesters were stopped by a police line at Mass. Ave. Bridge on the Cambridge side near MIT.</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>5177</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>20141208_Gainesville_Rally_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>In the protest, more than 150 people formed a circle as the culmination of a Black Lives Matter march led by the UF Dream Defenders. They blocked the intersection for 11 minutes to symbolize the 11 times Eric Garner told police he couldnt breathe.</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>5180</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>20150318_Gainesville_SymbolicDisplay_GunOwnerRights</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Members of Students for Concealed Carry staged an Empty Holster Protest to educate students on what members believe is the minimal impact of passing House Bill 4005, a new piece of legislation that would allow concealed carry permit holders to carry weapons on campus. Members of the UF chapter of SCC began sporting outside-the-waistband holsters as a peaceful demonstration for the bill on Wednesday.</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>20150415_Cambridge_Blockade_Environmental</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>University President Drew G. Faust enters Emerson Hall, where members of the student activist group Divest Harvard attempted to confront her before she introduced a lecture on Wednesday afternoon. Security personnel had placed guard rails between Loeb House and the lecture hall. The action was part of "Heat Week" a series of protests demanding that Harvard divest its $35.9 billion endowment from fossil fuels, Data Cleaning Fix - New event added</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>5197</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>20141028_Manhattan_Rally_LGBSexualOrientationAgainst</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>A group of radical Christians held a demonstration at Bosco Plaza and yelled derogatory comments at many groups on campus, including those of differing religions, homosexuals, sorority and fraternity members, and those who are sexually active. They identified themselves as concerned congregants of local churches and were not members of the Westboro Baptist Church. K-State students held a counter-protest to block out the speeches. Police were on the scene to keep order and prevent any interference</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>5227</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>20150429_Missoula_Rally_Environmental</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Students and community members held a rally outside the Dennison Theatre the site of the University of Montana Asia-Montana Energy Summit to demand cleaner energy from state officials. A group of about 40 people chanted, "Keep it in the ground" to encourage leaders to divest from coal and oil. They also discussed global warming awareness. Representatives from Blue Skies Campaign, 350 Missoula, UM Climate Action Now and One Thousand New Gardens gave speeches at the rally. Co-presidents of Reinvest Montana, Caitlin Piserchia and Simon Dykstra were among the speakers at the rally. During their speech, they said Reinvest Montana is launching a climate action fund. The fund will be an alternate endowment people can donate to instead of the UM Foundation,</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>5258</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>20150211_Milwaukee_March_TuitionFeesFinancialAid</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Students held a rally and march against Gov. Scott Walker's proposal to cut $300 million from the UW System. Student protestrs hung a banner between two trees in UWM's Spaights Plaza that read, "They say cut back, we say fight back. No cuts to UW." A small cluster of police officers waited inside the campus union to watch the event. The rally turned into a march as roughly 80 students, staff and faculty made their way around the campus. Students in attendance at the rally voiced concerns about the governor not being in touch with UW students and understanding the full implications of his proposed cuts. They raised issues with an expected limit on educational resources that will be available to them, a predicted loss of valued tenure track faculty, and general threats to quality public education and the broader public sector of Wisconsin.</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>5267</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>20141125_NewPaltz_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>About 100 SUNY New Paltz students assembled behind Deyo Hall and then marched to the University Police Department. After about an hour chanting at the University Police Department, the students marched, now with about 200 people, to the Student Union Building Concourse. There, members of New Paltz's Urban Lyrics club performed pieces written to resonate with the night's events. Throughout the rally, numerous 45-second moments of silence were held in tribute to the 4.5 hours Brown's body was left on the ground after his death. Students then marched to New Paltz Justice Court from the SUB concourse, in symbolic protest of the courthouse that Brown's killer was not indicted in. The rally concluded with about 300 people holding hands and taking one last 45-second moment of silence in front of College and Shango Hall. UPD officers and New Paltz Town Police followed and observed the students in police cruisers for the majority of the protest, but did not interfere.</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>5271</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>20150401_NewPaltz_Rally_ImmigrationFor</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Nearly 120 students gathered on the sidewalks outside of the Humanities building calling for a tuition freeze in light of growing student debt and calling for the college president to withdraw his support for the plan that raises tuition every year. Throughout the rally, more than a dozen students took to the bullhorn to tell of their personal accounts struggling with student debt. Philosophy major Brienna Perez also linked paper chains onto her ankle that were inscribed with the amounts of debt various SUNY New Paltz students will have to pay off after they graduate from the university. Well into the rally, nearly 45 student protesters began a march across campus to President Donald Christian's office in the Haggerty Administration building. Protestors staged a sit-in outside of Christian's office until he accepted their list of demands - items including suggestions for him to tell SUNY Chancellor Nancy Zimpher and Gov. Andrew Cuomo to cap tuition at its current level, restore state funding to a minimum of 50 percent and to support the DREAM Act, which gives immigrant students raised in the U.S. a chance to pursue higher education. Halfway through the sit-in, University Police officers arrived to ensure that protesters were not blocking exit-ways incase of an emergency. After 20 minutes of waiting in the hallway, Christian emerged from his office to accept the list of demands from the group.</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>20150410_Greenville_Demonstration_Tuition</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Faculty and students from East Carolina University and other UNC system schools held a demonstration at the Heart Institute before the start of a Board of Governors' meeting. Protesters held signs and gave short speeches about the recent rises in tuition statewide and the claim that the money is needed to provide faculty raises. The faculty members at the demonstration also held a banner with the hashtag #Fightfor15k. The Fight for 15k is a movement for instructors nationwide who are seeking pay increases. Fight for 15k is an extension of the Fight for 15 movement that was originally started by workers looking to raise minimum wage. A sign was placed at the front of the meeting by protesters before they left campus. The poster was left in place until student presenters took it down to make room for their materials.</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>5308</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>20141203_Hamden_Rally_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>In this event, students and faculty gathered and shouted on the steps of the Arnold Bernhard library, "Hands up, don't shoot," and "No justice, no peace,". The group of at least 15 students and professors made their way to the Quad at Quinnipiac University, at the same time that universities around the country protested the grand jury decision not to indict Darren Wilson, a white former police officer who shot Michael Brown, an 18-year-old African American man, in Ferguson, Mo. The students and faculty held signs that read "justice for all" and "black lives matter." At one point the group re-enacted a die-in, where they laid on the ground, representing the four and a half hours that Brown's body lay in the street after he was shot.</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>5323</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>20140929_AnnArbor_Rally_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Hundreds of people arrived at the diag at the University of Michigan to call for the firing of Athletic Director Dave Brandon. Several people brought posters criticizing the University's handling of sophomore quarterback Shane Morris' concussion suffered in the fourth quarter of the football team's loss to Minnesota. The protest then moved off campus to University President Mark Schlissel's house nearby on South University Avenue.</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>5377</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>20150226_IowaCity_Rally_FreeSpeech</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Young Americans for Liberty on the University of Iowa campus held a demonstration on the Pentacrest to encourage participation in both the group and the organization's state convention. Part of Thursday's demonstration included a free speech wall on which passerbys could write on boards as a demonstration of free speech. Another part of the demonstration was to protest limited "free-speech zones" on college campuses.</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>5399</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>20141207_Minneapolis_SymbolicDisplay_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>A "die in" and disruptive protest to draw attention to police violence and express disapproval of the grand jury's decision to not charge Darren Wilson took place on campus in TCF Bank Stadium in which about 50 people attended. Protestors chanted and waved signs as well as participate in the "die in" before and during the Minnesota Vikings football game against the New York Jets, The protest consisted of area residents and their children, University of Minnesota students and some activists who were involved in recent Ferguson, Mo., protests. Police were at the scene to greet demonstrators and ensure a safe protest. The event was also described as spontaneous.</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Monitor/Present, Cooperate/Coordinate</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>5406</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>20141214_Madison_SymbolicDisplay_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>The protest began at the top of Bascom Hill, where students rallied in support of the Black Lives Matter movement. From there, students marched towards the Helen C. White library to protest racial discrimination in criminal justice. Once in the library, the 800 students in the group spread out across the building's three floors, where they laid on the ground as part of a "die-in." Members mostly remained silent during the 20 minute die-in.</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Monitor/Present, Cooperate/Coordinate</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>5407</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>20150123_Madison_Blockade_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>100 students and community members moved to the streets, eventually shutting down the 700 block of University Ave following a talk by Max Rameau part of a Black Lives Matter Speaker Series at UW Madison. Protestors held picket signs and chanted.</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>5414</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>20150501_Madison_Rally_LabourAndWork</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>A group of protestors organized a rally outside the Madison Municipal School District's Ruth Bachhuber Doyle Administration Building that culminated in a march toward the Capitol, where members spoke at a larger May Day demonstration. This was organized by the Immigrant Workers Union for immigration reform and workers' rights.</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>5439</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>20150403_Pullman_March_UniversityGov</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>More than 150 Washington State University students, staff and faculty members marched in the "March Against Ignorance" across campus at 4:30 p.m. today. March began at the French Administration building and ended on Colorado Street, in the heart of Greek Row. Student presentations followed at a park. A police escort safely led the group across campus.</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>5458</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>20150414_Lexington_March_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>"Take Back the Night," Lexington's annual march and rally to call attention to violence. The march to the rally began Tuesday night outside of University of Kentucky's Patterson Office Tower at 7 p.m where about 60 people carried signs that read, "Unite the Night!" and "Break the Silence," as well as "Lesbian Rights" and "End Racism." The chants varied from, "What do we want? No violence. When do we want it? Now!" to "Two, four, six, eight, no more stalking, no more rape!" Police escorted the crowd to Central Christian Church where the rally was held, located at 205 E. Short St. Once the march reached Central Christian Church, everyone gathered inside, either sitting in chairs or on the floor. Around 100 people filled the gathering space. After the speakers, the people in the church were asked to join hands and call out strengths or feelings they have experienced or witnessed.</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>5467</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>20150302_Mississauga-UTM-CUPE3902_Picketing_Labor</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>6,000 CUPE 3902 union members (teaching assistants) at the University of Toronto set up picket lines around the Mississauga campus on March 2. Many picketers stated that the felt as though the deal failed to address the key concerns of the strike, particularly in regards to wages. TAs are usually graduate students who work either full-time or part-time. Their salary in Ontario is averaged at $15,000 a year, the CBC reported. According to Statistics Canada, the cut-off for a low-income individual working in a big city is set at $23,000.</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>5468</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>20150317_Mississauga-UTM-CUPE3902_Picketing_Labor</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>As part of the ongoing strike by CUPE 3902 Unit 1, a “Day of Action” was organized at the University of Toronto Mississauga in response to the claim on UTM’s strike update webpage that “classes, exams, events, and community programs are proceeding as normal”. Picket lines formed as early as 8:00 am. Large groups of picketers blocked vehicle traffic into all three entrances at UTM on Tuesday, with police on hand to direct traffic. Commuters faced delays of up to 90 minutes, according to an article on CP24.com. Police were stationed at various locations in the UTM area to direct traffic and suggesting alternate routes. UTM shuttle bus services needed to be relocated.</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>5483</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>20140918_SanAntonio_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>After a panel on 21st century racism against Latinos and African-Americans at San Antonio College, a group of about 12 students marched around campus with a banner reading Workers and Students Unite and Fight Racist Police Terror, Mass Deportations and Mass Incarcerations." The group walked from the Methodist Student Center, through the mall and across San Pedro Avenue shouting, "This racist system has got to go!" and "Capitalism means? We have to fight back!" When the demonstrators passed by Loftin Student Center for the second time, Mary Schlabig, office of student life administrative associate, was outside waiting for them and told the group to "wrap this up" because they did not have permission to protest. However, the protesters ignored Schlabig and continued with their demonstration for another 15 minutes before dispersing. Campus police arrived on bicycles but did not confront the demonstrators.</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>5521</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>20141120_LosAngeles_Disruption_Tuition</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>UCLA Students staged a protest against potential tuition hikes. The event was organized by United Auto Workers Local 2865, a union that represents graduate student workers at the UC, along with the Student Coalition Against Labor Exploitation and several other groups. Students marched around the campus, chanting at the front door of Murphy Hall. Next, they disrupted UCLA's annual "Beat 'SC Bonfire and Rally." About 50 students marched in circles around the bonfire site. They banged a drum, chanted and circled the woodpile. The protesters demanded that the University of California Board of Regents cancel its plan to raise tuition by up to 5 percent annually for the next five years. University police said they would not arrest the protesters unless UCLA officials asked them to because the protesters were not trespassing or breaking any laws. Campus officials responded by negotiating with the protesters, but not forcing them to leave, affirming their right to free speech on campus. UCLA officials also canceled the bonfire portion of the Beat 'SC Bonfire and Rally as a result of the protest.</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>5575</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>20150422_Montreal_March_Environmental</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Protestors marched through downtown Montreal denouncing the provincial government’s recent cuts to education as well as the federal government’s environmental policies. The protestors were followed by police on all sides. Blocked off from exiting Berri square, the group of protesters eventually filed into the Berri-UQÀM metro station. Chanting continued in the underground tunnels as protesters marched towards UQÀM’s underground area. By then, the initial group had diminished by half.</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>5580</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>20141022_Athens_Walkout_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>On Oct. 22, about 200 students gathered on College Green at Ohio University for the "#HandsUpWalkOut" in protest of the fatally shooting of black teen Michael Brown by officer Darren Wilson. The group marched from the Civil War Monument on the Green, through Court Street, stopping traffic, then on East Washington Street, ultimately ending up inside of Baker. The protest was one of 77 that took place across the nation that day.</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>5582</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>20141124_Athens_Sit-in_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Organizers of the #handsupwalkout Summit at Ohio University  held a occupation on campus in Baker University Center Theatre at 7pm in order to protest the verdict to not indict the police officer who shot Michael Brown in Ferguson. _x000D_
+_x000D_
+Students marched from the Civil War Memorial on College Green to Baker University Center. The students congregated at the top of Baker and began the sit-in which lasted until at least 2 am the next day. Signs and banners were displayed with slogans related to anger at the Michael Brown case. Organizers also had a list of demands for the Ohio University administration in order to promote diversity and inclusion for racial minorities.</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>5585</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>20150228_Montreal_Demonstration_EconomyInequality</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Labelled as an action in defence of education and organized by the Fédération étudiante universitaire du Québec (FEUQ), approximately 1,500 people protested austerity measures by the provincial government. The protest coincided with the recent departure of former Education Minister Yves Bolduc and the instalment of his replacement, François Blais. The march traveled from Université du Québec à Montréal (UQÀM) to McGill University. A protester carried a sign bearing an anthropomorphic pair of scissors in reference to cuts in the education budget. The “anarcho-PKPist” contingent to the FEUQ-organized protest marched under a banner sporting media mogul and Parti Quebecois politician Pierre Karl Péladeau wearing a stuffed wolf hat—a play on the Printemps 2015 movement’s anti-austerity symbol. The banner refers to a perceived affiliation of FEUQ with the PQ, which some progressive and radical activists are critical of. Members from student organizations such as AQCPE. FECQ. and CSQ were also present. At the event, speeches were given by various student organization members some of which were booed by a small group. For the march, the FEUQ provided the police with their itinerary in compliance with 2012 amendments to municipal bylaw P-6 that obliges protest organizers to provide police with their itinerary--a contentious move that is opposed by a lot of the Montreal activist community, included members of anti-austerity group Solidarity Concordia and the Concordia Student Union.</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>5591</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>20141205_Athens_SymbolicDisplay_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>In response to the grand jury's decision to not indict the police officer involved in the Michael Brown killing, a crowd of about 50 students and Athens residents gathered near the Athens County Courthouse at 5 p.m. Friday for a rally. Later, the demonstrators marched from the courthouse along Court Street to Ohio University. At Cutler Hall, they held a die-in for several minutes. They then moved to Baker University Center, where the group linked arms and continued to demonstrate until the after 7 p.m. The event was primarily organized by students involved with #HandsUpWalkOutOU, a group behind recent demonstrations on campus tied to tense race relations and police brutality.</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>5647</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>20141124_Newton_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Boston College students-including many members of the Black Student Forum-marched across campus to protest the grand jury decision tonight not to indict Ferguson officer Darren Wilson. Symbolically chose 10:45 as the meeting time to symbolize the four and a half hours Ferguson teen Michael Brown's body lay in the street. Some students voiced concerns at the Boston College Police Department headquarters.</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>5725</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>20140918_Winnipeg_March_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>People of all ages gathered at 6:30 p.m. at the Bell Tower on the corner of Selkirk Ave. and Powers St. with homemade signs, banners, and T-shirts, to take part in Winnipeg's 36th annual Take Back the Night march. A diverse crown took to the sidewalks to raise awareness of sexual and domestic violence against women. The event marked the first year that the march was denied a parade licence by the Winnipeg Police Service (WPS), which means that the WPS did not officially provide police escorts to ensure the safety of those marching. However, during the march, marked and unmarked police vehicles did have a constant presence, but attendees questioned their intentions. The lead-up to the march featured both performances and speeches, which included concerns to the response to missing and murdered Aboriginal women and girls. All speakers expressed enthusiasm about the presence of so many men at the event. The University of Manitoba  Womyn’s Centre provided bus tickets and sign-making materials for students who wished to attend the event. The march lasted just under one hour. It ended at the Inner City Social Work campus with bannock and refreshments.</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>5747</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>20141130_NewYorkCity_SymbolicDisplay_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>More than 200 students held a die-in during the annual Tree Lighting Ceremony last week, in which students of color laid peacefully on the ground to protest the recent grand jury decisions. After it ended, around 200 students marched down Broadway to the Intercultural Resource Center. Police cruisers parked at the intersection, and students toward the back of the protest had to pass through the police to get to the IRC.</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>5749</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>20141204_NewYorkCity_SymbolicDisplay_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>More than 200 students sprawled out across College Walk in a "die-in" a day after a Staten Island grand jury decided not to indict the police officer who choked and killed Eric Garner. Students, many dressed in black, occupied College Walk from the Broadway gates to the sundial with some silently holding signs saying "We want justice" and "RIP Eric Garner." The die-in followed a Black Students' Organization performance of "Strange Fruit," a 1937 Billie Holiday song protesting lynchings in the American South. Protestors then marched to the Intercultural Resource Center, after which some protestors went to join protests taking place near city hall.</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>5757</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>20150412_NewYorkCity_Demonstration_SexualAssault</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>No Red Tape was prevented from projected phrases like "Rape happens here" and "Columbia protects rapists" onto Low Library by university administrators. Activists complied, and in response, activists held banners reading "Carry That Weight" and "Columbia Protects Rapists" over Low Steps and ledges by Kent Hall. After prospective students left the event in Low Library and headed toward buses on Amsterdam Avenue for a tour of the city, No Red Tape members projecting phrases such as "Columbia has a rape problem," "President Bollinger: Carry that weight," "We deserve a safe campus," and "Do you want a rapist as your RA?" onto the building.</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>5762</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>20150424_NewYorkCity_Occupation_PrisonMassIncarceration</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>About 40 students staged a sit-in for nearly five hours in Low Library to pressure University President Lee Bollinger to bring prison divestment to the Board of Trustees and release a statement on the issue.members of CPD and their supporters sat in a hallway on the first floor of Low Library and engaged in chants such as, "Divest, divest, from CCA and G4S. Columbia is a corporation invested in the prison nation." While Public Safety officers approached the scene and momentarily closed doors near the hallway where protesters were sitting, they did not communicate directly to the students present at the sit-in.</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>5804</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>20150415_Montreal-Concordia_Blockade_EconomyInequality</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Protesters blockaded the Guy-Metro Building at Concordia University while approximately 30 protesters had a “sit-in” outside of President Alan Shepard’s office on the building's eighth floor. Concordia’s Health Services office and the Financial Aid and Awards Office, both located on the second floor, were closed as a response to the demo. At the sit-in, protesters hung banners and played music. A speaker from the group said that their intention "was to talk to Alan Shepard about speaking out with what is happening." Andrew Woodall, the Dean of Students, watched over proceedings and talked to the demonstrators. One security guard was seen on the eighth floor, while another monitored the blockade downstairs. After some time, the protesters held a special general assembly to discuss whether to stay or leave to join an UQAM demonstration. They voted to leave and reorganize downstairs. Members from the Students of Philosophy Association, Liberal Arts students, graduate programs and the Women’s Studies Student Association, who are currently on strike, were present at the impromptu meeting.</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>5815</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>20141124_Berkeley_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>UC Berkeley students, faculty and community members marched  through the city and campus as part of a system wide day of action, protesting the recent vote by the UC Board of Regents to pass a controversial tuition hike policy. The event started with a rally and then demonstrators walked out of their classes, picketed with posters, and chanted. included more than 1,000 people at its peak. Traffic was stopped by UCPD. Demonstrators demanded to speak to administration.</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>5824</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>20141210_BowlingGreen_SymbolicDisplay_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Students, faculty and Bowling Green community members protested against racial injustices, particularly in the light of Ferguson protests and the non-indictment of a cop accused of killing Eric Garner in New York City. The group, clad in black, congregated in front of the Big Red statue in Downing Student Union, waiting for the clock to strike 11:30, at which point they laid down on the floor for a "die-in." They displayed signs reading "#BlackLivesMatter," "Mike Brown RIP" and "I can't breathe." An hour into the protest, the body count on the floor had grown from roughly 80 to more than 100 participants. Before 2 p.m., the protest moved to the intersection of University and College Heights Boulevards. There, the group sat down in the crosswalk, chanting "Hands up! Don't shoot" while four Bowling Green police cars blocked traffic. Howard Bailey, vice president of Student Affairs, responded to the protest saying he was "disappointed" with the decision to move onto a public highway, as protesters could have been injured.</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>5831</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>20140918_Baltimore_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>The silent and peaceful protest started in the Upper Quad near Gilman Hall, and consisted of students, professors, and community members. Protestors circled the quad, and moved to stand along both sides of a median on a street.</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>20141202_Baltimore_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Morgan students joined students across the country on a “National Walkout for Ferguson.” Roughly 30 students gathered on Morgan State University’s campus quad, singing in unison “I got a feeling, I got a feeling, oh yeah, I got a feeling that somebody’s trynna hold me back, and it ain’t gonna be no [stuff] like that.” Rally leaders invited students walking to and from classes to join in the march that ended at the intersection of Hillen Road and Coldspring Lane. “No justice, No peace. Hands up, don’t shoot!” protestors chanted. The protest wound down at 3 p.m. as students returned to class.</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>5841</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>20150429_Baltimore_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>After organizing a rally on Towson's campus, student leaders led hundreds of students to Penn Station in Baltimore where they led a large, peaceful march through the streets to city hall. According to organizers, there were at least 1000 people in the march. One student leader said the crowd had just wanted to see the mayor. One specific demand of the organizers and marchers is the reform of the Law Enforcement Officers Bill of Rights, legislation that gives heavy protection to officers during investigations of abuse or misconduct. Upon arriving at city hall - a building that was heavily protected by members of the National Guard -student leaders called for a moment of silence. Outside of city hall, student leaders from several colleges, including Towson, Goucher and Johns Hopkins and organizers shared their stories of how they have been affected by the incidents in Baltimore, and how their lives, in general, have been impacted because of their race.</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>5881</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>20140408_StLouis_Occupation_Environmental</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Students march up Brookings Steps last April to initiate a sit-in which lasted more than two weeks. The sit-in  began with a crowd of about 50 undergraduates, alumni, students from other local universities and members of various environmental groups holding signs and rallying as organizers spoke by megaphone. About half of those students stayed overnight, under the stars or in tents pitched in the Brookings Archway. Students participating in the sit-in have made a point to remain amicable and work with the Washington University Police Department to avoid arrest or referral to the Office of Student Conduct. The occupation lasted for 16 days.</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>5899</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>20141015_Boston_March_LabourAndWork</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Around 100 workers and union leaders marched down Commonwealth Avenue to BU President Robert Brown's office calling for better wages, job contracts and health care. After the march, an adjunct professor, went directly to Brown's office on the eighth floor, followed by two police officers, and requested to leave two small clementines for the president. Although she was not allowed inside the office, the officers took the fruit and left it on a desk outside his office. The clementines symbolically represented the professors dinner, who stated that Brown "has taken everything else from me, so I want him to have my dinner too." This is in response to unfair work contracts and low wages for adjunct faculty.</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Monitor/Present, Cooperate/Coordinate</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>5905</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>20141202_Boston_Vigil_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>A candlelight vigil was held at Marsh Plaza at Boston University. Attendees were asked to sign messages on a banner that would be sent to Michael Brown's family. A speech and call and response prayer were given.</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>5917</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>20120410_Augusta_LGBQAgainst</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Matthew "Brother Matt" Bourgault, a campus-touring preacher began preaching at the amphitheatre at Augusta State University, eventually moving in front of the Jaguar Students Activities Center, yelling at students on their way to class, because of student's engagement in sexual activity, homosexuality and drug use, saying that they were all going to hell. He often resorted to insults, calling female students "whores" for the way they dressed, overweight students "gluttons" and, in one case, addressing one student as a "cigarette-sucking masturbator." As the demonstration progressed, Bourgault's and the students' hostility toward one another began to escalate. He began focusing on homosexuality, stating that that the "feminine spirit" was among the men at the college and the "masculine spirit" among its women. Bourgault's sermon eventually devolved into a shouting match with students until he stopped and walked away from campus.</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>5918</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>20120410_Augusta_Rally_LGB+(For)</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Students at Augusta State University counter-demonstrated against Matthew "Brother Matt" Bourgault's hateful speech, faith-based discrimination, and anti-homesexual views. Students brought mirrors to hold in front of the preacher in a symbolic gesture meant to emphasize Bourgault's hypocrisy. Students cheered in pride or laughed in mockery when Bourgault accused students of being "sodomites" and "godless." Many students hurled insults back. Bourgault's sermon eventually devolved into a shouting match with students until he stopped and walked away from campus</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>5919</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>20141210_Berkeley_SymbolicDisplay_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>The first major event in the article involved UC Berkeley School of Law students who held a "die-in" on the steps of Boalt Hall. This event was attended by more than 200 students who were interested in raising awareness of the issues of police brutality, but only about 40 students actively participated in the die-in. They lay on the steps for 15 and a half minutes, to symbolize (11 minutes) the number of times Eric Garner said "I can't breathe" and (four and a half minutes) the number of hours Michael Brown's body allegedly remained on the ground after his shooting by a police officer.</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>5940</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>20150324_Orono_OtherForm_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>The dismissal of Pi Beta Phi members from the University of Maine sorority following a visit from the organization's national officers, led to a protest fire. The visit was made to ensure the chapter was adhering to and complying with policies and receiving the premier member experience Pi Beta Phi promises. The national organization's policies state that any form of discrimination, sexual harassment, hazing, possession or use of illegal drugs and underage consumption of alcohol are strictly prohibited among chapter members._x000D_
+_x000D_
+ The protest fire by Pi Beta Phi sorority members, took place outside of a building of the Orchard Trails apartment complex where a large number of Pi Beta Phi sisters reside. A group of people were burning clothing, books, signs and other personal possessions outside of Orchard Trails Building 12. Orono Police Officers responded with fire fighters to a complaint around 9 p.m. of a burning odor in the Orchard Trails apartment complex, but the fire was put out prior to the arrival of responders.</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>5946</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>20120201_Halifax_March_PublicFunding</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>A National Day of Action was held in Nova Scotia. About 1000 people showed up to protest government cuts to higher education and rising tuition. Some police were present, but the rally and march was conflict-free. Because of the participation of Premier Darrell Dexter in this event, protesters "changed our route to go down Sackville Street to be outside the NDP caucus office.” Note- much of the article is direct quotes, making it difficult to select text that is not part of a quote.</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>5958</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>20141205_Tucson_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>A group of over 50 individuals organized by the Arizona Students Empowerment Network gathered at Old Main for a moment of silence against police brutality in recognition of those who had been killed due to incidents of police brutality and those who will be killed in the future. The group also protested the recent grand jury decision not to indict the police officer who killed Eric Garner, and death of Michael Brown. The group marched up University Boulevard and down Euclid Avenue before gathering in front of the Student Union Memorial Center. The group then made its way around campus before deciding to stop and gather at the roundabout of the student union. Upon arrival, the protesters gathered around the statue in the center of the circle and chanted. They made their way through the student union and silently walked through the building. They proceeded to make their way to University Boulevard where they gathered at the intersection of University Boulevard and Park Avenue to block traffic, requiring police on the scene to block off the streets to prevent anyone from driving through the intersection. Some of the protesters then lied down, performing a "die in," a form of protest that was seen in Ferguson in reference to the fact that Michael Brown was left in the street for four-and-a-half hours.</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>5980</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>20141026_Evanston_SymbolicDisplay_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>This event was titled "Die-In #BlackLivesMatter,", where students lay down on the sidewalks near The Arch on both sides of the street at the corner of Chicago Avenue and Sheridan Road beginning at 9 a.m. and stayed until 1:30 p.m. This was to protest the grand jury decision in Ferguson, Missouri not to indict the police officer who fatally shot unarmed black teenager Michael Brown. Students joined and left the protest throughout the morning, with numbers ranging from 18 to 40 demonstrators. Protesters also made signs that said "Black Lives Matter" and quoted Martin Luther King Jr. Multiple people who drove and passed by expressed both support for and opposition to the protesters. At the end of the event, about 30 remaining students stood in a circle in front of The Arch and chanted their reasons for protesting.</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>20141201_Philadelphia_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>In response to the grand jury decision to not indict the officer who killed Mike Brown, students from the University of Pennsylvania held a march. Organized by the Students Organizing for Unity and Liberation protesters attempted to address the perceived injustice in the grand jury decision by having a sit-in along the streets from City Hall to 33rd and Market streets. Protesters lied down to stop traffic at 34th and Walnut streets and 33rd and Market streets for four minutes. They held up banners, one of which said, "No Justice No Peace." The march began in City Hall and moved back to University City (shared land between The University of Pennsylvania, Drexel University, the University of the Sciences and the Restaurant School at Walnut Hill College).</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>6004</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>20120201_Hamilton_March_Tuition</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>As part of Day of Action for university students across Canada, students in Hamilton marched to take a stand against rising tuition fees. A little over 50 students arrived within the first ten minutes of the event. The CHCH news crew was also present at the event, interviewing students and taking video footage of the rally as it began. Music was blasting, thanks to a DJ present outside the Student Centre. People were gathering, and signs and snacks were shared. Students showed immense enthusiasm to be a part of such a movement. Though McMaster Security and Hamilton Police were present, no issues of conflict arose. While the student group Occupy McMaster played a role in organizing the event, many students from all areas of the University were present, including members of the SRA (Student Representative Assembly), presidential candidates, graduate students and representatives of CUPE Union Local 3906, which represents teaching assistants, sessional professors and postdoctoral fellows on campus.The Canadian Federation of Students (CFS) distributed leaflets to be handed out to students across Canada, outlining their three main goals: to drop student debt, reduce tuition fees and increase education funding.After gathering in the Mills Plaza, students marched in unison, cheering, “What do we want? Dropped fees! When do we want it? Now!” The march route included locations such as the Burke Science Building, the John Hodgins Engineering Building, University Avenue, the Arts Quad and the University Hall archway, concluding in Mills Plaza.</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>6045</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>20141125_Princeton_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Rally and march held by students at Princeton in response to the grand jury's decision not to indict Darren Wilson. At its peak, over 300 students marched in protest along Prospect Avenue starting at midnight Tuesday morning chanting "Hands up, don't shoot," "No justice, no peace" and "Black lives matter," in what was probably the largest public protest at the University in recent years. Proceedings began in Frist Campus Center shortly after 11 p.m., where students gathered to write signs protesting the jury's decision, with messages including, "I am Mike Brown," "Brown deserves justice" and "Black lives matter here and everywhere." Students, led by Terrence Fraser '16, Yoselin Gramajo '16, Briana Payton '17 and Destiny Crockett '17, among others, organized the event shortly after the decision was made in Missouri, with emails going out to several residential college listservs an hour before midnight, as well as an email sent to students in the Black Student Union. The protesters began marching across central campus shortly after departing from Frist Campus Center, and the line continued to grow as the group arrived at Prospect Avenue close to midnight. Students at the scene noted that the line of students grew each time the activists circled the block. By 12:30 a.m., enough students were present to populate both sides of the Street. Members of the University administration also participated in the protest. The protesters marched across Prospect Avenue several times, passed through Prospect Garden, paraded across Nassau Hall and finally convened in front of Robertson Hall. Organizers of the event asked all protestors for a moment of silence, which went on for 4 minutes and a half, to represent the 4 and a half hours that Brown's body was left in the streets of Ferguson. The organizers of the event also intended to poster campus with flyers reading "#JUSTICE FOR MIKE BROWN #BLACK LIVES MATTER" throughout early Tuesday morning, according to an email by Gramajo. Gramajo asked participants that the posters be displayed across campus by sunrise.</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>6077</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>20141203_Stanford_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Wednesday night, hundreds of Stanford students and community members participated in a demonstration reacting to the decision not to prosecute a New York police officer in the death of the unarmed black man Eric Garner, announced earlier that day. Protesters also decried what they saw as a wider problem of police racism and violence. The protesters, led by student coalition Palo Alto State of Emergency, met in White Plaza at around 7 p.m., walked to Palo Alto and returned to the Stanford campus by around 10 p.m. The protesters walked down and blocked off both Palm Drive and University Ave. The protesters also blocked several streets in Palo Alto. The protesters carried signs with a variety of slogans. The protest featured call-and-response chants and several moments of silence, including one in White Plaza at the end of the demonstration.</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>6091</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>20120301_SanDiego_Occupation_Tuition</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Students at UC San Diego participated in the March 1 Day of Action organized by Occupy Education to protest cuts to education. The rallies at UC San Diego took an unexpected turn when a group of protesters occupied a conference room in the campus administrative complex in the afternoon. UC San Diego began the day with rallies, but at around 3 p.m. a group of between 30 and 60 students entered and occupied a conference room in the campus's administrative complex. Campus student government Vice President for External Affairs Samer Naji said the protesters handed administrative officials in the room a list of demands and planned to stay there overnight. But later in the day, a man dressed in plain clothes standing within the group raised suspicions among protesters. After some probing, the man admitted to being a campus police officer but would not show his badge.</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>6107</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>20150414_Berkeley_Blockade_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>A group of about 50 students and some community members gathered at Sather Gate at UC Berkeley protesting police brutality and what they called a hostile campus atmosphere for the underrepresented minority population. During the protest, the group blocked pedestrian traffic through the passageway under Sather Gate. UCPD officers looked on from a distance throughout the protest, but did not intervene.</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>20141205_SanDiego_Demonstration_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>The Black Student Union at the University of California San Diego staged a demonstration to protest against ongoing anti-black violence by police officers, security guards and vigilantes. Approximately 70 BSU members, wearing all-black and t-shirts which read "Black Lives Matter," participated in the demonstration, alongside other students. They gathered at the Price Center where half of the members lay on the ground by Tapioca Express and the other half lay near the entrance to the tunnel. Others read off of a handout, which was also passed out to the students, of names of black individuals whose lives were taken by police officers, security guards and vigilantes from the year 2012 to the present. The members then stood and formed two lines near the entrance of the tunnel, chanting various slogans. A police officer watched from the second story of the Price Center. Protesters also called on the University to act, providing support for students following incidents of anti-black violence, and to hold faculty and staff to a higher standard. The demonstration then moved to Library Walk and stopped in front of Geisel Library. The group, now approximately 100 people, formed a "circle of solidarity" and held hands during four-and-a-half minutes of silence to represent the time that Michael Brown's body was on the ground after he was killed by police. The group then held an open forum for anyone to speak. The protest ended around 2:30 p.m. with a "hollaback." Each member of the circle put a hand on the shoulder of the person next to them; BSU members then yelled to the group "hollaback!" and the group responded with "I got your back!" Police observed from the Geisel Library.</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>6186</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>20141124_Rochester_Rally_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Over 50 students and community members gathered outside ITS at the University of Rochester for the impromptu rally holding signs, candles, and chanting various slogans immediately after the announcement that Ferguson police officer Darren Wilson would not face indictment for the death of Michael Brown. After seeing the verdict (as they had been watching the announcement beforehand in ITS), the group held 4.5 minutes of silence that Michael Brown's family requested before proceeding to outside ITS to begin a rally. Protesters then marched through Rush Rhees Library and Wilson Commons.</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>6189</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>20141201_Binghamton_SymbolicDisplay_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>The Binghamton Speech and Debate Team, the Black Student Union , College Democrats, Asian Outlook and many more student groups took to the Spine, Marketplace, Glenn G. Bartle Library, Tillman Lobby and East Drive in a demonstration after the police officer involved in the death of Eric Garner, a Staten Island resident, was not indicted. The protest began in front of Bartle and split into two, with organizers leading groups through the Pods and Marketplace, parading signs reading "Hands Up, Don't Shoot" and holding a die-in for four minute and thirty second moments of silence, to honor the four and a half hours Michael Brown's body was left on the sidewalk in Ferguson, Missouri before being removed. Over 100 regrouped in the University Union and took to East Drive to Academic A, causing traffic jams past the Union. They staged a "die-in," lying in the street while Binghamton Police cars watched from yards away.</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>6215</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>20120316_Winnipeg_March_Environmental</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Roughly 40 people gathered outside Monsanto’s offices in the U of M Smartpark at 1 p.m. to voice their concerns about the agriculture company, which sells seeds, biotechnology-developed traits, and crop-protection chemicals. They held signs, chanted and about 20 people held letters. One of the leaders of the protest, gave a speech about the issues surrounding companies like Monsanto including: the need for improved safety on technological intervention in society, that six corporations control most of Canada’s food supply, the public has been eating genetically modified foods for years and the bullying and exploitation of small farmers. After the speech, the protesters moved inside the Monsanto Canada building, between two sets of glass doors, banged on the glass and shouted phrases. Then the protesters marched down Chancellor Matheson Road straight into UC, where they continued to chant, blow whistles and distribute flyers to U of M students. The protesters moved from UC through the engineering complex and into the agriculture building where an academic advisor who declined to give his name asked them to leave. The crowd left and concluded their protest on the steps of the animal science/entomology building to plan future events. The University of Manitoba’s security services surveilled most of the protest from a distance.</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>6216</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>20120228_Washington_Strike_LabourAndWork</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Approximately 30 local iron workers held a strike and picketed near Maloney Hall holding signs and banners, and chanting to protest against Wings Enterprises for their unfair labour practices, and demand that CUA not use Wings Enterprises for the construction of the South End of Campus. The entrance to the University became congested from the crowds and partially blocked off by District policemen stationed to monitor the affair.</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>6225</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>20150409_Radford_Demonstration_FaithBasedDiscrimination</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Students at Redford University gathered in response to the religious group and started singing and chanting to try and drown them out. Students also held up signs in protest of the religious group's messages. Members of one of the University's affiliated Christian groups, CRU, also gathered to debate the group. At one point in the protest, nearly 100 Radford students had gathered in front of Heth Hall with another 20 standing on a balcony. Students also collected signatures for a petition to ban the group from coming back to RU.</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>6226</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>20150409_Radford_Demonstration_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>A group of five assembled at the Heth clocks at Radford University around noon on April 9 with posters, signs and pocket-sized comic books on the Bible and the nature of sin. A man who identified himself solely as Randall began to inform the students of Radford that they were going to hell for the various sins associated with college life. Randall, a middle aged man and his unidentified middle aged companion who was wearing a sandwich board decrying Islam and its followers, began to answer some of the students' questions. They also denied any affiliation to the Westboro Baptist Church.</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>6242</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>20141205_Stillwater_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Led by Oklahoma Students for Solidarity, OSU students and faculty gathered on campus at Monroe Street and Hall of Fame Avenue to protest the deaths of unarmed African-Americans at the hands of police officers. Before the protest began, OSU Police Department Chief of Police Michael Robinson arrived on scene in an unmarked police vehicle and spoke to protesters before escorting them along their route. Protesters marched south down Monroe to the Edmon Low Library fountain. There, they participated in a 4 1/2-minute die-in, intended to symbolize the 4 1/2 hours Michael Brown's body laid in the street after being fatally shot by a police officer in Ferguson, Missouri. Following the die-in, the group released a list of demands for the university regarding a recent incident of hate speech. According to the group's media liaison, the OSU protest was intended toward not only the police department or the university, but to the community as well.</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>6248</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>20140814_Richmond_Rally_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Protestors held a rally, and candles were lit to remember Michael Brown during a moment of silence and solidarity. Those participating in the rally were then escorted from University of Richmond Downtown to Monroe Park by the Richmond PD.</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>6252</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>20141124_Richmond_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Past 10 p.m. on a Monday night, a group of about thirty VCU students met in the Student Media Center on Broad Street in response to the grand jury decision in St. Louis in to not indict arren Wilson, the white police office who shot and killed 18 year-old Michael Brown in Ferguson, Mo. . Before walking the streets to protest the decision, the group listened as a VCU student read a pamphlet on how to act if confronted by a cop. With the helpful words, "use common sense," the group, which has grown to almost 50 people, walked on Broad Street across from Goshen Street. Turning left on Laurel Street the crowd had already triple digits. Once in the Compass, Sika Nyamador, freshmen international studies and social justice major, began a prayer as the group encircled her. "We pray that your presence will come through on this campus lord Jesus Christ," she said with her head bowed, a girl beside of her holding a sign that read 'sick and tired of being sick and tired. Who's next?' By 11:08 p.m., there were at least seven cop cars and two bicycle cops on the outskirts of the Compass. From the Compass, the march continued down Shafer Street to Broad Street, turning on Belvidere towards the compass. Multiple counts place the crowd size at about 700 people at this point - at times they are taking up all three lanes of traffic, but many urge other to stay on the sidewalk as to not anger the cops who are escorting the march. Protesters cut through Monroe Park, and while they were standing in front of Altria Theater, they made the announcement they would be heading towards the Richmond Police Department. Marching down Franklin Street, the crowd spread into the street, covering all three car lanes and multiple blocks, and they walked toward their destination. They turned left on Jefferson Avenue and at 12:03 a.m. the march arrived at the Richmond Police Department. Moments later, at 12:17 a.m., the entire crowd hushed for a moment of silence, which was broken by a woman's voice singing Amazing Grace, the crowd joining her moments later. At 12:30 a.m. the crowd began to disperse and head their separate ways with plans to meet again Tuesday at 4:30 p.m. at the John Marshall Courthouse.</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>6253</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>20141203_Richmond_SymbolicDisplay_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Starting in the Compass, students marched off-campus, where 50 of the protesters then laid on the street to participate in a die-in for Eric Garner, Michael Brown and other African Americans whose deaths were at the hands of police officers. The die-in lasted for 11 minutes to signify the 11 times Eric Garner told officers "I can't breathe" while being choked, and also acted to block traffic. Students then marched back to campus.</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>6254</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>20150114_Richmond_March_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>A student protest even organized by Black Action Now in which about 100 students gathered at Monroe Park and then marched to the Siegel Center for a die-in in which protestors blocked traffic for fives minutes. This was in protest of police violence against African-Americans.</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>6263</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>20150311_Bloomington_March_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>A group of about 30 men started marching from the Sample Gates toward the Whittenberger while holding signs and wearing Nazi memorabilia to protest against anti-racism author Tim Wise, accusing Wise of systematically stirring up racial resentment against white Americans. Network members managed to tear down the blank banners to display their signs more clearly to the crowd. Trad Youth President Tom Buhls also allegedly cut a counter-protestor. The protestors then marched off-campus to the town square, and got aggressive with counter-protestors along the way.</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>6302</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>20181210_Vancouver_Demonstration_TransgenderIssuesAgainst</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>A small anti-transgender demonstration that took place mere steps from UBC’s Pride installation outside the Nest. Two individuals not affiliated with UBC came to campus with materials denying the existence of transgender people, while stressing conservative Christian values. They were later joined by a third individual. They were protesting censorship on university campuses and were in support of free speech as well. Bill Whatcott, a demonstrator and well-known anti-LGBT activist, wore a t-shirt with prominent transgender activist and BC NDP VP Morgane Oger's image and a message that intentionally misgendered her. He also handed out flyers questioning Oger’s sexuality and criticized the tribunal’s decision to hear the complaint as a “loss of freedom."</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>6303</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>20181210_Vancouver_Demonstration_TransgenderIssuesFor</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Around a dozen UBC students staged a counter-protest in response to a small anti-transgender demonstration by chanting “trans rights are human rights” and “trans bodies are safe here.” Some carried large Pride flags to block the demonstration from view. A small group of UBC Campus Security and RCMP members stood by on the sideline to monitor the situation.</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>6316</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>20191001_Toronto_Rally_ProLife</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>An anti-choice rally was held at the Gould and Victoria streets intersection on Ryerson University campus. Demonstrators were allegedly assaulted by Gabby Skwarko, a Ryerson student and member of the Ryerson Reproductive Justice Collective. A video of the incident shows Skwarko approached anti-choice protestors—including Toronto Against Abortion (TAA) members Blaise Alleyne and Katie Somers—who were heatedly debating about abortion with RRJC members on campus. Skwarko kicked the graphic anti-choice sign Alleyne was holding. She then picked up a small cart and clamp that were on the ground in the middle of the circle of TAA protestors, threw the items at them and started to grab and push Somers. The footage shows that Skwarko then reached into Somers’ backpack, pulled out a metal water bottle and smashed it on the ground. She continued to shove Somers until other people stepped in and separated the two. Ryerson administration declined to comment on whether or not they’ll be taking any disciplinary action, citing student confidentiality.</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>6317</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>20181001_Toronto_Violence_AbortionAccess</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>An pro-choice counter demonstrator (Gabby Skwarko) violently attacked pro-life demonstrators at the corner of Gould and Victoria streets at Ryerson University. Skwarko kicked the graphic anti-choice sign. She then picked up a small cart and clamp that were on the ground in the middle of the circle of TAA protestors, threw the items at them and started to grab and push Somers (an pro-life protester). The footage shows that Skwarko then reached into Somers’ backpack, pulled out a metal water bottle and smashed it on the ground. She continued to shove Somers until other people stepped in and separated the two. “Come on, let’s go!” Skwarko told Somers repeatedly in the video. People in the background told her to “chill out” and “relax.” Police were called to the scene.</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>20141204_StLouis_Rally_UniversityGovernance</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>The event in this article was a rally, blockade, moment of silence, and more. It was held by student protesters at Washington University, who were calling for action to be taken by University administration in regard to police brutality and racism in nearby Ferguson. The protest began at Bauer Hall because a Board of Trustees meeting about the undergraduate experience was in progress inside the building. After leaving Bauer, the students entered Olin Library, where group leaders called on watching students to become involved in the movement. Outside Harbison House, where Wrighton lives, the protesters continued chanting, and Riggs reiterated the demands the group had made at a demonstration on Monday: that the University release a statement taking a stance on events in Ferguson and the ensuing protests, and that Wrighton and other administrators meet with members of STL Students in Solidarity to discuss further demands. After reading the demands outside the chancellor's residence, the protesters marched down Forsyth toward Skinker, blocking the eastbound lanes. Among the vehicles stopped by the march was the campus circulator, which emptied of passengers. The protesters continued chanting and marching until they reached the intersection. Protest organizers arranged the participants to block all four entries to the intersection and led them in chants before commencing a 4 1/2-minute silence to represent the 4 1/2 hours that Michael Brown's body lay in the street after he was shot. Police maintained a presence throughout the protest to monitor the situation, parking their cars outside of the intersection blockade and following the protesters as they marched. The protest involved roughly 500 people.v</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>6353</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>20141013_StLouis_Occupation_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Over 1000 participants marched onto SLU's campus from the scene of Vonderrit Myers' shooting towards the SLU campus to launch an Occupy SLU sit-in and protest police violence. Following the march, protesters hosted a teach-in at the clock tower at 9 p.m. According to school administration, this teach-in was attended by over 500 students, Jesuits, and faculty. SLU's President, Dr. Fred Pestello, made an appearance, but did not address to the crowd. Organizers stated their goal was "to bring awareness to [this] very privileged community and [its] privileged individuals" about the oppression and inequality faced by black people, specifically at the hands of law enforcement. They also referenced the death of Michael Brown. The discussion was led by SLU students, members of Tribe X and other protester leaders who passed around several megaphones and encouraged attendees to speak up, ask questions, and share their thoughts. Protesters also inverted the American flag in the middle of campus, which they said was a sign of distress; they argued that since black communities were racially profiled, ignored and oppressed by society, the American flag does not represent the same virtues to them as it did to others. Following the teach-in, they started an encampment. Oct. 13-18 civil rights organization Tribe X staged an occupation/encampment of the campus clock tower.</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>6358</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>20141001_Toronto_March_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>olidarity protest event in support of the Hong Kong pro-democracy movement. The crowd, consisting mostly of students, gathered at the University of Toronto. From there, they marched from King’s College Circle on campus to the Hong Kong Economic and Trade Office a few blocks away. The Toronto Police was present to ensure the safety of marchers as they met road traffic. As they marched, participants held signs and chanted slogans asking for the restoration of democracy in Hong Kong and a stop to police violence against protesters. Many also brought umbrellas as a symbol of solidarity towards the Hong Kong protesters. The Hong Kong movement has been called the 'umbrella revolution' because protesters used umbrellas to protect themselves from police pepper spray and tear gas. Upon arriving at the Hong Kong Economic and Trade Office, several speakers rallied the crowed, including Alastair Woods, the chair of the Canadian Federation of Students-Ontario, and Winnie Ng, a Ryerson professor and CAW-Sam Gindin Chair in Social Justice and Democracy.  A petition was left on the steps of the front door. _x000D_
+_x000D_
+This march was one of several marches province-wide organised by the Ontario United Front for Hong Kong Students (OUFHKS).</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>6362</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>20141017_Toronto_OtherForm_ProLife</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>The York University pro-life group Youth Protecting Youth held a tabling event in Vari Hall from 10 a.m. to 2 p.m. on October 17. The group had a permit from the university to hold their event. When confronted by counter-protesters, YPY President Ashley Lawlor contacted Student Community and Leadership Department and York security, referencing her permit. Police arrived on the scene, allegedly patrolling on a separate matter. Security showed up 45 minutes after YPY called.</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>6385</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>20141125_Toronto_Ryerson_Rally_PoliceViolence</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Ryerson Students’ Union (RSU) executives helped organize an anti-racist protest with Black Lives Matter following the Ferguson grand jury’s verdict not to indict Officer Darren Wilson for shooting Michael Brown. Protesters demanded the demilitarization of police, financial support for victims and families affected by police violence and an end to racial profiling. Protestors were asked by organizers to wear all black and many carried signs with statements such as “Being black is not a weapon,” and “Fuck the police.” Th RSU president said Ryerson should get more involved with the anti-racist activism both on and off-campus. A moment of silence was held to honour African-Americans who have been killed by police. Protestors began chanting “black lives matter,” a slogan popularized to discuss racial imbalance in the US.</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Monitor/Present, Participate</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>6389</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>20150225_Toronto_Petition_OtherIssue</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Students from the Armenian Students’ Association together with the Armenian Youth Federation (AYF) of Canada and the Armen Karo Student Association, an organization that promotes Armenian studies in Canadian universities, protested a panel discussion held by the Federation of Canadian Turkish Associations at Best Institute at the University of Toronto. A professor and prominent lawyer were two speakers on the panel who have denied that the 1915 Armenian Genocide was a genocide. The protestors sat in the audience during the talk, but when the genocide was mentioned, the group stood up and turned their backs to the speaker in silence. Many of the other audience members were upset by the protest, calling it disruptive. The speaker resumed his speech after 10 minutes. After denying the nature of the genocide, the protestors walked out from the panel discussion to cheers and applause from the other audience members. After the walk-out, the protestors made their way to the Anti-Racism &amp; Cultural Diversity Office to submit a petition, which gained over 2,000 signatures over two days, and lodge a complaint against the event. The petition called for the university to distance itself from the organizers and speakers of the panel.</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>6397</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>20150303_Toronto-York-CUPE3903_Strike_Labor</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Three units of York University's CUPE 3903 union which represents teaching assistants (Unit 1), contract faculty (Unit 2), and graduate and research assistants (Unit 3), voted on March 2 to reject a deal presented by the university. As a result, CUPE 3903 went on strike, coinciding with U of T's CUPE 3902 strike. Union members struggle with rising tuition costs, poverty-level wages, institutional disrespect, and short-term contracts that mean they have to reapply for their job every year.  They are seeking tuition indexation, which ensures that as tuition increases, wages and benefits will be adjusted accordingly. CUPE 3903, collectively, is also asking for international students’ tuition to be lowered and LGBTQ to be included as an equity group in their collective agreement. As part of the strike, union members are staging daily picket lines. Students have visited the picket lines, asked to join in, and asked what they can do to help. On March 6 there was a hit and run incident that resulted in minor injuries to two picketers, including a hospital trip for one contract faculty member. CUPE 3903 expressed serious safety concerns with tensions escalating on the picket lines, following York's decision to resume classes. Drivers exited their vehicles and, in some cases, destroyed barricades and aggressively confronted picketers. Some events prompted police investigations. The volume of traffic increased along with delays according to the union. Vice-president academic and provost, urged people to remain calm and civil on the picket lines in a statement issued to the community. On March 9, CUPE 3903 Unit 2 voted to accept a tentative agreement and end their strike, but Units 1 and 3 rejected their agreements and thus remained on strike. A tentative settlement was reached on March 29 and CUPE 3903’s bargaining team agreed to send the offer to a ratification vote, and recommended that the union members vote “yes.” The unit then voted to accept the offer. The offer included York agreeing to tuition offset language, making LGBTQ an equity group, and increasing summer minimum funding from $1,750 to $3,000 for Unit 3 members. The employer also agreed to pay all members 100 per cent for the time on strike. In a statement, Mamdouh Shoukri, York president and vice-chancellor thanked those who helped facilitate the agreements – York faculty and staff for their work to keep York facilities open, and students for their patience and understanding.</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>6409</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>20150303_Toronto-York-CUPE3903-Unit1_Strike_Labor</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>York University's CUPE 3903 Unit 1, which represents teaching assistants, went on strike after voting to reject the university's offer for their work contract. CUPE 3903 has been negotiating new contracts for its three units, who have been without a contract since August 2014. Units 1 and 2 were also on strike at the time. Issues vary for the different units of CUPE 3903. Unit 1 is seeking tuition indexation, which ensures that as tuition increases, wages and benefits will be adjusted accordingly. CUPE 3903, collectively, is also asking for international students’ tuition to be lowered and LGBTQ to be included as an equity group in their collective agreement. As part of the strike, union members are also staging daily picket lines. Students have visited the picket lines, asked to join in, and asked what they can do to help. On March 6 there was a hit and run incident that resulted in minor injuries to two picketers, including a hospital trip for one contract faculty member. On March 9, 2015 they voted to reject the University's latest tentative agreement, continuing the strike. Despite the continuing strike, York University’s Executive Committee for Senate decided to resume classes for some programs.</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>6410</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>20150303_Toronto-York-CUPE3903-Unit3_Strike_Labor</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>York University's CUPE 3903 Unit 3 is on strike. This unit represents graduate and research assistants. CUPE 3903 has been negotiating new contracts for its three units, who have been without a contract since August 2014. Units 2 and 3 were also on strike at the time. Issues vary for the different units of CUPE 3903. For graduate assistants, they are aiming to bring guaranteed minimums to their wages, and adjust them to the same levels as teaching assistants. After graduate assistants pay tuition, they are left with very little livable money, pushing them below the poverty line. The union aimed to secure a $15,000 funding agreement for members of Unit 3, a raise from the $8,000 they currently receive. CUPE 3903, collectively, is also asking for international students’ tuition to be lowered and LGBTQ to be included as an equity group in our collective agreement. As part of the strike, union members are also staging daily picket lines. Students have visited the picket lines, asked to join in, and asked what they can do to help. On March 6 there was a hit and run incident that resulted in minor injuries to two picketers, including a hospital trip for one contract faculty member. On March 9, Unit 3 voted to reject the University's latest tentative agreement, continuing the strike. The University suspended all academic activities, but despite the continuing strike, York University’s Executive Committee for Senate decided to resume classes for some programs.</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>6427</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>20150317_Toronto-York-CUPE3903_Picketing_Labor</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>On March 17, during the ongoing strike by members of CUPE 3903 Units 1 and 3 at York University, angry drivers exited their cars at Sentinel Road and demanded to remove barricades at the picket line. Some were aggressive and the physical altercations were caught on video. A line of cars was behind the picket lines, waiting to exit the campus. Several drivers exited their vehicles and told picketers to get out of the way while shouting profanities at them. Cars honked and two individuals yelled at picketers, shouting “Get out of the f***ing way!” Some of the people waiting proceed to knock down signs and one woman attempts to kick down the wooden barrier. Another man got into a picket captain’s face and attempted to move the barrier himself. The CUPE members proceeded to clear the road, and the cars with the angry community members drove away.</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>6430</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>20150321_Toronto_Rally_Labor</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Union members, students, and alumni gathered for a solidarity rally and march with University of Toronto’s CUPE 3902 and York University’s CUPE 3903. Over 500 attendees from the GTA participated. The club Socialist Fightback also attended. The crowd gathered at at Yonge-Dundas square and marched down Dundas Street with police escorts, onto Spadina Avenue, College Street, passing by the UofT campus to arrive at Queen’s Park. The rally took on a general theme of lower tuition for both undergraduate and graduate students and an increase in government funding. The event also fell on the international day for the elimination of racial discrimination, a cause that was also brought up by Maria Wallis, CUPE 3903 member, who specializes in anti-racism and social inequality.</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>6433</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>20150324_Toronto_Picketing_Labor</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>CUPE 3902 Unit 1 members picketing outside entrances to Simcoe Hall and Convocation Hall at the University of Toronto. Campus police guarded the entrances to Simcoe Hall. Due to the picket, a class Convocation Hall was relocated to the lawn of Front Campus, and another was cancelled by the course instructor. Abe Singer, a member of the CUPE 3902 Unit 1 strike committee and one of the organizers of the picketing outside the two buildings, said he was unsure whether Convocation Hall had been closed off to students. Claiming the doors to Convocation Hall had been locked and unlocked . Michael Kurts, U of T assistant vice-president, strategic communications &amp; marketing, said that campus police did not lock the doors to Convocation Hall.</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>6668</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>20180305_Toronto-York-CUPE3903_Strike_Labor</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>CUPE 3903 is on strike and picketing at York University. The strike came after CUPE 3903 voted to reject York’s final settlement offer the week before the strike. The strike includes members from CUPE 3903’s Unit 1 (teaching assistants), Unit 2 (contract faculty), Unit 3 (graduate assistants). On March 6, members were joined by professors and students showing solidarity as they began picketing. Each of York’s main road entrances—at Shoreham Drive, Northwest Gate, Founders Road, The Chimneystack Road, York Boulevard, The Pond Road, and Sentinel Road—is now intermittently barricaded by picketers, using pylons and metal gates to halt traffic from entering campus from 7:30 a.m. to 3:30 p.m., in an attempt to shut down the York campus. Picket captains supervise picketers, who assume roles of timekeepers, ensure at least one minute passes before two cars may enter; traffic directors, who route drivers where to proceed; and members who give incoming students fliers, and inform halted drivers about CUPE 3903’s demands. Legally, picketers are only allowed to slow down cars, but not stop traffic completely. Picketers walk in a circle, because if they stop altogether, it is considered loitering. The majority of commuters have been understanding and patient as to being blocked off. However, there have been instances with drivers bypassing cars, mounting curbs and medians, and trying to bypass the line of cars through the incoming lane.  Picketers have enjoyed the support of sister locals and related unions, including the Ontario Public Service Employees Union, and the Ontario English Catholic Teachers’ Association, U of T local 3902, Western 2361, McMaster 3906, Ryerson 3904, as well as the York University Faculty Association and York University Staff Association. The three central issues remain: keeping in the prior Fellowship agreement in the new Collective Bargaining Agreement for Unit 1; reverting this year’s proposed two-conversions programs back to the original eight for Unit 2; and recovering some of the at-least 700 unilaterally cut jobs last year from Unit 3.</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Monitor/Present</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>